--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_719.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_719.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d76460-Reviews-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>153</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Staybridge-Suites-Chatsworth.h8086.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_719.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_719.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="637">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1837 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r571353400-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>76460</t>
+  </si>
+  <si>
+    <t>571353400</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>We stayed at this location for business March 11th - 14th and had a pleasant quiet stay. Parking was not a problem and breakfast was good. We got a corporate rate of $143 a night which was a lot cheaper than the standard price, very kind of them to offer that.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jennifer E, Manager at Staybridge Suites Chatsworth, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this location for business March 11th - 14th and had a pleasant quiet stay. Parking was not a problem and breakfast was good. We got a corporate rate of $143 a night which was a lot cheaper than the standard price, very kind of them to offer that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r567066876-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>567066876</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Extended stay, but it feels more like home.</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff. Decent breakfast options and the social hours during the week. Plus you have options walking distance from the hotel. They also have great scenic views close enough to enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff. Decent breakfast options and the social hours during the week. Plus you have options walking distance from the hotel. They also have great scenic views close enough to enjoy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r565593298-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>565593298</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Good location for Business trip</t>
+  </si>
+  <si>
+    <t>The reception area was warm and friendly.Always had coffee and Hot water available. Breakfast entrees changed each day, along with the standard breads,waffles, fruit etc. Coffee was excellent bold or mild and flavored creams. My room was huge with a full kitchen ( I did not use it on this trip). Location was a bit tucked away and I did not know the area so I did not venture far. Pool and jacuzzi seemed small I did not use either. Bed was very comfortable and the living area was nice, lots of room to stretch out and a good desk with all hook ups for your laptop etc. The bathroom was cramped and I am sorry the toilet tissue was like sandpaper... why do Hotels insist on putting budget TP in there bathrooms ? They have a evening reception with beer and wine and light dinner items. I was out for dinner each night so I did not partake. I will definatley stay here again on my next trip in the fall.WIFI was perfect no issues at allMoreShow less</t>
+  </si>
+  <si>
+    <t>The reception area was warm and friendly.Always had coffee and Hot water available. Breakfast entrees changed each day, along with the standard breads,waffles, fruit etc. Coffee was excellent bold or mild and flavored creams. My room was huge with a full kitchen ( I did not use it on this trip). Location was a bit tucked away and I did not know the area so I did not venture far. Pool and jacuzzi seemed small I did not use either. Bed was very comfortable and the living area was nice, lots of room to stretch out and a good desk with all hook ups for your laptop etc. The bathroom was cramped and I am sorry the toilet tissue was like sandpaper... why do Hotels insist on putting budget TP in there bathrooms ? They have a evening reception with beer and wine and light dinner items. I was out for dinner each night so I did not partake. I will definatley stay here again on my next trip in the fall.WIFI was perfect no issues at allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r524380222-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>524380222</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>A nice place to saty and relax!</t>
+  </si>
+  <si>
+    <t>We stayed for one week beginning of September.The overall impression of the hotel was very good. The rooms were clean, they have a nice pool and Jacuzzi, a fireplace and BBQ grills outside.The self laundry is also useful.We had a one bedroom suite for 4 people, so we needed to use the sleeper sofa bed.It was a bit small and uncomfortable. Maybe they should make the 2 bedroom suites cheaper, then it will be an option for us. The breakfast menu was good and the selection of food was enough. The service on some days was slow (no plates, no silverware anymore, coffee empty... took a while...), on other days everything was in place and if something was missing it was filled up immediately.All employees were very nice and helpful and fulfilled our requests immediately.At the beginning we thought that Chatsworth is a bit far away from everything, but it is only a 30 minutes ride to Santa Monica or Hollywood, so a perfect spot to stay.Oh and btw - if you stay there, hop over to Amazing Siam across the street (Topanga Canyon Blvd/Lassen Street) - they offer great food !!!We surely will stay again in your hotel the next time we come to LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed for one week beginning of September.The overall impression of the hotel was very good. The rooms were clean, they have a nice pool and Jacuzzi, a fireplace and BBQ grills outside.The self laundry is also useful.We had a one bedroom suite for 4 people, so we needed to use the sleeper sofa bed.It was a bit small and uncomfortable. Maybe they should make the 2 bedroom suites cheaper, then it will be an option for us. The breakfast menu was good and the selection of food was enough. The service on some days was slow (no plates, no silverware anymore, coffee empty... took a while...), on other days everything was in place and if something was missing it was filled up immediately.All employees were very nice and helpful and fulfilled our requests immediately.At the beginning we thought that Chatsworth is a bit far away from everything, but it is only a 30 minutes ride to Santa Monica or Hollywood, so a perfect spot to stay.Oh and btw - if you stay there, hop over to Amazing Siam across the street (Topanga Canyon Blvd/Lassen Street) - they offer great food !!!We surely will stay again in your hotel the next time we come to LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r519223165-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>519223165</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Could easily be better</t>
+  </si>
+  <si>
+    <t>I would have given a "very good" rating except housekeeping simply could not follow simple directions. They put 3 sets of towels in our room even though we had 4 people in the room. We even left written notes and instructions with the front desk, it didn't matter.Be aware you only get a "light cleaning" daily, which is just changing towels if you put them on the floor. A full cleaning to include vacuuming and changing the sheets is done weekly, 1 week after you check in.The breakfast is actually decent, with enough variety most folks will find something they can eat. Coffee is on all the time, though sometimes can taste old in the late evening.Laundry is complimentary, which was a big positive for our 2 weeks stay, just be sure to buy your own laundry detergent, etc., theirs is expensive.The room was clean and in good condition, even though we had a pet friendly room (some places seem to reserve the junky rooms for those of us with pets).They have a nice outdoor seating area to sit and relax which enjoying your breakfast or an evening drink.Location is pretty convenient if you are visiting the North LA area or Malibu, most things are within 30-45 minute drive, of course not counting the famous LA traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Jennifer E, Office Coordinator at Staybridge Suites Chatsworth, responded to this reviewResponded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>I would have given a "very good" rating except housekeeping simply could not follow simple directions. They put 3 sets of towels in our room even though we had 4 people in the room. We even left written notes and instructions with the front desk, it didn't matter.Be aware you only get a "light cleaning" daily, which is just changing towels if you put them on the floor. A full cleaning to include vacuuming and changing the sheets is done weekly, 1 week after you check in.The breakfast is actually decent, with enough variety most folks will find something they can eat. Coffee is on all the time, though sometimes can taste old in the late evening.Laundry is complimentary, which was a big positive for our 2 weeks stay, just be sure to buy your own laundry detergent, etc., theirs is expensive.The room was clean and in good condition, even though we had a pet friendly room (some places seem to reserve the junky rooms for those of us with pets).They have a nice outdoor seating area to sit and relax which enjoying your breakfast or an evening drink.Location is pretty convenient if you are visiting the North LA area or Malibu, most things are within 30-45 minute drive, of course not counting the famous LA traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r518111979-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>518111979</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Family Vacation - between site seeing points</t>
+  </si>
+  <si>
+    <t>Very nice Staybridge to stay at that was right in between - Warner Brothers Studios, and the Reagan Library. We wanted some place that would be easy for us to hit both locations. We enjoyed our stay, the room was a one bedroom unit, with kitchen. It was nice to be able to make our own meals and not have to go out for dinner! The room was clean - and best part was the staff was very friendly and helpful!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer E, Office Coordinator  at Staybridge Suites Chatsworth, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Very nice Staybridge to stay at that was right in between - Warner Brothers Studios, and the Reagan Library. We wanted some place that would be easy for us to hit both locations. We enjoyed our stay, the room was a one bedroom unit, with kitchen. It was nice to be able to make our own meals and not have to go out for dinner! The room was clean - and best part was the staff was very friendly and helpful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r500500818-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>500500818</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Pleasent surprise</t>
+  </si>
+  <si>
+    <t>I hadn't stayed at a Staybridge before so didn't know what to expect. I was quite surprised. Check in was fast and the lady was very pleasant. Large1 bed suite with a full kitchen on the second floor. Rooms were very clean and had all amenities. Small pool. Good breakfast which was included in the price. Also free parking and Wifi.. Little bit pricey though.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Jennifer E, Office Coordinator at Staybridge Suites Chatsworth, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>I hadn't stayed at a Staybridge before so didn't know what to expect. I was quite surprised. Check in was fast and the lady was very pleasant. Large1 bed suite with a full kitchen on the second floor. Rooms were very clean and had all amenities. Small pool. Good breakfast which was included in the price. Also free parking and Wifi.. Little bit pricey though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r487179156-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>487179156</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>This is where I stay when I come to the San Fernando Valley to visit family.  The spacious suites are clean and comfortable.  I have room to spread out and make myself at home.  The breakfasts are tasty.  Although I have not yet attended, there is evening food that could be dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Jennifer E, Office Coordinator at Staybridge Suites Chatsworth, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>This is where I stay when I come to the San Fernando Valley to visit family.  The spacious suites are clean and comfortable.  I have room to spread out and make myself at home.  The breakfasts are tasty.  Although I have not yet attended, there is evening food that could be dinner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r476152729-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>476152729</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>The rooms were clean, smell nice too, but if you have someone living in the room above yours, you can't sleep at night, if they walk the sound of the wooden floors are annoying and too loud, met some good and bad staff, the bed was comfy but that's doesn't matter if you can't sleep! LolMoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer E, Office Coordinator at Staybridge Suites Chatsworth, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>The rooms were clean, smell nice too, but if you have someone living in the room above yours, you can't sleep at night, if they walk the sound of the wooden floors are annoying and too loud, met some good and bad staff, the bed was comfy but that's doesn't matter if you can't sleep! LolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r463507800-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>463507800</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>I rated it as poor due the lack of cleanliness.</t>
+  </si>
+  <si>
+    <t>At first sight it seemed perfect, considering that I needed an apartment that had a small kitchen because I was with a baby.I took out the suitcases from the car and when I entered the apartment I was disappointed. The furniture was covered in dust, including the kitchen appliances. It was not a dust of hours ago, no, that was dust of days without cleaning. To make things worse, I just had the trash taken off the first day. In the following days the trash was left and the kitchen was not cleaned. So,I'm very disappointed about that and for sure, this hotel is out of my list in future trips.PS: (1) Yes, I could have complained to the manager about the lack of cleanliness in the room, but that would solve my problem and not the concept of cleanliness of the place in general. The housekepping manager should be aware of this and check if the service is doing well ...(2)Yes, I could have left the hotel and find another one, instead of complaining, but that would not be so easy, after a 6-hour car trip with 2 children, one being a 9-month-old baby.  It is not about changing hotels but about the responsibility of the workers to do their job well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Jennifer E, Manager at Staybridge Suites Chatsworth, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>At first sight it seemed perfect, considering that I needed an apartment that had a small kitchen because I was with a baby.I took out the suitcases from the car and when I entered the apartment I was disappointed. The furniture was covered in dust, including the kitchen appliances. It was not a dust of hours ago, no, that was dust of days without cleaning. To make things worse, I just had the trash taken off the first day. In the following days the trash was left and the kitchen was not cleaned. So,I'm very disappointed about that and for sure, this hotel is out of my list in future trips.PS: (1) Yes, I could have complained to the manager about the lack of cleanliness in the room, but that would solve my problem and not the concept of cleanliness of the place in general. The housekepping manager should be aware of this and check if the service is doing well ...(2)Yes, I could have left the hotel and find another one, instead of complaining, but that would not be so easy, after a 6-hour car trip with 2 children, one being a 9-month-old baby.  It is not about changing hotels but about the responsibility of the workers to do their job well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r460256817-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>460256817</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Family, fun or business</t>
+  </si>
+  <si>
+    <t>I have stayed 4wks at the Staybridge Suites. They have great daily breakfast options and Social Hour dinners 3 days a week.  Unfortunately, I have food allergies and have a difficult time eating most foods.  In social passing, the front desk found out about my food allergies. Knowing that I will be staying an additional 4wks. Staybridge Suites  delivered a case of single serving Chobani yogurt to my room.  What a great treat!  That was very thoughtful and meaningful, when you have food challenges like I do...priceless!  I will always remember this Staybridge Suites in Chatsworth, California.  At home, I have a wonderful wife and for kiddos; this hotel would be a wonderful place to bring them. I highly recommend this Staybridge Suites for family, fun or business.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed 4wks at the Staybridge Suites. They have great daily breakfast options and Social Hour dinners 3 days a week.  Unfortunately, I have food allergies and have a difficult time eating most foods.  In social passing, the front desk found out about my food allergies. Knowing that I will be staying an additional 4wks. Staybridge Suites  delivered a case of single serving Chobani yogurt to my room.  What a great treat!  That was very thoughtful and meaningful, when you have food challenges like I do...priceless!  I will always remember this Staybridge Suites in Chatsworth, California.  At home, I have a wonderful wife and for kiddos; this hotel would be a wonderful place to bring them. I highly recommend this Staybridge Suites for family, fun or business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r446336700-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>446336700</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Extremely nice place in the northwest San Fernando Valley</t>
+  </si>
+  <si>
+    <t>I have absolutely no complaints about this place.  The room I stayed in was a suite and it was immaculate with respect to interior design... my significant other is a good interior designer and she loved it.  Everything was in order and nothing was missing or astray.  Free parking... which I have come to appreciate after several hotels with $30 to $50 per night parking charges.  The free breakfast was served hot (scrambled eggs, crisp bacon, etc.) but was not cooked to order.  However, I preferred this breakfast to many of the free cooked to order breakfasts.The grounds were in perfect shape and looked beautiful.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r428010215-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>428010215</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>A nice find just outside Los Angeles proper</t>
+  </si>
+  <si>
+    <t>Our son lives in Grenada Hills so we were looking for a nice quiet hotel with a free breakfast buffet nearby.  The Staybridge Suites is clean, with modern appointments.  The suite was roomy, with a separate  bedroom.  The breakfast was good, and the free buffet dinner several nights a week was a nice surprise.  It even includes draft beer and wine! The staff was quick to take care of any needs we had and we would not hesitate to stay there again on our next visit.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r404909201-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>404909201</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Great suite, good location and helpful staff</t>
+  </si>
+  <si>
+    <t>Booked five days here following a stay in Staybridge Las Vegas. We were just as impressed. The hotel is laid out in small two and three storey blocks. Our suite was on the ground floor. We opened the door into a lounge area with sofa that opened out into a double bed.  Behind this was a desk and breakfast bar and kitchen with large fridge freezer, microwave, toaster, coffee maker, two ring hob and dish washer. Off the lounge was a double bedroom and bathroom. It too was spacious, clean and tidy. Check in was quick and efficient and the receptionist polite friendly and very helpful. As it was a Monday there was a complementary evening buffet meal with wine  and beer, which was so welcome after a long drive from Las Vegas. This complementary meal is available Monday to Wednesday 5.30-7.30.  Breakfast is also complementary and is buffet with two hot items.  There is an enclosed pool and spa pool, and plenty of sunbeds and seating. There is a BBQ area and fire pit off the pool area with more seating. There is a complementary laundry and business centre and good wifi. Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Booked five days here following a stay in Staybridge Las Vegas. We were just as impressed. The hotel is laid out in small two and three storey blocks. Our suite was on the ground floor. We opened the door into a lounge area with sofa that opened out into a double bed.  Behind this was a desk and breakfast bar and kitchen with large fridge freezer, microwave, toaster, coffee maker, two ring hob and dish washer. Off the lounge was a double bedroom and bathroom. It too was spacious, clean and tidy. Check in was quick and efficient and the receptionist polite friendly and very helpful. As it was a Monday there was a complementary evening buffet meal with wine  and beer, which was so welcome after a long drive from Las Vegas. This complementary meal is available Monday to Wednesday 5.30-7.30.  Breakfast is also complementary and is buffet with two hot items.  There is an enclosed pool and spa pool, and plenty of sunbeds and seating. There is a BBQ area and fire pit off the pool area with more seating. There is a complementary laundry and business centre and good wifi. Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r398616610-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>398616610</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Great accomodation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recently stayed here during a business trip to Chatsworth, CA. Was pleasant, the suites are large and clean. Reception staff were very helpful. In house self serve laundry which was great. Very close to gas station, liquor store, car rental and restaurants. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r373548649-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>373548649</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>10 days at staybridge</t>
+  </si>
+  <si>
+    <t>the suite was just as advertised. handicap access bathroom was better than expected.no step over entry, fold-down bench, hand-held showerhead.  and always plenty of towels.  only short coming - room assigned handicap parking would have made it better.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r372836273-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>372836273</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Pricey but nice</t>
+  </si>
+  <si>
+    <t>Located on Lassen just a few feet east of Topanga Canyon. Nice grounds with pool, bbq, and fire pit.  Rooms are suites.  Kitchen had frig with ice maker, dish washer, stove, dishes, pots and pans , soap, paper towels, coffee and maker.  Living room had L-shaped couch that makes up into bed, 50 inch flat screen, DVD player, chair.  Bed room had queen bed (they have only queen beds), 2 night stands, dresser, flat screen tv.  Bath room had one sink. To the left of the sink was a walk-in closet with ironing board. To the right, was the potty/shower/tub that was separated from the sink area by a sliding door that I didn't care for.  Breakfast was sumptuous with all kinds of hot and cold foods!  On Mon., Tues., and Wed., there is also a small dinner meal with wine or beer.  The staff is very friendly and helpful. As this is not a hotel/motel, there is only light housekeeping. They make the bed, dump the trash, and replace the towels.  And you have to request housekeeping on the weekends or you don't get it.  If you can afford $200 a night, this is a nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Located on Lassen just a few feet east of Topanga Canyon. Nice grounds with pool, bbq, and fire pit.  Rooms are suites.  Kitchen had frig with ice maker, dish washer, stove, dishes, pots and pans , soap, paper towels, coffee and maker.  Living room had L-shaped couch that makes up into bed, 50 inch flat screen, DVD player, chair.  Bed room had queen bed (they have only queen beds), 2 night stands, dresser, flat screen tv.  Bath room had one sink. To the left of the sink was a walk-in closet with ironing board. To the right, was the potty/shower/tub that was separated from the sink area by a sliding door that I didn't care for.  Breakfast was sumptuous with all kinds of hot and cold foods!  On Mon., Tues., and Wed., there is also a small dinner meal with wine or beer.  The staff is very friendly and helpful. As this is not a hotel/motel, there is only light housekeeping. They make the bed, dump the trash, and replace the towels.  And you have to request housekeeping on the weekends or you don't get it.  If you can afford $200 a night, this is a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r362632820-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>362632820</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Best Hotel for families relocated from Porter Ranch.</t>
+  </si>
+  <si>
+    <t>Our family has been relocated to the StayBridge Suites in Chatsworth from Porter Ranch, CA due to the Aliso Canyon Gas Leak. 
+This Hotel is booked solid and we are so fortunate to have rooms available when we checked in on Nov 22nd 2015.  (We got our reservation just in time).  We have a 2BDR on the 3rd Floor.  
+The StayBridge in Chatsworth could possibly be the "#1 Hotel in the San Fernando Valley". The rooms are exceptionally clean and comfortable.  I am so happy that our relocation company placed us here instead of the other hotels. (The Radisson, Comfort Inn, the Ramada, the Best Western or the Extended Stay America)
+The full daily breakfast is epic with fresh fruits, berries and even granola.  Coffee is delicous. Social night dinners are great time to meet up with other relocated residents (Monday to Wednesday from 5:30pm to 7:30pm).  
+Ria G (Front Office Manager) and Alex G (Front Desk Supervisor) call me by name whenever I pass by the front desk and have been making sure my family are comfortable in our stay during this relocation period.
+We have been staying here for 131 nights. Nov 22nd to Dec 26th, Jan 2nd to Feb 25th and Feb 26th to Aprilk 9th (so far)
+Also want to recognize how friendly the front desk team members who are very passionate about their work. Keisha, Dilruba, Dianne, Jenny A, Lucy and Hassan.  There is always...Our family has been relocated to the StayBridge Suites in Chatsworth from Porter Ranch, CA due to the Aliso Canyon Gas Leak. This Hotel is booked solid and we are so fortunate to have rooms available when we checked in on Nov 22nd 2015.  (We got our reservation just in time).  We have a 2BDR on the 3rd Floor.  The StayBridge in Chatsworth could possibly be the "#1 Hotel in the San Fernando Valley". The rooms are exceptionally clean and comfortable.  I am so happy that our relocation company placed us here instead of the other hotels. (The Radisson, Comfort Inn, the Ramada, the Best Western or the Extended Stay America)The full daily breakfast is epic with fresh fruits, berries and even granola.  Coffee is delicous. Social night dinners are great time to meet up with other relocated residents (Monday to Wednesday from 5:30pm to 7:30pm).  Ria G (Front Office Manager) and Alex G (Front Desk Supervisor) call me by name whenever I pass by the front desk and have been making sure my family are comfortable in our stay during this relocation period.We have been staying here for 131 nights. Nov 22nd to Dec 26th, Jan 2nd to Feb 25th and Feb 26th to Aprilk 9th (so far)Also want to recognize how friendly the front desk team members who are very passionate about their work. Keisha, Dilruba, Dianne, Jenny A, Lucy and Hassan.  There is always service with a smile. Jennifer and Jenny K are outstanding in running this place. The StayBridge Suites in Chatsworth is a Great Example of Good Hotel &amp; Good Staff.  Very friendly and helpful throughout the stay. Thank you! -Elery T.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Our family has been relocated to the StayBridge Suites in Chatsworth from Porter Ranch, CA due to the Aliso Canyon Gas Leak. 
+This Hotel is booked solid and we are so fortunate to have rooms available when we checked in on Nov 22nd 2015.  (We got our reservation just in time).  We have a 2BDR on the 3rd Floor.  
+The StayBridge in Chatsworth could possibly be the "#1 Hotel in the San Fernando Valley". The rooms are exceptionally clean and comfortable.  I am so happy that our relocation company placed us here instead of the other hotels. (The Radisson, Comfort Inn, the Ramada, the Best Western or the Extended Stay America)
+The full daily breakfast is epic with fresh fruits, berries and even granola.  Coffee is delicous. Social night dinners are great time to meet up with other relocated residents (Monday to Wednesday from 5:30pm to 7:30pm).  
+Ria G (Front Office Manager) and Alex G (Front Desk Supervisor) call me by name whenever I pass by the front desk and have been making sure my family are comfortable in our stay during this relocation period.
+We have been staying here for 131 nights. Nov 22nd to Dec 26th, Jan 2nd to Feb 25th and Feb 26th to Aprilk 9th (so far)
+Also want to recognize how friendly the front desk team members who are very passionate about their work. Keisha, Dilruba, Dianne, Jenny A, Lucy and Hassan.  There is always...Our family has been relocated to the StayBridge Suites in Chatsworth from Porter Ranch, CA due to the Aliso Canyon Gas Leak. This Hotel is booked solid and we are so fortunate to have rooms available when we checked in on Nov 22nd 2015.  (We got our reservation just in time).  We have a 2BDR on the 3rd Floor.  The StayBridge in Chatsworth could possibly be the "#1 Hotel in the San Fernando Valley". The rooms are exceptionally clean and comfortable.  I am so happy that our relocation company placed us here instead of the other hotels. (The Radisson, Comfort Inn, the Ramada, the Best Western or the Extended Stay America)The full daily breakfast is epic with fresh fruits, berries and even granola.  Coffee is delicous. Social night dinners are great time to meet up with other relocated residents (Monday to Wednesday from 5:30pm to 7:30pm).  Ria G (Front Office Manager) and Alex G (Front Desk Supervisor) call me by name whenever I pass by the front desk and have been making sure my family are comfortable in our stay during this relocation period.We have been staying here for 131 nights. Nov 22nd to Dec 26th, Jan 2nd to Feb 25th and Feb 26th to Aprilk 9th (so far)Also want to recognize how friendly the front desk team members who are very passionate about their work. Keisha, Dilruba, Dianne, Jenny A, Lucy and Hassan.  There is always service with a smile. Jennifer and Jenny K are outstanding in running this place. The StayBridge Suites in Chatsworth is a Great Example of Good Hotel &amp; Good Staff.  Very friendly and helpful throughout the stay. Thank you! -Elery T.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r333025400-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>333025400</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Family visit</t>
+  </si>
+  <si>
+    <t>We chose Staybridge because it's a pretty well known property to us, &amp; it's convenient, within walking distance to our daughter's home . We had stayed there long ago( at least 12yrs ago) on more than one occasion, chose not to for many years because the price was out of our budget. We began staying here again this summer. Our daughter had a troubling pregnancy and delivery. Our stays then were based on the property's availability, approx. every two weeks. The first visit in the summer was more than pleasant. Each time there after has been not so pleasant. One time a man talking loudly to himself in the patio area beside the pool, drinking with swearing. He was threatening other races and came into the pool area and showed my husband and adult son, grand children his new knife and what an excellent weapon it was. The next visit had loud partying people across from us in the building with the lobby. We had another visit and was given a room at the back over a garden area. We had people partying until 1am.
+We then on next visit requested a room on the backside of parking lot. We thought that would be better since being away from small parking lot/pool. Turned out that we were close to Del Taco with a drive through that pressure washes the drive through and parking lot/sidewalks at approx. 4:30 am. We also...We chose Staybridge because it's a pretty well known property to us, &amp; it's convenient, within walking distance to our daughter's home . We had stayed there long ago( at least 12yrs ago) on more than one occasion, chose not to for many years because the price was out of our budget. We began staying here again this summer. Our daughter had a troubling pregnancy and delivery. Our stays then were based on the property's availability, approx. every two weeks. The first visit in the summer was more than pleasant. Each time there after has been not so pleasant. One time a man talking loudly to himself in the patio area beside the pool, drinking with swearing. He was threatening other races and came into the pool area and showed my husband and adult son, grand children his new knife and what an excellent weapon it was. The next visit had loud partying people across from us in the building with the lobby. We had another visit and was given a room at the back over a garden area. We had people partying until 1am.We then on next visit requested a room on the backside of parking lot. We thought that would be better since being away from small parking lot/pool. Turned out that we were close to Del Taco with a drive through that pressure washes the drive through and parking lot/sidewalks at approx. 4:30 am. We also had a family staying in the room next door and came in after midnight fighting and calling a young child names, slamming doors and such. This last stay was over the weekend of Dec 11. Again I requested a room on the opposite side of the parking lot/pool. Upon check in, the man seemed out of patience when asking if we got a room as requested, then when explaining he had a room on 2nd or 3rd floor again impatient. We chose a room on the 2nd that happened to be above and across from the desk. Hoped that may give us a little more opportunity to have some quiet and sleep. No. On Friday night I had to use my earplugs, there was either a small party in the lounge/dining area or it was a gathering of employees with loud conversation until after midnight.Saturday night, I called down to the desk and asked how long the party might be going tonight. She kind of had a little giggle and said she would tell them. It took a half hour to calm down with doors slamming and still loud conversation. We have chosen this property not only because of the nearness to our family, cleanliness but because it is also in a better part of the area to choose a property from for us to stay. Because my husbands internal alarm wakes him by 4:30. These suites have French doors to the bedroom that can be shut and I don't hear him making coffee and watching the news. Which was helpful when we were in the NICU with our 9week preemie grand daughter till 1am.We will probably try this property one more time and see it there is anything different and choose a room on the backside of the parking lot again. The rooms are comfortable, some are starting to get that old property musty smell. Some beds seem much, much newer and more comfortable than others, although, they are not a true queen bed. The bedding is warm and cool when you need it to be. I enjoy the tub after a long day and the shower heads are the rain showers that do deliver a whole body flow. The entrance door to the lobby at night is a wrestlers dream, you have to pry it apart to open.The breakfast, if you like cheap powdered eggs and bacon slices so thin you can see a full view through them then, I guess you could agree that they provide a breakfast. I stick to the bagels and fruit, yogurt for that reason. The parking really does suck, very close together, I am a small woman and I have to squeeze up against my car not to bump others with my door and not enough.I do have question when I reserve a room, two weeks in advance why is it such an issue to have a room that is requested. Not a specific room but an area a room could be in.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We chose Staybridge because it's a pretty well known property to us, &amp; it's convenient, within walking distance to our daughter's home . We had stayed there long ago( at least 12yrs ago) on more than one occasion, chose not to for many years because the price was out of our budget. We began staying here again this summer. Our daughter had a troubling pregnancy and delivery. Our stays then were based on the property's availability, approx. every two weeks. The first visit in the summer was more than pleasant. Each time there after has been not so pleasant. One time a man talking loudly to himself in the patio area beside the pool, drinking with swearing. He was threatening other races and came into the pool area and showed my husband and adult son, grand children his new knife and what an excellent weapon it was. The next visit had loud partying people across from us in the building with the lobby. We had another visit and was given a room at the back over a garden area. We had people partying until 1am.
+We then on next visit requested a room on the backside of parking lot. We thought that would be better since being away from small parking lot/pool. Turned out that we were close to Del Taco with a drive through that pressure washes the drive through and parking lot/sidewalks at approx. 4:30 am. We also...We chose Staybridge because it's a pretty well known property to us, &amp; it's convenient, within walking distance to our daughter's home . We had stayed there long ago( at least 12yrs ago) on more than one occasion, chose not to for many years because the price was out of our budget. We began staying here again this summer. Our daughter had a troubling pregnancy and delivery. Our stays then were based on the property's availability, approx. every two weeks. The first visit in the summer was more than pleasant. Each time there after has been not so pleasant. One time a man talking loudly to himself in the patio area beside the pool, drinking with swearing. He was threatening other races and came into the pool area and showed my husband and adult son, grand children his new knife and what an excellent weapon it was. The next visit had loud partying people across from us in the building with the lobby. We had another visit and was given a room at the back over a garden area. We had people partying until 1am.We then on next visit requested a room on the backside of parking lot. We thought that would be better since being away from small parking lot/pool. Turned out that we were close to Del Taco with a drive through that pressure washes the drive through and parking lot/sidewalks at approx. 4:30 am. We also had a family staying in the room next door and came in after midnight fighting and calling a young child names, slamming doors and such. This last stay was over the weekend of Dec 11. Again I requested a room on the opposite side of the parking lot/pool. Upon check in, the man seemed out of patience when asking if we got a room as requested, then when explaining he had a room on 2nd or 3rd floor again impatient. We chose a room on the 2nd that happened to be above and across from the desk. Hoped that may give us a little more opportunity to have some quiet and sleep. No. On Friday night I had to use my earplugs, there was either a small party in the lounge/dining area or it was a gathering of employees with loud conversation until after midnight.Saturday night, I called down to the desk and asked how long the party might be going tonight. She kind of had a little giggle and said she would tell them. It took a half hour to calm down with doors slamming and still loud conversation. We have chosen this property not only because of the nearness to our family, cleanliness but because it is also in a better part of the area to choose a property from for us to stay. Because my husbands internal alarm wakes him by 4:30. These suites have French doors to the bedroom that can be shut and I don't hear him making coffee and watching the news. Which was helpful when we were in the NICU with our 9week preemie grand daughter till 1am.We will probably try this property one more time and see it there is anything different and choose a room on the backside of the parking lot again. The rooms are comfortable, some are starting to get that old property musty smell. Some beds seem much, much newer and more comfortable than others, although, they are not a true queen bed. The bedding is warm and cool when you need it to be. I enjoy the tub after a long day and the shower heads are the rain showers that do deliver a whole body flow. The entrance door to the lobby at night is a wrestlers dream, you have to pry it apart to open.The breakfast, if you like cheap powdered eggs and bacon slices so thin you can see a full view through them then, I guess you could agree that they provide a breakfast. I stick to the bagels and fruit, yogurt for that reason. The parking really does suck, very close together, I am a small woman and I have to squeeze up against my car not to bump others with my door and not enough.I do have question when I reserve a room, two weeks in advance why is it such an issue to have a room that is requested. Not a specific room but an area a room could be in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r325842470-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>325842470</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Spent 3 weeks here &amp; would highly recommend it . Well equipped kitchenette , comfy bedding, clean , quiet &amp; secure! Outstanding hot &amp; cold breakfast buffet with new items daily . Pool &amp; fitness center . Reasonable pricing with all above included. No regrets staying at Staybridge.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r325104237-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>325104237</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Decent room, loud mornings</t>
+  </si>
+  <si>
+    <t>Overall the hotel was OK.  Going to rate based on pros and cons...Pros- Nice clean rooms- full kitchen with extras- great gym- nice staff- well maintained propertyCons- housekeeping vacuuming and stomping in the rooms above you at 7am- parking lot always full, have to park on the street- front door broken,would not open, even with card access.- Holiday Inn Express breakfast, powdered eggsMoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer E, Guest Relations Manager at Staybridge Suites Chatsworth, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Overall the hotel was OK.  Going to rate based on pros and cons...Pros- Nice clean rooms- full kitchen with extras- great gym- nice staff- well maintained propertyCons- housekeeping vacuuming and stomping in the rooms above you at 7am- parking lot always full, have to park on the street- front door broken,would not open, even with card access.- Holiday Inn Express breakfast, powdered eggsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r319584176-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>319584176</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Amazing tranquil stay</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 3 days as we were looking for somewhere away from the hustle and bustle of central LA and this place was perfect. Room was large with a fully functioning kitchen that had everything required to cook if that is what you wanted we just used the fridge, then there was a living area with sofa and TV then the bedroom with a comfy double size bed then adjacent to the bedroom was the toilet and shower, the sink area is just outside of the bathroom. There was sufficient clothes storage and an iron and board were provided. A good continental breakfast was provided each morning which consisted of fresh fruit, cereals, waffles ,scrambled eggs and bacon.There was a fitness suite open 24 hours, a good sized pool and jacuzzi which was very clean and a surrounding family area furnished with large cushioned chairs, BBQ and fire pit, this was a lovely place to sit in the evenings and just chill. The staff were very helpful and friendly. We chose this hotel as a tranquil retreat after some very hectic days in central LA and it didn't disappoint and I would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 3 days as we were looking for somewhere away from the hustle and bustle of central LA and this place was perfect. Room was large with a fully functioning kitchen that had everything required to cook if that is what you wanted we just used the fridge, then there was a living area with sofa and TV then the bedroom with a comfy double size bed then adjacent to the bedroom was the toilet and shower, the sink area is just outside of the bathroom. There was sufficient clothes storage and an iron and board were provided. A good continental breakfast was provided each morning which consisted of fresh fruit, cereals, waffles ,scrambled eggs and bacon.There was a fitness suite open 24 hours, a good sized pool and jacuzzi which was very clean and a surrounding family area furnished with large cushioned chairs, BBQ and fire pit, this was a lovely place to sit in the evenings and just chill. The staff were very helpful and friendly. We chose this hotel as a tranquil retreat after some very hectic days in central LA and it didn't disappoint and I would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r316422673-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>316422673</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location &amp; huge clean suites </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice 2 night stay , really clean , big well equipped suites . Good bathroom &amp; very comfortable bed . Good location for LA &amp; surrounding districts. Breakfast ok , nice , efficient, friendly staff . Didn't use the pool but nice area with plenty of tables chairs etc . There are local shops &amp; a restaurant very near but you'll need a car to get around. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r313140818-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>313140818</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Great For Long Stays!</t>
+  </si>
+  <si>
+    <t>SERVICE: Every staff member we came across was friendly and courteous. They provide ice cold water, coffee, and tea throughout the day. The best part is, the coffee actually tastes good!SUITES: Suites are very clean and spacious. We had a group of 4 staying in a 1 bedroom suite and it was just the right size. Full size kitchen, pull out couch, bedroom w/ little walk in closet, and a bathroom with separate sink and mirror. My only wish is that there was an entrance to the bathroom from the outside. The way it is set-up, you have to go inside the bedroom to get to the bathroom which isn't ideal when you're trying not to wake the people up who are staying in the bedroom. BREAKFAST:Every morning there is a free hot breakfast provided. In the 4 nights we stayed, there were always eggs, waffles, bread, and fruit. The other stuff that switched up was between bacon, sausages, corn beef hash. The dining area is clean and spacious with lots of tables. LOCATION: Nice neighborhood in Chatsworth. If you haven't got a car, there are little plazas within walking distance that have restaurants, cafes, and convenience stores. AMENITIES: There is a small gym and a swimming pool. We didn't have time to take advantage of these amenities but it looked very clean. Thank you Staybridge for the lovely 4 night stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>SERVICE: Every staff member we came across was friendly and courteous. They provide ice cold water, coffee, and tea throughout the day. The best part is, the coffee actually tastes good!SUITES: Suites are very clean and spacious. We had a group of 4 staying in a 1 bedroom suite and it was just the right size. Full size kitchen, pull out couch, bedroom w/ little walk in closet, and a bathroom with separate sink and mirror. My only wish is that there was an entrance to the bathroom from the outside. The way it is set-up, you have to go inside the bedroom to get to the bathroom which isn't ideal when you're trying not to wake the people up who are staying in the bedroom. BREAKFAST:Every morning there is a free hot breakfast provided. In the 4 nights we stayed, there were always eggs, waffles, bread, and fruit. The other stuff that switched up was between bacon, sausages, corn beef hash. The dining area is clean and spacious with lots of tables. LOCATION: Nice neighborhood in Chatsworth. If you haven't got a car, there are little plazas within walking distance that have restaurants, cafes, and convenience stores. AMENITIES: There is a small gym and a swimming pool. We didn't have time to take advantage of these amenities but it looked very clean. Thank you Staybridge for the lovely 4 night stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r308601156-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>308601156</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great service. Great rooms.  They provide breakfast and dinner .   was worth staying for short or long stays. Would be first choice when I go back to the area. They go out of their way to make your stay comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r298600446-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>298600446</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Wonderful stay with help of the hotel staff, highly recommended</t>
+  </si>
+  <si>
+    <t>Stayed a couple of nights got upgraded at check in for a two bedroom suite. Room was huge and well equipped the breakfast was nice and complimentary. Location is good if you need to stay around the valley.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r293160807-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>293160807</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>A comfortable hotel with EXCEPTIONAL staff</t>
+  </si>
+  <si>
+    <t>We stayed in a suite with one queen bed.  It was basically a small apt.  The complex is older but the the internal finishings have been updated.  The hot water was good.  The bedding was comfortable.  The couch was not great to sit on but we were not staying in the room for an extended period.  The plugs were conveniently located.  THere was a large walk in closet.  The location was good for us about 5 miles from California State Northridge.  There is a 24 hr Del Taco next door.  What made this place unusual was the staff.  We were welcomed by an exceptionally friendly lady.  There is short term parking at the front to use to check in.  Then we moved the car to be in front of our unit.  There are 3 floors so if you have a preference, let them know.  Breakfast the first day was very nice.  Good atmosphere, plenty of healthy choices.  The second day they were closing it out early.  Nearly everything was gone. Someone asked for fruit and was told there was none.  We mentioned it on checkout and they went out of their way to make up for it.  The front desk attendant got us bananas and water and the manager followed up with a note. I have confidence that they will take care of any issues!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We stayed in a suite with one queen bed.  It was basically a small apt.  The complex is older but the the internal finishings have been updated.  The hot water was good.  The bedding was comfortable.  The couch was not great to sit on but we were not staying in the room for an extended period.  The plugs were conveniently located.  THere was a large walk in closet.  The location was good for us about 5 miles from California State Northridge.  There is a 24 hr Del Taco next door.  What made this place unusual was the staff.  We were welcomed by an exceptionally friendly lady.  There is short term parking at the front to use to check in.  Then we moved the car to be in front of our unit.  There are 3 floors so if you have a preference, let them know.  Breakfast the first day was very nice.  Good atmosphere, plenty of healthy choices.  The second day they were closing it out early.  Nearly everything was gone. Someone asked for fruit and was told there was none.  We mentioned it on checkout and they went out of their way to make up for it.  The front desk attendant got us bananas and water and the manager followed up with a note. I have confidence that they will take care of any issues!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r259815458-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>259815458</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Invest in an Extra Toaster</t>
+  </si>
+  <si>
+    <t>A friend and I stayed here four nights recently (2 bedroom suite) and, as he'd stayed in many Staybridges before, he was disappointed in how small the rooms were and how much more expensive it was than other Staybridges (250.00 a night). I had no frame of reference as I'd never stayed at one before. The rooms were clean and well-appointed, At breakfast, the first morning, the scrambled eggs were leaking yellow water and other days were over-cooked. There was only one four-slice toaster (and many people waiting to use it). It wasn't the black hole of Calcutta, but there were niggling, little things to complain about.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Jennifer E, Manager at Staybridge Suites Chatsworth, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>A friend and I stayed here four nights recently (2 bedroom suite) and, as he'd stayed in many Staybridges before, he was disappointed in how small the rooms were and how much more expensive it was than other Staybridges (250.00 a night). I had no frame of reference as I'd never stayed at one before. The rooms were clean and well-appointed, At breakfast, the first morning, the scrambled eggs were leaking yellow water and other days were over-cooked. There was only one four-slice toaster (and many people waiting to use it). It wasn't the black hole of Calcutta, but there were niggling, little things to complain about.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r259659490-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>259659490</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Standard sort of place</t>
+  </si>
+  <si>
+    <t>a standard Staybridge suite with nothing overly exciting about it. Not a bad location. For la. Clean tidy big rooms. Breakfast was okay but not amazing. Didn't use the pool but it was clean &amp; tidy. Room was spacious and nice decour</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r259194099-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>259194099</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>You would believe your eyes</t>
+  </si>
+  <si>
+    <t>Hey people the funny thing is that I actually like this hotel. An would have love to give them a 5 star rating. Buuuuut....I get back to my room today aaan....I can't believe that the house keeping let a complete mess all over the floor...I mean to get to the bathroom she literally would have walked thru this...I have a Service Dog an he was have to much fun with his toy last night...but...I guess the house keeping decided to punish the customer an leave my room messy...WELL....thanks to the Internet now us lil guys have the ability to  let each other know when to stay away....soooo....bottom line is if you don't want your housekeeper to punish you like a 6 year old then DON'T stay here....check out my pic.you.wont believe your eyes....MoreShow less</t>
+  </si>
+  <si>
+    <t>Hey people the funny thing is that I actually like this hotel. An would have love to give them a 5 star rating. Buuuuut....I get back to my room today aaan....I can't believe that the house keeping let a complete mess all over the floor...I mean to get to the bathroom she literally would have walked thru this...I have a Service Dog an he was have to much fun with his toy last night...but...I guess the house keeping decided to punish the customer an leave my room messy...WELL....thanks to the Internet now us lil guys have the ability to  let each other know when to stay away....soooo....bottom line is if you don't want your housekeeper to punish you like a 6 year old then DON'T stay here....check out my pic.you.wont believe your eyes....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r250504205-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>250504205</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Good place for 2-3 people; clean, modern rooms, apartment-like place</t>
+  </si>
+  <si>
+    <t>Just 2 dings against this facility. We were traveling with a 9 and 11 year-old girl who had to share the pull-out bed in the living area. It's barely double-bed size, so there was some conflict over whose side was whose. Also, we had to make the bed ourselves--some places I've stayed, the bed is made as soon as you fold it out. Not a deal breaker, but it would have been nice to not have to make the bed when we arrived tired from our trip.Also, our room's window was right by the stairs to other rooms, so we could really hear other guests moving to and from their rooms. Thankfully there wasn't too much foot traffic late at night when we were there, and overall the facility is quiet.If you are 2-3 people--or if your kids are little enough to share a small double bed--I'd highly recommend the facility for a good breakfast bar, clean rooms with plenty of outlets and a modern look.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Just 2 dings against this facility. We were traveling with a 9 and 11 year-old girl who had to share the pull-out bed in the living area. It's barely double-bed size, so there was some conflict over whose side was whose. Also, we had to make the bed ourselves--some places I've stayed, the bed is made as soon as you fold it out. Not a deal breaker, but it would have been nice to not have to make the bed when we arrived tired from our trip.Also, our room's window was right by the stairs to other rooms, so we could really hear other guests moving to and from their rooms. Thankfully there wasn't too much foot traffic late at night when we were there, and overall the facility is quiet.If you are 2-3 people--or if your kids are little enough to share a small double bed--I'd highly recommend the facility for a good breakfast bar, clean rooms with plenty of outlets and a modern look.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r244382124-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>244382124</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>Stayed for Business</t>
+  </si>
+  <si>
+    <t>This is my second time staying for work and I am very satisfied with Staybridge Suites.  The staff is very polite and helpful.  The food in the morning and evening was adequate as well.  The one thing I'd say is this hotel is geared towards people in LA for working purposes and it might not be family friendly.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r235136764-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>235136764</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Good Hotel in North LA</t>
+  </si>
+  <si>
+    <t>Located in a suburb northern LA, a little bit far from the main attractions. you need at least 30-45 mins drive daily. However, we have an advantage if you are planning to visit Santa Barbra. The neighborhood is good with many shopping malls, and restaurants.Cons;- small breakfast area</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r226952584-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>226952584</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Great for Me and my family</t>
+  </si>
+  <si>
+    <t>We loved staying here with our family.  The staff was very helpful and the room was perfect!  We enjoyed the clean pool, the breakfast was just what we needed to start the day and the cleanliness of our room made us feel right at home.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r225575326-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>225575326</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Nice stay with the kids</t>
+  </si>
+  <si>
+    <t>We had to stay here a couple nights due to water damage at our house.  The front desk staff were very nice and were able to check us in early which we really appreciated.  The facility was well maintained, clean, and during the week they have a light dinner with free beer and wine!  Also, every morning they had hot breakfast which the kids enjoyed.  The pool facilities were nice although they could use some adult size pool towels.  The room was nice size for the 4 of us although the sleeper sofa could use some sort of topper on it and the pillows were very flimsy and we had to call and get a couple more sent up.  The kitchen was nice to have a refrigerator to store some snacks and drinks.  We would probably stay again if our house ever needs repairs again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>We had to stay here a couple nights due to water damage at our house.  The front desk staff were very nice and were able to check us in early which we really appreciated.  The facility was well maintained, clean, and during the week they have a light dinner with free beer and wine!  Also, every morning they had hot breakfast which the kids enjoyed.  The pool facilities were nice although they could use some adult size pool towels.  The room was nice size for the 4 of us although the sleeper sofa could use some sort of topper on it and the pillows were very flimsy and we had to call and get a couple more sent up.  The kitchen was nice to have a refrigerator to store some snacks and drinks.  We would probably stay again if our house ever needs repairs again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r224674122-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>224674122</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Pleasant hotel</t>
+  </si>
+  <si>
+    <t>We stayed four nights at this hotel.  Our room was on the ground floor near the pool, so it was quite noisy but the pool closes at 10pm so it wasn't an issue.  The room was well equipped but had no safe.  There is a laundry on site which is open 24 hours a day.  The bed was only double size (I have a queen bed at home and the hotel bed was not as big).  I did not find the bed to be very comfortable although my partner had no complaints.  Being on the ground floor we could hear noise from people using the stairs to get to the upstairs rooms.  There was plenty of parking.  The day of arrival there was a 'social' going on which is really just free food, wine and beer.  This was good for us as it was a barbeque and we did not need to buy dinner that evening.  Breakfast was always very crowded and noisy and the food was average but adequate.  Lots of families stay here so breakfast was always dominated by screaming kids, although it is possible to take your food outside to eat by the pool.Staff overall were friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer E, Manager at Staybridge Suites Chatsworth, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>We stayed four nights at this hotel.  Our room was on the ground floor near the pool, so it was quite noisy but the pool closes at 10pm so it wasn't an issue.  The room was well equipped but had no safe.  There is a laundry on site which is open 24 hours a day.  The bed was only double size (I have a queen bed at home and the hotel bed was not as big).  I did not find the bed to be very comfortable although my partner had no complaints.  Being on the ground floor we could hear noise from people using the stairs to get to the upstairs rooms.  There was plenty of parking.  The day of arrival there was a 'social' going on which is really just free food, wine and beer.  This was good for us as it was a barbeque and we did not need to buy dinner that evening.  Breakfast was always very crowded and noisy and the food was average but adequate.  Lots of families stay here so breakfast was always dominated by screaming kids, although it is possible to take your food outside to eat by the pool.Staff overall were friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r217895247-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>217895247</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Nice, spacious appartment</t>
+  </si>
+  <si>
+    <t>We booked a two-bedroom apartment with kitchenette and have been very surprised about the size and quality of it! Very clean and a lot of space for our family to fit in.The stuff was very friendly too, the only little negative thing was the small space for having breakfast, it was always very crowded and hard to get a place. But the choice from the breakfast buffet was really great on the other hand.Don't forget to ask to get your room cleaned over the weekend as they only do it, if asked for which was a bit strange to us, never had that before.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r215929878-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>215929878</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Best Hotel Expierence</t>
+  </si>
+  <si>
+    <t>To start off with, the rooms here are brand new and immaculate. Has a wonderful common area right in front of the room, and another be the pool area with grills and a fire pit. The free breakfast is not your traditional continental breakfast, its in competition with a nice restaurant. From Tuesday until Friday night there is also free dinner that is buffet style and as good if not better than breakfast. It was very reasonably priced and its location is great. If i could choose I would stay no where other than a Staybridge.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r212335728-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>212335728</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Very mixed review</t>
+  </si>
+  <si>
+    <t>We stayed for two weeks at Staybridge Suites and our initial impressions were positive--the front desk staff were friendly and helpful and we were pleased with the layout of our room, with a separate bedroom from the lounge area. The breakfasts provided were adequate for our needs but nothing special.
+The main concern about staying here is the other "guests". Questionable and seedy characters hang around the parking lots as well as a group of men who basically take over the pool area in the evenings and weekends, playing loud rap music with expletive-laced lyrics. My young children kept pointing out all the "bad words" they were hearing, to the point that we left the pool much earlier than we wanted to. Management is totally oblivious to these intimidation tactics but they worked for those young men, who were basically left with the pool to themselves. 
+I also understand that each room only gets "light housekeeping" daily but we stayed in the main building and not once in two weeks did I see or hear a vacuum in any of the public areas. On our second day, someone dropped some sour cream on the carpet on the stairs and it was still there (ground in and stained) at the end of our two-week stay as well as lots of other stains, dirt and dust bunnies.
+On the upside, one employee in particular, Sobey, would smile at us every time he...We stayed for two weeks at Staybridge Suites and our initial impressions were positive--the front desk staff were friendly and helpful and we were pleased with the layout of our room, with a separate bedroom from the lounge area. The breakfasts provided were adequate for our needs but nothing special.The main concern about staying here is the other "guests". Questionable and seedy characters hang around the parking lots as well as a group of men who basically take over the pool area in the evenings and weekends, playing loud rap music with expletive-laced lyrics. My young children kept pointing out all the "bad words" they were hearing, to the point that we left the pool much earlier than we wanted to. Management is totally oblivious to these intimidation tactics but they worked for those young men, who were basically left with the pool to themselves. I also understand that each room only gets "light housekeeping" daily but we stayed in the main building and not once in two weeks did I see or hear a vacuum in any of the public areas. On our second day, someone dropped some sour cream on the carpet on the stairs and it was still there (ground in and stained) at the end of our two-week stay as well as lots of other stains, dirt and dust bunnies.On the upside, one employee in particular, Sobey, would smile at us every time he passed, and also offer help with whatever we were doing--bringing in groceries, getting us towels, turning on the hot tub, or activating the firepit. He really went above and beyond in terms of customer service.Wish our experience could have been more positive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer E, Manager at Staybridge Suites Chatsworth, responded to this reviewResponded June 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2014</t>
+  </si>
+  <si>
+    <t>We stayed for two weeks at Staybridge Suites and our initial impressions were positive--the front desk staff were friendly and helpful and we were pleased with the layout of our room, with a separate bedroom from the lounge area. The breakfasts provided were adequate for our needs but nothing special.
+The main concern about staying here is the other "guests". Questionable and seedy characters hang around the parking lots as well as a group of men who basically take over the pool area in the evenings and weekends, playing loud rap music with expletive-laced lyrics. My young children kept pointing out all the "bad words" they were hearing, to the point that we left the pool much earlier than we wanted to. Management is totally oblivious to these intimidation tactics but they worked for those young men, who were basically left with the pool to themselves. 
+I also understand that each room only gets "light housekeeping" daily but we stayed in the main building and not once in two weeks did I see or hear a vacuum in any of the public areas. On our second day, someone dropped some sour cream on the carpet on the stairs and it was still there (ground in and stained) at the end of our two-week stay as well as lots of other stains, dirt and dust bunnies.
+On the upside, one employee in particular, Sobey, would smile at us every time he...We stayed for two weeks at Staybridge Suites and our initial impressions were positive--the front desk staff were friendly and helpful and we were pleased with the layout of our room, with a separate bedroom from the lounge area. The breakfasts provided were adequate for our needs but nothing special.The main concern about staying here is the other "guests". Questionable and seedy characters hang around the parking lots as well as a group of men who basically take over the pool area in the evenings and weekends, playing loud rap music with expletive-laced lyrics. My young children kept pointing out all the "bad words" they were hearing, to the point that we left the pool much earlier than we wanted to. Management is totally oblivious to these intimidation tactics but they worked for those young men, who were basically left with the pool to themselves. I also understand that each room only gets "light housekeeping" daily but we stayed in the main building and not once in two weeks did I see or hear a vacuum in any of the public areas. On our second day, someone dropped some sour cream on the carpet on the stairs and it was still there (ground in and stained) at the end of our two-week stay as well as lots of other stains, dirt and dust bunnies.On the upside, one employee in particular, Sobey, would smile at us every time he passed, and also offer help with whatever we were doing--bringing in groceries, getting us towels, turning on the hot tub, or activating the firepit. He really went above and beyond in terms of customer service.Wish our experience could have been more positive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r208929564-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>208929564</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>This Hotel is fantastic.  The staff was very accommodating, and the service was excellent.  It was my home away from home for nearly 2 months. I met a lot of great people during my stay and would without a doubt stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Jennifer E, Manager at Staybridge Suites Chatsworth, responded to this reviewResponded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2014</t>
+  </si>
+  <si>
+    <t>This Hotel is fantastic.  The staff was very accommodating, and the service was excellent.  It was my home away from home for nearly 2 months. I met a lot of great people during my stay and would without a doubt stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r202131564-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>202131564</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Nice Place for California Amusement Park Visits</t>
+  </si>
+  <si>
+    <t>The location was great for visiting Universal Studios and Magic Mountain.  Nice place for a couple with kids, big rooms and great included breakfast.  Also a manager's reception 3 nights a week.  The staff is pleasant and helpful.  I only had a few complaints, not enough parking for the property.  We were coming back from parks sometimes later in the evening and had a hard time finding parking.  Sometimes only finding one spot available.  Cleaning is set up unlike any hotel I've ever visited.  During the week it's called "light cleaning" on the weekends I guess there is no cleaning, which was weird to me.  We asked for extra towels every day as there were 4 of us in the room and only 3 towels.  As previous reviews have stated the beds aren't the most comfortable.  Also there is a nice kitchen but no stove, which was very bizarre.  We didn't notice that and brought pizzas back to the room to cook for dinner which we weren't able to do so had to order pizza and leave the pizzas we purchased in the fridge, sadly a waste of money.But the area was nice with plenty of shops and restaurants nearby and friendly, courteous staff.  I'd definitely recommend it for families.  Check out Stone Fire for dinner - wonderful!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>The location was great for visiting Universal Studios and Magic Mountain.  Nice place for a couple with kids, big rooms and great included breakfast.  Also a manager's reception 3 nights a week.  The staff is pleasant and helpful.  I only had a few complaints, not enough parking for the property.  We were coming back from parks sometimes later in the evening and had a hard time finding parking.  Sometimes only finding one spot available.  Cleaning is set up unlike any hotel I've ever visited.  During the week it's called "light cleaning" on the weekends I guess there is no cleaning, which was weird to me.  We asked for extra towels every day as there were 4 of us in the room and only 3 towels.  As previous reviews have stated the beds aren't the most comfortable.  Also there is a nice kitchen but no stove, which was very bizarre.  We didn't notice that and brought pizzas back to the room to cook for dinner which we weren't able to do so had to order pizza and leave the pizzas we purchased in the fridge, sadly a waste of money.But the area was nice with plenty of shops and restaurants nearby and friendly, courteous staff.  I'd definitely recommend it for families.  Check out Stone Fire for dinner - wonderful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r199975207-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>199975207</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks in March and it was excellent.The staff was very helpful and room was clean and tidy.The breakfast is decent and there is a free shuttle to nearby malls for my wife when I am on business.There is guest nights during Tuesday-Thursday evening and I like the serenity in the evenings.Definitely will come back here again on my next trip to LA.Special mention to the front desk staff, Ria for her hospitality and making my wife and I felt at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Jennifer E, Manager at Staybridge Suites Chatsworth, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks in March and it was excellent.The staff was very helpful and room was clean and tidy.The breakfast is decent and there is a free shuttle to nearby malls for my wife when I am on business.There is guest nights during Tuesday-Thursday evening and I like the serenity in the evenings.Definitely will come back here again on my next trip to LA.Special mention to the front desk staff, Ria for her hospitality and making my wife and I felt at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r191814736-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>191814736</t>
+  </si>
+  <si>
+    <t>01/23/2014</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>We had to stay in this area for one night for kid's sporting event, booked this hotel last minute through hotwire and were pleasantly surprised.  The hotel rooms are spacious and clean with full kitchen and refrigerator.  The staffs were friendly. The free breakfast was pretty good with hot selections.  Very pleased with the hotel and would definitely stay again.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r191385613-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>191385613</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>An Almost</t>
+  </si>
+  <si>
+    <t>Earlier this year, I booked a room for my family.  Because it was a special-needs situation, I was pretty thorough in my research.  After ascertaining online that this hotel would likely fit the bill, I drove there, asked for a Manager and was allowed to examine one of the handicap suites in detail.  Then, I booked online.  Between the time of booking and the date of the reservation, I phoned the hotel no less than three times.  On each occasion my request for a 2 bedroom handicap accessible room with roll-in shower was reaffirmed.
+This lovely hotel is a cluster of suites, set back from two busy streets in the northwest corner of the San Fernando Valley near the Chatsworth boulders.  Unless you know exactly where to look, it's pretty easy to drive right past, which is what I did my first time.  The accessible suite I reserved was well-thought out, spotlessly clean, nicely equipped and attractively decorated.  Each bedroom contained a queen bed (one of which was on a platform and not suitable to accommodate our patient lift, which rolls partially under the bed), a TV, a private bath and ample closet and drawer space.  There was a small workspace in the living room, a dining area, an additional TV and a sleeper sofa.  The full kitchen was beautifully equipped with basic appliances and implements, the fridge ample in size to accommodate several days worth of supplies.  
+Parking was...Earlier this year, I booked a room for my family.  Because it was a special-needs situation, I was pretty thorough in my research.  After ascertaining online that this hotel would likely fit the bill, I drove there, asked for a Manager and was allowed to examine one of the handicap suites in detail.  Then, I booked online.  Between the time of booking and the date of the reservation, I phoned the hotel no less than three times.  On each occasion my request for a 2 bedroom handicap accessible room with roll-in shower was reaffirmed.This lovely hotel is a cluster of suites, set back from two busy streets in the northwest corner of the San Fernando Valley near the Chatsworth boulders.  Unless you know exactly where to look, it's pretty easy to drive right past, which is what I did my first time.  The accessible suite I reserved was well-thought out, spotlessly clean, nicely equipped and attractively decorated.  Each bedroom contained a queen bed (one of which was on a platform and not suitable to accommodate our patient lift, which rolls partially under the bed), a TV, a private bath and ample closet and drawer space.  There was a small workspace in the living room, a dining area, an additional TV and a sleeper sofa.  The full kitchen was beautifully equipped with basic appliances and implements, the fridge ample in size to accommodate several days worth of supplies.  Parking was OK, though handicap specific parking was somewhat limited and we ended up parking a distance from the room.  I believe there were both a pool and a gym.  Although I'd understood that daily breakfast was included (which my mom reported was wonderful), I hadn't counted on a further perk-- that being an evening social which happened to be most of the nights my family was staying, and each social included a hot entree at dinnertime.  My family was very pleased with this feature as it meant they didn't have to cook or go to a restaurant.All in all, it ended up a great stay for them-- it was getting there which was a bit rocky.  Check in was not a fun experience.My first mistake was not questioning the room number given.  That very morning on the phone, Jennifer had told me that the room had been assigned and that it was at the front of the property, close to the office-- so perhaps I would've saved a great deal of time, movement and aggravation had I simply said, "Are you sure you've given me the right room?" at the onset.  But because I said nothing, back we all went to the van, reloading the wheelchair since the room we were given was at the rear of the property.  Amazingly, there wasn't a single handicap space that I could see in the vicinity, but even more surprising than that was the complete lack of ramps or really any sign suggesting that the room was accessible (on my tour of the facilities before booking, I'd noticed how clearly marked all handicap facilities had been.)  But it got worse.  There was a message hanging on the door of our assigned room  informing that it still wasn't made up.  Excuse me?  It was after five pm.  Miffed, I drove back to the office.  My passengers elected to stay in the van this time, never mind that it had been over 100 degrees earlier that day.  The young woman at the desk checked her computer, then informed me that the room assignment she'd given me had been correct.  When I pointed out the lack of handicap signage, she tried to tell me that there was no mention of handicap needs in the reservation.  At this point, I came perilously close to coming unglued.  I was hot, I was tired.  And now, I was Very Upset.  I'd done my homework, planning this for many weeks, had spoken to no less to three people regarding the reservation (I had names) and now she was trying to tell there was no mention of handicap needs in my reservation?  "No, no, no, no...." I remember saying.  "Do not even TRY to use that excuse--"  About this time another agent wisely intervened seeking to avert a major catastrophe.  I can only guess at what they were looking at on the computer, but I thank God that a few moments later, Jennifer walked by and said something like "Are you the 2-room handicap with the roll-in shower I spoke to earlier today?"  And just like that, my room appeared.  The initial agent was apologetic over dropping a digit in our room number-- and the room, by the way, ended up being right by the front of the property, just as Jennifer had told me it would be.All's well that ends well and my family had a pleasant stay  Would this entire incident deter me from booking there again?  No.  Would I deter others from staying what is otherwise a well-run, comfortable establishment?  Also no.  It is less about the desk agent having made a mistake than it is about the way in which she handled said mistake.  Lesson learned?  I hope so.  Everyone else at this hotel rated a four or a five on customer service; so I'm sorry to let a single individual drag down my rating on service.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Earlier this year, I booked a room for my family.  Because it was a special-needs situation, I was pretty thorough in my research.  After ascertaining online that this hotel would likely fit the bill, I drove there, asked for a Manager and was allowed to examine one of the handicap suites in detail.  Then, I booked online.  Between the time of booking and the date of the reservation, I phoned the hotel no less than three times.  On each occasion my request for a 2 bedroom handicap accessible room with roll-in shower was reaffirmed.
+This lovely hotel is a cluster of suites, set back from two busy streets in the northwest corner of the San Fernando Valley near the Chatsworth boulders.  Unless you know exactly where to look, it's pretty easy to drive right past, which is what I did my first time.  The accessible suite I reserved was well-thought out, spotlessly clean, nicely equipped and attractively decorated.  Each bedroom contained a queen bed (one of which was on a platform and not suitable to accommodate our patient lift, which rolls partially under the bed), a TV, a private bath and ample closet and drawer space.  There was a small workspace in the living room, a dining area, an additional TV and a sleeper sofa.  The full kitchen was beautifully equipped with basic appliances and implements, the fridge ample in size to accommodate several days worth of supplies.  
+Parking was...Earlier this year, I booked a room for my family.  Because it was a special-needs situation, I was pretty thorough in my research.  After ascertaining online that this hotel would likely fit the bill, I drove there, asked for a Manager and was allowed to examine one of the handicap suites in detail.  Then, I booked online.  Between the time of booking and the date of the reservation, I phoned the hotel no less than three times.  On each occasion my request for a 2 bedroom handicap accessible room with roll-in shower was reaffirmed.This lovely hotel is a cluster of suites, set back from two busy streets in the northwest corner of the San Fernando Valley near the Chatsworth boulders.  Unless you know exactly where to look, it's pretty easy to drive right past, which is what I did my first time.  The accessible suite I reserved was well-thought out, spotlessly clean, nicely equipped and attractively decorated.  Each bedroom contained a queen bed (one of which was on a platform and not suitable to accommodate our patient lift, which rolls partially under the bed), a TV, a private bath and ample closet and drawer space.  There was a small workspace in the living room, a dining area, an additional TV and a sleeper sofa.  The full kitchen was beautifully equipped with basic appliances and implements, the fridge ample in size to accommodate several days worth of supplies.  Parking was OK, though handicap specific parking was somewhat limited and we ended up parking a distance from the room.  I believe there were both a pool and a gym.  Although I'd understood that daily breakfast was included (which my mom reported was wonderful), I hadn't counted on a further perk-- that being an evening social which happened to be most of the nights my family was staying, and each social included a hot entree at dinnertime.  My family was very pleased with this feature as it meant they didn't have to cook or go to a restaurant.All in all, it ended up a great stay for them-- it was getting there which was a bit rocky.  Check in was not a fun experience.My first mistake was not questioning the room number given.  That very morning on the phone, Jennifer had told me that the room had been assigned and that it was at the front of the property, close to the office-- so perhaps I would've saved a great deal of time, movement and aggravation had I simply said, "Are you sure you've given me the right room?" at the onset.  But because I said nothing, back we all went to the van, reloading the wheelchair since the room we were given was at the rear of the property.  Amazingly, there wasn't a single handicap space that I could see in the vicinity, but even more surprising than that was the complete lack of ramps or really any sign suggesting that the room was accessible (on my tour of the facilities before booking, I'd noticed how clearly marked all handicap facilities had been.)  But it got worse.  There was a message hanging on the door of our assigned room  informing that it still wasn't made up.  Excuse me?  It was after five pm.  Miffed, I drove back to the office.  My passengers elected to stay in the van this time, never mind that it had been over 100 degrees earlier that day.  The young woman at the desk checked her computer, then informed me that the room assignment she'd given me had been correct.  When I pointed out the lack of handicap signage, she tried to tell me that there was no mention of handicap needs in the reservation.  At this point, I came perilously close to coming unglued.  I was hot, I was tired.  And now, I was Very Upset.  I'd done my homework, planning this for many weeks, had spoken to no less to three people regarding the reservation (I had names) and now she was trying to tell there was no mention of handicap needs in my reservation?  "No, no, no, no...." I remember saying.  "Do not even TRY to use that excuse--"  About this time another agent wisely intervened seeking to avert a major catastrophe.  I can only guess at what they were looking at on the computer, but I thank God that a few moments later, Jennifer walked by and said something like "Are you the 2-room handicap with the roll-in shower I spoke to earlier today?"  And just like that, my room appeared.  The initial agent was apologetic over dropping a digit in our room number-- and the room, by the way, ended up being right by the front of the property, just as Jennifer had told me it would be.All's well that ends well and my family had a pleasant stay  Would this entire incident deter me from booking there again?  No.  Would I deter others from staying what is otherwise a well-run, comfortable establishment?  Also no.  It is less about the desk agent having made a mistake than it is about the way in which she handled said mistake.  Lesson learned?  I hope so.  Everyone else at this hotel rated a four or a five on customer service; so I'm sorry to let a single individual drag down my rating on service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r188457402-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>188457402</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>The hotel's well-appointed suites, outdoor pool and spa are just a few of the perks guests can experience when they choose this property in Chatsworth as their accommodations. The Social on Tuesday, Wednesday and Thursday evenings lets guests mingle while enjoying delicious hors d'oeuvres,Bar B Q,  wine and beer.  The only negative we had was that the linens weren't changed as promised and the bed not made several days.  Other than that, the kitchen was more than adiequate and fully stocked with dishes, coffee pots, pots and pans as well as silverware.  A dishwasher is available, but we didn't use it.  There are food stores near by to stock your frig!!  Try this place, you'll like it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>The hotel's well-appointed suites, outdoor pool and spa are just a few of the perks guests can experience when they choose this property in Chatsworth as their accommodations. The Social on Tuesday, Wednesday and Thursday evenings lets guests mingle while enjoying delicious hors d'oeuvres,Bar B Q,  wine and beer.  The only negative we had was that the linens weren't changed as promised and the bed not made several days.  Other than that, the kitchen was more than adiequate and fully stocked with dishes, coffee pots, pots and pans as well as silverware.  A dishwasher is available, but we didn't use it.  There are food stores near by to stock your frig!!  Try this place, you'll like it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r175478827-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>175478827</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Nice and peaceful stay.. but needs a little refreshing</t>
+  </si>
+  <si>
+    <t>Just stayed here Labor day weekend 2013.. overall the place is decent. Nothing looks run down. It's kept nice and clean. I have three gripes.. 1) they sign out front needs updating and so does the exterior of all the buildings. 2) the wireless internet was not working properly or either very very slow. 3)when the hotel is full or busy the parking space is very limited so you may have to park on the street. The rooms are very comfortable and nicely kept. And breakfast was also pretty decent. The hotel is pretty convenient to major roads and it sits right next to a major chain taco restaurant with other places very close by. You would not be disappointed with your stay here, but you also would not feel like you were at a top of the line hotel either. As for the staff, I found them to be very helpful and polite. I rated this place 3-star because of the 3 negatives I mentioned which certainly are not major but it would increase the hotel rating if those things were corrected/changed.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Chatsworth, responded to this reviewResponded September 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2013</t>
+  </si>
+  <si>
+    <t>Just stayed here Labor day weekend 2013.. overall the place is decent. Nothing looks run down. It's kept nice and clean. I have three gripes.. 1) they sign out front needs updating and so does the exterior of all the buildings. 2) the wireless internet was not working properly or either very very slow. 3)when the hotel is full or busy the parking space is very limited so you may have to park on the street. The rooms are very comfortable and nicely kept. And breakfast was also pretty decent. The hotel is pretty convenient to major roads and it sits right next to a major chain taco restaurant with other places very close by. You would not be disappointed with your stay here, but you also would not feel like you were at a top of the line hotel either. As for the staff, I found them to be very helpful and polite. I rated this place 3-star because of the 3 negatives I mentioned which certainly are not major but it would increase the hotel rating if those things were corrected/changed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r175100801-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>175100801</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Above average for an extended stay</t>
+  </si>
+  <si>
+    <t>The first thing one must know about this property is that it was not built as a Staybridge originally.  Rather than one big building full of rooms as most purpose-built SS hotels this one has multiple buildings of three floors each.  This yields a somewhat apartmenty feel which is quite nice to have for some trips.  
+The room itself was obviously re-done and seemed more upscale than I would have expected from this hotel chain.  Most impressive to me was the bathtub/shower that seems to have been redone with genuine tile including some elegant accenting.  Along with the shower area you'll find the toilet and then a large vanity on the other side of the door.  The vanity is clearly in the bedroom area which is great for a couple needing to get ready for a day out.  
+The closet is quite large as well and could easily keep a couple in clothes for quite a few months.  We found the bed to be quite comfortable and enjoyed the door separating the living area from the bedroom.  Noise was usually quite minimal and we found ourselves getting quality sleep each night.  
+We also took advantage of the breakfast each morning that seemed well stocked with average hotel breakfast foods being available.  I did partake of one evening meal that harkened back to my schooldays.  Not sure I'd plan to eat the evening meal (available Tu-Th) again but it served a...The first thing one must know about this property is that it was not built as a Staybridge originally.  Rather than one big building full of rooms as most purpose-built SS hotels this one has multiple buildings of three floors each.  This yields a somewhat apartmenty feel which is quite nice to have for some trips.  The room itself was obviously re-done and seemed more upscale than I would have expected from this hotel chain.  Most impressive to me was the bathtub/shower that seems to have been redone with genuine tile including some elegant accenting.  Along with the shower area you'll find the toilet and then a large vanity on the other side of the door.  The vanity is clearly in the bedroom area which is great for a couple needing to get ready for a day out.  The closet is quite large as well and could easily keep a couple in clothes for quite a few months.  We found the bed to be quite comfortable and enjoyed the door separating the living area from the bedroom.  Noise was usually quite minimal and we found ourselves getting quality sleep each night.  We also took advantage of the breakfast each morning that seemed well stocked with average hotel breakfast foods being available.  I did partake of one evening meal that harkened back to my schooldays.  Not sure I'd plan to eat the evening meal (available Tu-Th) again but it served a purpose. Aside from the well redone rooms and homelike rooms I have to say the property has some of the best staff I've encountered.  Everyone I spoke with was extremely friendly and caring.  Having stayed at some very upscale hotels it's always amazing to me how much nicer staff can be at hotels of this nature. We had originally planned to stay at the Extended Stay America nearby but after visiting a restaurant near that hotel we were so happy to have chosen the Staybridge Suites.  The location of the SS is secluded and quiet most evenings whereas the Extended Stay faces a pretty major street with a bunch of retail and traffic. Overall we really enjoyed our stay and even declined the light touch housekeeping as we felt we were in an apartment.  The hotel does provide soap and shampoo and will make your bed and refresh towels on weekdays.  We did have housekeeping trade out our towels a couple of times which was easy to do. We'll be headed back to the area in January and will most likely stay at this property again provided the cost is still agreeable. MoreShow less</t>
+  </si>
+  <si>
+    <t>The first thing one must know about this property is that it was not built as a Staybridge originally.  Rather than one big building full of rooms as most purpose-built SS hotels this one has multiple buildings of three floors each.  This yields a somewhat apartmenty feel which is quite nice to have for some trips.  
+The room itself was obviously re-done and seemed more upscale than I would have expected from this hotel chain.  Most impressive to me was the bathtub/shower that seems to have been redone with genuine tile including some elegant accenting.  Along with the shower area you'll find the toilet and then a large vanity on the other side of the door.  The vanity is clearly in the bedroom area which is great for a couple needing to get ready for a day out.  
+The closet is quite large as well and could easily keep a couple in clothes for quite a few months.  We found the bed to be quite comfortable and enjoyed the door separating the living area from the bedroom.  Noise was usually quite minimal and we found ourselves getting quality sleep each night.  
+We also took advantage of the breakfast each morning that seemed well stocked with average hotel breakfast foods being available.  I did partake of one evening meal that harkened back to my schooldays.  Not sure I'd plan to eat the evening meal (available Tu-Th) again but it served a...The first thing one must know about this property is that it was not built as a Staybridge originally.  Rather than one big building full of rooms as most purpose-built SS hotels this one has multiple buildings of three floors each.  This yields a somewhat apartmenty feel which is quite nice to have for some trips.  The room itself was obviously re-done and seemed more upscale than I would have expected from this hotel chain.  Most impressive to me was the bathtub/shower that seems to have been redone with genuine tile including some elegant accenting.  Along with the shower area you'll find the toilet and then a large vanity on the other side of the door.  The vanity is clearly in the bedroom area which is great for a couple needing to get ready for a day out.  The closet is quite large as well and could easily keep a couple in clothes for quite a few months.  We found the bed to be quite comfortable and enjoyed the door separating the living area from the bedroom.  Noise was usually quite minimal and we found ourselves getting quality sleep each night.  We also took advantage of the breakfast each morning that seemed well stocked with average hotel breakfast foods being available.  I did partake of one evening meal that harkened back to my schooldays.  Not sure I'd plan to eat the evening meal (available Tu-Th) again but it served a purpose. Aside from the well redone rooms and homelike rooms I have to say the property has some of the best staff I've encountered.  Everyone I spoke with was extremely friendly and caring.  Having stayed at some very upscale hotels it's always amazing to me how much nicer staff can be at hotels of this nature. We had originally planned to stay at the Extended Stay America nearby but after visiting a restaurant near that hotel we were so happy to have chosen the Staybridge Suites.  The location of the SS is secluded and quiet most evenings whereas the Extended Stay faces a pretty major street with a bunch of retail and traffic. Overall we really enjoyed our stay and even declined the light touch housekeeping as we felt we were in an apartment.  The hotel does provide soap and shampoo and will make your bed and refresh towels on weekdays.  We did have housekeeping trade out our towels a couple of times which was easy to do. We'll be headed back to the area in January and will most likely stay at this property again provided the cost is still agreeable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r173264969-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>173264969</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>Could have been a great hotel but....</t>
+  </si>
+  <si>
+    <t>The rooms are big and I love the kitchenette.  The beds are good with plenty of pillows &amp; soft.  The television is good and the locations seems like a good place..  However..  The stairs were very noisy when kids would go up and down.  The rooms were a little noisy and we could hear the neighbors above and next to us.  The breakfast area was messy and chaotic.  Probably from the many families that stayed there.  The worst thing about the hotel was the people that hung out in the parking lots.  I continually watched my vehicle out the window as some of the people I saw there were a little suspect. I've read many of the reviews regarding the management but didn't have any troubles with them.  They were great from checkin to checkout.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are big and I love the kitchenette.  The beds are good with plenty of pillows &amp; soft.  The television is good and the locations seems like a good place..  However..  The stairs were very noisy when kids would go up and down.  The rooms were a little noisy and we could hear the neighbors above and next to us.  The breakfast area was messy and chaotic.  Probably from the many families that stayed there.  The worst thing about the hotel was the people that hung out in the parking lots.  I continually watched my vehicle out the window as some of the people I saw there were a little suspect. I've read many of the reviews regarding the management but didn't have any troubles with them.  They were great from checkin to checkout.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r167303319-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>167303319</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>A true home away from home</t>
+  </si>
+  <si>
+    <t>We were very fortunate to get a reservation at the very last minute at Staybridge Suites.  It is always our preferred place because it has everything that we need--Suite with separate spacious rooms, full size kitchen, DVD player to entertain our kids, and complimentary hot breakfast. What prevented me to rate this a 5 star was that there were no elevators to our third story room.  Climbing three flights of stairs with 5 pieces of luggage is not a fun venture, especially on a hot 100 degree early evening.  Also, the free wifi was not fully operational so we could not use our tablets and laptops.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r163364166-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>163364166</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights and it was the best experience I've ever had at a hotel.  The staff is super friendly, personable, helpful, and always cheerful.  The rooms are clean, spacious, bright, and well designed.  I normally have a hard time enjoying hotels but the staff here made me feel right at home from the beginning.  The breakfast options in the morning cover a wide range and the quality is on par with a Residence Inn, perhaps slightly better.  I usually opt for Residence Inn but based on my experience here, I'll be looking for a Staybridge Suites in the future.  Lots of really great mom-and-pop restaurants nearby too.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights and it was the best experience I've ever had at a hotel.  The staff is super friendly, personable, helpful, and always cheerful.  The rooms are clean, spacious, bright, and well designed.  I normally have a hard time enjoying hotels but the staff here made me feel right at home from the beginning.  The breakfast options in the morning cover a wide range and the quality is on par with a Residence Inn, perhaps slightly better.  I usually opt for Residence Inn but based on my experience here, I'll be looking for a Staybridge Suites in the future.  Lots of really great mom-and-pop restaurants nearby too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r161645717-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>161645717</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Finally a great hotel near Northridge</t>
+  </si>
+  <si>
+    <t>My daughter just graduated from Northridge (CSUN). We have stayed in many hotels and finally for her graduation found a great one. The room was great and clean and the staff was friendly even though we arrived very late. We wish we had found this one earlier. Great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>SBSCWHCAManagement, Director of Sales at Staybridge Suites Chatsworth, responded to this reviewResponded May 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2013</t>
+  </si>
+  <si>
+    <t>My daughter just graduated from Northridge (CSUN). We have stayed in many hotels and finally for her graduation found a great one. The room was great and clean and the staff was friendly even though we arrived very late. We wish we had found this one earlier. Great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r156642510-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156642510</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Everything I'd hoped for and more</t>
+  </si>
+  <si>
+    <t>Came down to visit family with our dogs and they'd just updated the hotel.  I was expecting the same old one room average place, but was happy to find a contemporary three-room suite with a fully functional kitchen, stocked with basic utensils. The kitchen was perfect for cordon off the dogs when we left (bring a gate). It's unusual to find a place that allows you to leave the dogs in the hotel when you leave.  There's also a nice lawn for them and there's a back area that has bags for picking up.  I chose the place because it's near our family, but also because it had a hot tub for my wife and a pool for my kid (which is nice when it gets hot in the valley).  They also had a pretty nice free breakfast with eggs and waffles, and some evening meals during the week, though I didn't partake in those.  Everything was clean and everyone was friendly.  I especially appreciated Sobe (from Egypt), Rhea, and Rob (perhaps the happiest desk person I've ever met). 
+Okay, so it's clear I was very happy.  No place is perfect, so here are some of the cons:1) No elevator for a third floor can get tiring, but Sobe helped carry our luggage.  2) It can get pricey during the week.  Found a $98-110 during the weekend, but it shoots up to over $130 during the week.  Be sure to...Came down to visit family with our dogs and they'd just updated the hotel.  I was expecting the same old one room average place, but was happy to find a contemporary three-room suite with a fully functional kitchen, stocked with basic utensils. The kitchen was perfect for cordon off the dogs when we left (bring a gate). It's unusual to find a place that allows you to leave the dogs in the hotel when you leave.  There's also a nice lawn for them and there's a back area that has bags for picking up.  I chose the place because it's near our family, but also because it had a hot tub for my wife and a pool for my kid (which is nice when it gets hot in the valley).  They also had a pretty nice free breakfast with eggs and waffles, and some evening meals during the week, though I didn't partake in those.  Everything was clean and everyone was friendly.  I especially appreciated Sobe (from Egypt), Rhea, and Rob (perhaps the happiest desk person I've ever met). Okay, so it's clear I was very happy.  No place is perfect, so here are some of the cons:1) No elevator for a third floor can get tiring, but Sobe helped carry our luggage.  2) It can get pricey during the week.  Found a $98-110 during the weekend, but it shoots up to over $130 during the week.  Be sure to use your AAA discount if you have one! Also join their IGH or IHG rewards when you book so you can get a few perks. The pets cost $75 for 6 nights, which is a reasonable cost, but shoots up to $150 for 7 nights.Otherwise...I recommend this place highly if you have to be in the Chatsworth area.  Also, check out the Simi Valley Big Sky dog park if you have dogs.67493334MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Came down to visit family with our dogs and they'd just updated the hotel.  I was expecting the same old one room average place, but was happy to find a contemporary three-room suite with a fully functional kitchen, stocked with basic utensils. The kitchen was perfect for cordon off the dogs when we left (bring a gate). It's unusual to find a place that allows you to leave the dogs in the hotel when you leave.  There's also a nice lawn for them and there's a back area that has bags for picking up.  I chose the place because it's near our family, but also because it had a hot tub for my wife and a pool for my kid (which is nice when it gets hot in the valley).  They also had a pretty nice free breakfast with eggs and waffles, and some evening meals during the week, though I didn't partake in those.  Everything was clean and everyone was friendly.  I especially appreciated Sobe (from Egypt), Rhea, and Rob (perhaps the happiest desk person I've ever met). 
+Okay, so it's clear I was very happy.  No place is perfect, so here are some of the cons:1) No elevator for a third floor can get tiring, but Sobe helped carry our luggage.  2) It can get pricey during the week.  Found a $98-110 during the weekend, but it shoots up to over $130 during the week.  Be sure to...Came down to visit family with our dogs and they'd just updated the hotel.  I was expecting the same old one room average place, but was happy to find a contemporary three-room suite with a fully functional kitchen, stocked with basic utensils. The kitchen was perfect for cordon off the dogs when we left (bring a gate). It's unusual to find a place that allows you to leave the dogs in the hotel when you leave.  There's also a nice lawn for them and there's a back area that has bags for picking up.  I chose the place because it's near our family, but also because it had a hot tub for my wife and a pool for my kid (which is nice when it gets hot in the valley).  They also had a pretty nice free breakfast with eggs and waffles, and some evening meals during the week, though I didn't partake in those.  Everything was clean and everyone was friendly.  I especially appreciated Sobe (from Egypt), Rhea, and Rob (perhaps the happiest desk person I've ever met). Okay, so it's clear I was very happy.  No place is perfect, so here are some of the cons:1) No elevator for a third floor can get tiring, but Sobe helped carry our luggage.  2) It can get pricey during the week.  Found a $98-110 during the weekend, but it shoots up to over $130 during the week.  Be sure to use your AAA discount if you have one! Also join their IGH or IHG rewards when you book so you can get a few perks. The pets cost $75 for 6 nights, which is a reasonable cost, but shoots up to $150 for 7 nights.Otherwise...I recommend this place highly if you have to be in the Chatsworth area.  Also, check out the Simi Valley Big Sky dog park if you have dogs.67493334More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r155072094-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155072094</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Surprisingly nice rooms for the area, but an average hotel overall.</t>
+  </si>
+  <si>
+    <t>Chatsworth isn’t exactly a get-away destination, but this last Sunday night I had to stay in the area for work and figured this would be a great opportunity to review a new hotel. The area immediately surrounding the hotel is a bit intimidating, but once you’re in the parking lot the cleanliness and inviting design of the hotel helps set your mind at ease.
+The hotel lobby was very clean and well designed, and you feel like you’re in a ‘nice’ hotel. The check-in staff was very friendly, but a little too talkative….a five minute check-in I get at most hotels was 15 minutes here. They also ask you to fill in a bunch of personal information that most hotels don’t require (and I’ve stayed at a lot). To their defense, I was exhausted that day, a bit grumpy and not really in the mood for conversation.
+The hotel is laid out ‘motel’ style, so you typically need to drive over to and park near your room. I ended up staying on the second floor of a three story building, which ultimately I ended up regretting. A colleague of mine stayed on the floor above me and the floors of this hotel creek like an old farm house. I could easily hear basically every step taken above me, and it woke me up several times through the night. If I stayed here again I would insist on a top floor...Chatsworth isn’t exactly a get-away destination, but this last Sunday night I had to stay in the area for work and figured this would be a great opportunity to review a new hotel. The area immediately surrounding the hotel is a bit intimidating, but once you’re in the parking lot the cleanliness and inviting design of the hotel helps set your mind at ease.The hotel lobby was very clean and well designed, and you feel like you’re in a ‘nice’ hotel. The check-in staff was very friendly, but a little too talkative….a five minute check-in I get at most hotels was 15 minutes here. They also ask you to fill in a bunch of personal information that most hotels don’t require (and I’ve stayed at a lot). To their defense, I was exhausted that day, a bit grumpy and not really in the mood for conversation.The hotel is laid out ‘motel’ style, so you typically need to drive over to and park near your room. I ended up staying on the second floor of a three story building, which ultimately I ended up regretting. A colleague of mine stayed on the floor above me and the floors of this hotel creek like an old farm house. I could easily hear basically every step taken above me, and it woke me up several times through the night. If I stayed here again I would insist on a top floor room (pro tip).The rooms themselves are surprisingly modern and comfortable, laid out with a separated kitchen/living room area and bedroom. Although I was only there for the night, I found myself wishing I had more time to spend in the room. Everything seemed to be brand new. The bed was also very comfortable…despite the squeaky floors and a car alarm going off in the middle of the night (meh), I ended up sleeping fairly peacefully.Prices are on the higher side for the area, but it’s worth the additional cost if you absolutely have to stay in Chatsworth (lucky you). The hotel is also conveniently located nearby the Northridge Mall, so there are tons of restaurants and shopping a short drive away. If you get fast food cravings, there is also a Del Taco within easy walking distance right next to the hotel. I was disappointed however that there were no bars within walking distance.http://www.explorernation.com/2013/03/staybridge-suites-chatsworth-ca.htmlMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Chatsworth, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Chatsworth isn’t exactly a get-away destination, but this last Sunday night I had to stay in the area for work and figured this would be a great opportunity to review a new hotel. The area immediately surrounding the hotel is a bit intimidating, but once you’re in the parking lot the cleanliness and inviting design of the hotel helps set your mind at ease.
+The hotel lobby was very clean and well designed, and you feel like you’re in a ‘nice’ hotel. The check-in staff was very friendly, but a little too talkative….a five minute check-in I get at most hotels was 15 minutes here. They also ask you to fill in a bunch of personal information that most hotels don’t require (and I’ve stayed at a lot). To their defense, I was exhausted that day, a bit grumpy and not really in the mood for conversation.
+The hotel is laid out ‘motel’ style, so you typically need to drive over to and park near your room. I ended up staying on the second floor of a three story building, which ultimately I ended up regretting. A colleague of mine stayed on the floor above me and the floors of this hotel creek like an old farm house. I could easily hear basically every step taken above me, and it woke me up several times through the night. If I stayed here again I would insist on a top floor...Chatsworth isn’t exactly a get-away destination, but this last Sunday night I had to stay in the area for work and figured this would be a great opportunity to review a new hotel. The area immediately surrounding the hotel is a bit intimidating, but once you’re in the parking lot the cleanliness and inviting design of the hotel helps set your mind at ease.The hotel lobby was very clean and well designed, and you feel like you’re in a ‘nice’ hotel. The check-in staff was very friendly, but a little too talkative….a five minute check-in I get at most hotels was 15 minutes here. They also ask you to fill in a bunch of personal information that most hotels don’t require (and I’ve stayed at a lot). To their defense, I was exhausted that day, a bit grumpy and not really in the mood for conversation.The hotel is laid out ‘motel’ style, so you typically need to drive over to and park near your room. I ended up staying on the second floor of a three story building, which ultimately I ended up regretting. A colleague of mine stayed on the floor above me and the floors of this hotel creek like an old farm house. I could easily hear basically every step taken above me, and it woke me up several times through the night. If I stayed here again I would insist on a top floor room (pro tip).The rooms themselves are surprisingly modern and comfortable, laid out with a separated kitchen/living room area and bedroom. Although I was only there for the night, I found myself wishing I had more time to spend in the room. Everything seemed to be brand new. The bed was also very comfortable…despite the squeaky floors and a car alarm going off in the middle of the night (meh), I ended up sleeping fairly peacefully.Prices are on the higher side for the area, but it’s worth the additional cost if you absolutely have to stay in Chatsworth (lucky you). The hotel is also conveniently located nearby the Northridge Mall, so there are tons of restaurants and shopping a short drive away. If you get fast food cravings, there is also a Del Taco within easy walking distance right next to the hotel. I was disappointed however that there were no bars within walking distance.http://www.explorernation.com/2013/03/staybridge-suites-chatsworth-ca.htmlMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r153745686-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>153745686</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>worst place to work at</t>
+  </si>
+  <si>
+    <t>the general Manager Sean is rude, disrespectful, and arrogant. I caught him snooping around my room.  he was trying to start my computer and i think some of my food was not where i left it so i threw it out because i was creeped out by the whole situation. when i asked him why he was in my room he said he was the manager here and he can go thru any room at anytime.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Chatsworth, responded to this reviewResponded March 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2013</t>
+  </si>
+  <si>
+    <t>the general Manager Sean is rude, disrespectful, and arrogant. I caught him snooping around my room.  he was trying to start my computer and i think some of my food was not where i left it so i threw it out because i was creeped out by the whole situation. when i asked him why he was in my room he said he was the manager here and he can go thru any room at anytime.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r151058264-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>151058264</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for 2 nights with another couple in a 2 bedroom suite. We got 2 very nice bedrooms - spacious and nicely decorated - plus a living room. This suite was a great bargain. We all slept very well - it was so quiet, and the blackout curtains were a nice touch. The kitchen was clean, and fully equipped.  One exception - we are coffee addicts, and there were no coffee filters for brewing the coffee we brought with us. But the complimentary breakfast was great. Fresh fruit, too. We left a remote control for our ipod dock there, and the staff is sending it back to us. We really appreciate service like that. We would definitely stay at the Staybridge Suites in Chatsworth again, and highly recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for 2 nights with another couple in a 2 bedroom suite. We got 2 very nice bedrooms - spacious and nicely decorated - plus a living room. This suite was a great bargain. We all slept very well - it was so quiet, and the blackout curtains were a nice touch. The kitchen was clean, and fully equipped.  One exception - we are coffee addicts, and there were no coffee filters for brewing the coffee we brought with us. But the complimentary breakfast was great. Fresh fruit, too. We left a remote control for our ipod dock there, and the staff is sending it back to us. We really appreciate service like that. We would definitely stay at the Staybridge Suites in Chatsworth again, and highly recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r150137016-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>150137016</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Very Clean and lots of amenities</t>
+  </si>
+  <si>
+    <t>Hotel was a lot nicer than expected.  Room was very nice and very clean. Room included a fridge w/freezer, stove, microwave, sink, shower with tub, roomy closet, two tvs, one dvd player. The living room couch was comfortable and a great place to chill and watch movie. Bedroom very comfortable and could be closed off from living room. Shower nice and hot and adjustable shower settings.  Staff was very friendly.Cons, walls were very thin so could hear everything going on in room above us and we could hear every time someone was walking around in the room above which didn't allow for sleeping in or getting much sleep at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was a lot nicer than expected.  Room was very nice and very clean. Room included a fridge w/freezer, stove, microwave, sink, shower with tub, roomy closet, two tvs, one dvd player. The living room couch was comfortable and a great place to chill and watch movie. Bedroom very comfortable and could be closed off from living room. Shower nice and hot and adjustable shower settings.  Staff was very friendly.Cons, walls were very thin so could hear everything going on in room above us and we could hear every time someone was walking around in the room above which didn't allow for sleeping in or getting much sleep at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r148898858-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>148898858</t>
+  </si>
+  <si>
+    <t>01/05/2013</t>
+  </si>
+  <si>
+    <t>Nice, quiet hotel, large suites</t>
+  </si>
+  <si>
+    <t>We stayed there at the end of September 2012 for 3 nights (5 people). It's quite far away from the center of Los Angeles - about one hour's drive from Disney Land, and 30 minutes drive from Universal Studios. But on the other hand, its' a quiet and safe neighborhood, with all that one needs close by: laundromats, restaurants, gas stations, supermarkets. This is very convenient. The hotel is actually a whole street of apartments. Ours was on the third floor. No elevators. The suite we received was renovated like new and very big - two completely separate units, each containing a bedroom and a shower and toilet. The kitchen is big and well equipped with a large refrigerator, a dishwasher, dishes, kettle and everything you can think of! The staff is nice and helpful. There is a standard American breakfast, free WIFI, and a swimming pool. The price was also reasonable. We really enjoyed our stay!One morning when we had to leave very early, they let us grab as much breakfast food as we wanted at 6 o'clock in the morning! That was really helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We stayed there at the end of September 2012 for 3 nights (5 people). It's quite far away from the center of Los Angeles - about one hour's drive from Disney Land, and 30 minutes drive from Universal Studios. But on the other hand, its' a quiet and safe neighborhood, with all that one needs close by: laundromats, restaurants, gas stations, supermarkets. This is very convenient. The hotel is actually a whole street of apartments. Ours was on the third floor. No elevators. The suite we received was renovated like new and very big - two completely separate units, each containing a bedroom and a shower and toilet. The kitchen is big and well equipped with a large refrigerator, a dishwasher, dishes, kettle and everything you can think of! The staff is nice and helpful. There is a standard American breakfast, free WIFI, and a swimming pool. The price was also reasonable. We really enjoyed our stay!One morning when we had to leave very early, they let us grab as much breakfast food as we wanted at 6 o'clock in the morning! That was really helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r145424353-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>145424353</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>The BEST hotel stay EVER!!! I LOVE Staybridge Suites!!!  :-)</t>
+  </si>
+  <si>
+    <t>I stayed at the Staybridge Suites in Chatsworth CA for almost a full week in November 2012 and I was so impressed that I am making a point to right a review which I've never done before.  The property is like a home away from home and my suite looked like an upscale condo inside.  I could not believe how nice,NEW, and comfortable everything was.  The bed and other furniture was super comfortable and I slept like a baby every night.  I also enjoyed having a hot waffle and delicious coffee every morning from the complimentary breakfast buffet and also enjoyed the complimentary dinner and wine from Tuesday thru Thursday nights.  I also loved having complimentary washer and dryers as well as a mini convenience store where I could purchase anything I required from toiletries to snacks for my stay. The staff was also very, very, nice and extremely accomodating and if I was able to stay here longer I would.  I also loved that it was a smoke free property, due to the fact that I am allergic to cigarette smoke, this was a HUGE plus!!!  I am extremely grateful to everyone at Staybridge suites for being such a phenomenal staff and giving me an amazing experience.  I will always look for a Staybridge Suites whenever I travel from now on and will continue to tell everyone how much I enjoyed my stay.  Thanks Staybridge!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I stayed at the Staybridge Suites in Chatsworth CA for almost a full week in November 2012 and I was so impressed that I am making a point to right a review which I've never done before.  The property is like a home away from home and my suite looked like an upscale condo inside.  I could not believe how nice,NEW, and comfortable everything was.  The bed and other furniture was super comfortable and I slept like a baby every night.  I also enjoyed having a hot waffle and delicious coffee every morning from the complimentary breakfast buffet and also enjoyed the complimentary dinner and wine from Tuesday thru Thursday nights.  I also loved having complimentary washer and dryers as well as a mini convenience store where I could purchase anything I required from toiletries to snacks for my stay. The staff was also very, very, nice and extremely accomodating and if I was able to stay here longer I would.  I also loved that it was a smoke free property, due to the fact that I am allergic to cigarette smoke, this was a HUGE plus!!!  I am extremely grateful to everyone at Staybridge suites for being such a phenomenal staff and giving me an amazing experience.  I will always look for a Staybridge Suites whenever I travel from now on and will continue to tell everyone how much I enjoyed my stay.  Thanks Staybridge!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r141048890-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>141048890</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>The hotel is basically a construction zone from 7am-6pm</t>
+  </si>
+  <si>
+    <t>The hotel staff are all very nice, helpful and pleasant.
+But the hotel is undergoing complete renovation, with constant noise of large trucks and forklifts loading and unloading large pieces of rubble, as well as furniture, carpet rolls, and other equipment, which end up strewn all over the parking lot. Other constant noise comes from sledgehammers and electric saws, and there is a lot of hammering and drilling. The trucks and equipment constantly block the parking lot, so getting your car in or out of the lot is often difficult. The construction workers try to accommodate the guests, but why should guests even have to deal with this major level of noise and inconvenience?
+We didn't know about the major level of noise or construction when we booked on the Staybridge website, and the noise and inconvenience increased significantly on our final day.
+That Holiday Inn is charging full or only slightly discounted rates during this construction is unbelievable (an AAA rate for a week night is $147.99!!). The hotel staff do the best they can for their guests under these circumstances, so I don't blame them, but I do blame their corporation. I asked for a discount for the last day due to the fact that all the water in the hotel was turned off from 10am-1pm with only 2 hours' notice (!!). I got a slight discount, but not enough to make me want to stay at another...The hotel staff are all very nice, helpful and pleasant.But the hotel is undergoing complete renovation, with constant noise of large trucks and forklifts loading and unloading large pieces of rubble, as well as furniture, carpet rolls, and other equipment, which end up strewn all over the parking lot. Other constant noise comes from sledgehammers and electric saws, and there is a lot of hammering and drilling. The trucks and equipment constantly block the parking lot, so getting your car in or out of the lot is often difficult. The construction workers try to accommodate the guests, but why should guests even have to deal with this major level of noise and inconvenience?We didn't know about the major level of noise or construction when we booked on the Staybridge website, and the noise and inconvenience increased significantly on our final day.That Holiday Inn is charging full or only slightly discounted rates during this construction is unbelievable (an AAA rate for a week night is $147.99!!). The hotel staff do the best they can for their guests under these circumstances, so I don't blame them, but I do blame their corporation. I asked for a discount for the last day due to the fact that all the water in the hotel was turned off from 10am-1pm with only 2 hours' notice (!!). I got a slight discount, but not enough to make me want to stay at another Holiday Inn property in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Chatsworth, responded to this reviewResponded October 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2012</t>
+  </si>
+  <si>
+    <t>The hotel staff are all very nice, helpful and pleasant.
+But the hotel is undergoing complete renovation, with constant noise of large trucks and forklifts loading and unloading large pieces of rubble, as well as furniture, carpet rolls, and other equipment, which end up strewn all over the parking lot. Other constant noise comes from sledgehammers and electric saws, and there is a lot of hammering and drilling. The trucks and equipment constantly block the parking lot, so getting your car in or out of the lot is often difficult. The construction workers try to accommodate the guests, but why should guests even have to deal with this major level of noise and inconvenience?
+We didn't know about the major level of noise or construction when we booked on the Staybridge website, and the noise and inconvenience increased significantly on our final day.
+That Holiday Inn is charging full or only slightly discounted rates during this construction is unbelievable (an AAA rate for a week night is $147.99!!). The hotel staff do the best they can for their guests under these circumstances, so I don't blame them, but I do blame their corporation. I asked for a discount for the last day due to the fact that all the water in the hotel was turned off from 10am-1pm with only 2 hours' notice (!!). I got a slight discount, but not enough to make me want to stay at another...The hotel staff are all very nice, helpful and pleasant.But the hotel is undergoing complete renovation, with constant noise of large trucks and forklifts loading and unloading large pieces of rubble, as well as furniture, carpet rolls, and other equipment, which end up strewn all over the parking lot. Other constant noise comes from sledgehammers and electric saws, and there is a lot of hammering and drilling. The trucks and equipment constantly block the parking lot, so getting your car in or out of the lot is often difficult. The construction workers try to accommodate the guests, but why should guests even have to deal with this major level of noise and inconvenience?We didn't know about the major level of noise or construction when we booked on the Staybridge website, and the noise and inconvenience increased significantly on our final day.That Holiday Inn is charging full or only slightly discounted rates during this construction is unbelievable (an AAA rate for a week night is $147.99!!). The hotel staff do the best they can for their guests under these circumstances, so I don't blame them, but I do blame their corporation. I asked for a discount for the last day due to the fact that all the water in the hotel was turned off from 10am-1pm with only 2 hours' notice (!!). I got a slight discount, but not enough to make me want to stay at another Holiday Inn property in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r135829013-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135829013</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Staybridge stay</t>
+  </si>
+  <si>
+    <t>We have moved out of California and were visiting our families as well as business. I can honestly say that this might have been a nice hotel in it's early days. The staff is both professional and courteous. It's not their fault that things are run down. That being said... We didn't enjoy our stay there. We stay June 23 through July 1, 2012. We walked in our Room to find there was still dried spaghetti sauce on the floor near the fridge that hadn't been cleaned up, roaches in the cabinet where the plates were. The front desk girl had them come fumigate the room (now I'm afraid to open my suite case as I might have bugs in them). I walked barefoot and found that the carpets were filthy once I stepped in the shower to bathe. I was grossed out by this and walked with shoes on the remaining of the time we were there. The trash was finally picked up on my request 6 days after we had been there and fresh towels. We were in the main building but in one of the outside units... Right under the laundry room where we kept hearing the maids slam the door whilst doing laundry late at night. They did try to move us but at that point we were unpacked and the hubby didn't want to move. On to parking...because we were not in by 7 there...We have moved out of California and were visiting our families as well as business. I can honestly say that this might have been a nice hotel in it's early days. The staff is both professional and courteous. It's not their fault that things are run down. That being said... We didn't enjoy our stay there. We stay June 23 through July 1, 2012. We walked in our Room to find there was still dried spaghetti sauce on the floor near the fridge that hadn't been cleaned up, roaches in the cabinet where the plates were. The front desk girl had them come fumigate the room (now I'm afraid to open my suite case as I might have bugs in them). I walked barefoot and found that the carpets were filthy once I stepped in the shower to bathe. I was grossed out by this and walked with shoes on the remaining of the time we were there. The trash was finally picked up on my request 6 days after we had been there and fresh towels. We were in the main building but in one of the outside units... Right under the laundry room where we kept hearing the maids slam the door whilst doing laundry late at night. They did try to move us but at that point we were unpacked and the hubby didn't want to move. On to parking...because we were not in by 7 there were no parking spaces left for us. We had to park on the street three blocks away several times. It was quite infuriating to see the construction vehicles taking up three parking spaces as we had to park so far away each night. Traveling for business is bad enough but when you don't have a space for me when I get back from a business dinner... Shame on you. When I brought it up I was told that it was only a perk and basically I had to park on the street? I did notice some others on the premises park in the check in spots over night and asked if we could. I was told I'd be towed and definitely not to. I should have just done it since others did without thinking about it. Oh and the construction early morning even on the weekend was lovely. I was so frustrated that I don't think I'll ever stay at your place again or anyone you're affiliated with.  Breakfast was okay when it wasn't  filled with people waiting for food once it ran out. The coffee being stocked day and night was also a nice perk. Pay a few dollars more and have peace of mind once you get home and a PARKING spot waiting for you ( guaranteed).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We have moved out of California and were visiting our families as well as business. I can honestly say that this might have been a nice hotel in it's early days. The staff is both professional and courteous. It's not their fault that things are run down. That being said... We didn't enjoy our stay there. We stay June 23 through July 1, 2012. We walked in our Room to find there was still dried spaghetti sauce on the floor near the fridge that hadn't been cleaned up, roaches in the cabinet where the plates were. The front desk girl had them come fumigate the room (now I'm afraid to open my suite case as I might have bugs in them). I walked barefoot and found that the carpets were filthy once I stepped in the shower to bathe. I was grossed out by this and walked with shoes on the remaining of the time we were there. The trash was finally picked up on my request 6 days after we had been there and fresh towels. We were in the main building but in one of the outside units... Right under the laundry room where we kept hearing the maids slam the door whilst doing laundry late at night. They did try to move us but at that point we were unpacked and the hubby didn't want to move. On to parking...because we were not in by 7 there...We have moved out of California and were visiting our families as well as business. I can honestly say that this might have been a nice hotel in it's early days. The staff is both professional and courteous. It's not their fault that things are run down. That being said... We didn't enjoy our stay there. We stay June 23 through July 1, 2012. We walked in our Room to find there was still dried spaghetti sauce on the floor near the fridge that hadn't been cleaned up, roaches in the cabinet where the plates were. The front desk girl had them come fumigate the room (now I'm afraid to open my suite case as I might have bugs in them). I walked barefoot and found that the carpets were filthy once I stepped in the shower to bathe. I was grossed out by this and walked with shoes on the remaining of the time we were there. The trash was finally picked up on my request 6 days after we had been there and fresh towels. We were in the main building but in one of the outside units... Right under the laundry room where we kept hearing the maids slam the door whilst doing laundry late at night. They did try to move us but at that point we were unpacked and the hubby didn't want to move. On to parking...because we were not in by 7 there were no parking spaces left for us. We had to park on the street three blocks away several times. It was quite infuriating to see the construction vehicles taking up three parking spaces as we had to park so far away each night. Traveling for business is bad enough but when you don't have a space for me when I get back from a business dinner... Shame on you. When I brought it up I was told that it was only a perk and basically I had to park on the street? I did notice some others on the premises park in the check in spots over night and asked if we could. I was told I'd be towed and definitely not to. I should have just done it since others did without thinking about it. Oh and the construction early morning even on the weekend was lovely. I was so frustrated that I don't think I'll ever stay at your place again or anyone you're affiliated with.  Breakfast was okay when it wasn't  filled with people waiting for food once it ran out. The coffee being stocked day and night was also a nice perk. Pay a few dollars more and have peace of mind once you get home and a PARKING spot waiting for you ( guaranteed).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r132489260-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>132489260</t>
+  </si>
+  <si>
+    <t>06/21/2012</t>
+  </si>
+  <si>
+    <t>Yuck!</t>
+  </si>
+  <si>
+    <t>Stayed here for a week for a business trip. Since it was going to be such a long trip. I decided that having a kitchen would be nice. What a mistake.I opened the cupboard doors above the sink and a 12 pack of empty beer cans, an old pizza box, dirty napkins, and my favorite- the empty box of condoms - along with the receipt showing that these items had been purchased the night before I checked in.I have not yet told you about the lovely clientel that stay at this property. Or the 4 (yes, 4) cop cars that all pulled up one morning before I left for the office. YUCKMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Chatsworth, responded to this reviewResponded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for a week for a business trip. Since it was going to be such a long trip. I decided that having a kitchen would be nice. What a mistake.I opened the cupboard doors above the sink and a 12 pack of empty beer cans, an old pizza box, dirty napkins, and my favorite- the empty box of condoms - along with the receipt showing that these items had been purchased the night before I checked in.I have not yet told you about the lovely clientel that stay at this property. Or the 4 (yes, 4) cop cars that all pulled up one morning before I left for the office. YUCKMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r130939830-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130939830</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Affordable &amp; Spacious</t>
+  </si>
+  <si>
+    <t>Our family enjoyed the clean and large accommodations.  The staff helped us find low cost tickets to Six Flags Magic Mountain and printed MapQuest direction for us.  It is close to the Ronald Regan Library. The pool was a nice temperature.  The buffet breakfast was delicious and free!</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r130913686-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130913686</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Nice place to stay in the San Fernando Valley!</t>
+  </si>
+  <si>
+    <t>My husband and I were recently in the Chatsworth area visiting some long time friends of mine.  I had read other reviews on the Staybridge Suites and it seemed like it would be perfect for our needs and it was!
+The main lobby and entry area was clean and bright and the woman who checked us in was delightful.  The room was spacious and we loved having the full kitchen and a separate living area with a sofa and chair.  The kitchen had granite counter tops and nice cabinets.  The furnishings were updated and comfortable.  We were toward the back of the property and it was quiet and there was a little grassy area and a picnic table outside our front door between us and the other building.  
+There was plenty of parking and every member of the staff that we dealt with were very helpful and friendly.  The breakfast included a good selection of hot and cold items and the room was bright and welcoming. They have a laundry room for use if you bring the detergent and a small workout room with a stationary bike, a treadmill and an elliptical.  Evidently, during the week they have a reception in the evenings with some drinks and a small, simple meal, but we were there on the weekend, so I cannot report on that.
+If you are looking for a nice, clean comfortable room with lots of space, a congenial,...My husband and I were recently in the Chatsworth area visiting some long time friends of mine.  I had read other reviews on the Staybridge Suites and it seemed like it would be perfect for our needs and it was!The main lobby and entry area was clean and bright and the woman who checked us in was delightful.  The room was spacious and we loved having the full kitchen and a separate living area with a sofa and chair.  The kitchen had granite counter tops and nice cabinets.  The furnishings were updated and comfortable.  We were toward the back of the property and it was quiet and there was a little grassy area and a picnic table outside our front door between us and the other building.  There was plenty of parking and every member of the staff that we dealt with were very helpful and friendly.  The breakfast included a good selection of hot and cold items and the room was bright and welcoming. They have a laundry room for use if you bring the detergent and a small workout room with a stationary bike, a treadmill and an elliptical.  Evidently, during the week they have a reception in the evenings with some drinks and a small, simple meal, but we were there on the weekend, so I cannot report on that.If you are looking for a nice, clean comfortable room with lots of space, a congenial, helpful staff and a plentiful breakfast, this is your place.  We would definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I were recently in the Chatsworth area visiting some long time friends of mine.  I had read other reviews on the Staybridge Suites and it seemed like it would be perfect for our needs and it was!
+The main lobby and entry area was clean and bright and the woman who checked us in was delightful.  The room was spacious and we loved having the full kitchen and a separate living area with a sofa and chair.  The kitchen had granite counter tops and nice cabinets.  The furnishings were updated and comfortable.  We were toward the back of the property and it was quiet and there was a little grassy area and a picnic table outside our front door between us and the other building.  
+There was plenty of parking and every member of the staff that we dealt with were very helpful and friendly.  The breakfast included a good selection of hot and cold items and the room was bright and welcoming. They have a laundry room for use if you bring the detergent and a small workout room with a stationary bike, a treadmill and an elliptical.  Evidently, during the week they have a reception in the evenings with some drinks and a small, simple meal, but we were there on the weekend, so I cannot report on that.
+If you are looking for a nice, clean comfortable room with lots of space, a congenial,...My husband and I were recently in the Chatsworth area visiting some long time friends of mine.  I had read other reviews on the Staybridge Suites and it seemed like it would be perfect for our needs and it was!The main lobby and entry area was clean and bright and the woman who checked us in was delightful.  The room was spacious and we loved having the full kitchen and a separate living area with a sofa and chair.  The kitchen had granite counter tops and nice cabinets.  The furnishings were updated and comfortable.  We were toward the back of the property and it was quiet and there was a little grassy area and a picnic table outside our front door between us and the other building.  There was plenty of parking and every member of the staff that we dealt with were very helpful and friendly.  The breakfast included a good selection of hot and cold items and the room was bright and welcoming. They have a laundry room for use if you bring the detergent and a small workout room with a stationary bike, a treadmill and an elliptical.  Evidently, during the week they have a reception in the evenings with some drinks and a small, simple meal, but we were there on the weekend, so I cannot report on that.If you are looking for a nice, clean comfortable room with lots of space, a congenial, helpful staff and a plentiful breakfast, this is your place.  We would definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r128470821-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>128470821</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>rude manager, run down rooms</t>
+  </si>
+  <si>
+    <t>Run down hotel rooms. Owner is an arrogant person. He demanded to see and "up to date" version of my AAA card, and wanted me to fax AAA for it.  I did mange to find the card, but I couldn't believe he put me through that, and I'm a club member!!!!  Not too many other choices in this area is why I stayed here. Old tvs and vhs players in the rooms, power outlets behind the desks, like something from 20 years ago!  Avoid this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Chatsworth, responded to this reviewResponded June 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2012</t>
+  </si>
+  <si>
+    <t>Run down hotel rooms. Owner is an arrogant person. He demanded to see and "up to date" version of my AAA card, and wanted me to fax AAA for it.  I did mange to find the card, but I couldn't believe he put me through that, and I'm a club member!!!!  Not too many other choices in this area is why I stayed here. Old tvs and vhs players in the rooms, power outlets behind the desks, like something from 20 years ago!  Avoid this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r125376253-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>125376253</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>Older property that tries to be excellent and falls short</t>
+  </si>
+  <si>
+    <t>We should have been concerned when we had to be buzzed into the property at 10 p.m. on a Sunday night, and even more concerned when there was a security guard on foot patroling the parking lots. But hey, it's Southern California. Overall, the property is in good repair, but, it is showing signs of age.  The breakfast is usual fare, and the evening receptions are very disappointing - I was traveling with a colleague that is a Vegan, and there was nothing that she could eat except for a poorly put together ice burg salad. Internet connectivity is poor at best.  The highlight of the week here was the staff that drove our daily shuttle (our business meetings were in VanNuys).  They were courteous and always on time when we requested a pick up.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Chatsworth, responded to this reviewResponded March 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2012</t>
+  </si>
+  <si>
+    <t>We should have been concerned when we had to be buzzed into the property at 10 p.m. on a Sunday night, and even more concerned when there was a security guard on foot patroling the parking lots. But hey, it's Southern California. Overall, the property is in good repair, but, it is showing signs of age.  The breakfast is usual fare, and the evening receptions are very disappointing - I was traveling with a colleague that is a Vegan, and there was nothing that she could eat except for a poorly put together ice burg salad. Internet connectivity is poor at best.  The highlight of the week here was the staff that drove our daily shuttle (our business meetings were in VanNuys).  They were courteous and always on time when we requested a pick up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r124020444-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>124020444</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>When in the S.F. Valley, stay here!</t>
+  </si>
+  <si>
+    <t>A personable and friendly staff greets you at the front desk and fulfills requests for information and service with a smile. Suites are spacious and well equipped - especially the kitchen. I hear that extensive room renovations are planned for April and May, one building at a time, so not to interfere with guest's experience. A good hot breakfast served in the main house. Clean pool and lounges, along with a large outdoor patio. Convenience store, Starbucks and a Deli in walking distance. Gocery store and several restaurants near by (by car). Easy access to the 118-Freeway. BUR airport about 30 minutes drive.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r123352712-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>123352712</t>
+  </si>
+  <si>
+    <t>01/20/2012</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>My family and I checked into this hotel and checked out 3 hours later.  We got to our room, it smelled like animal urine covered up with carpet cleaner and air freshener, my shoes stuck to the bathroom floor and left tread marks, dirty towel on the sink, couch cushions different colors (not for decorative purposes), water bottle full of cigarettes at the top of the stair case and outdoor trash cans were overflowing with trash (on a Sunday afternoon at 2 pm).  Definitely an environment we didn't want to stay in for the rest of our vacation even if it was convenient!  Would not recommend or try to stay at another Staybridge again!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I checked into this hotel and checked out 3 hours later.  We got to our room, it smelled like animal urine covered up with carpet cleaner and air freshener, my shoes stuck to the bathroom floor and left tread marks, dirty towel on the sink, couch cushions different colors (not for decorative purposes), water bottle full of cigarettes at the top of the stair case and outdoor trash cans were overflowing with trash (on a Sunday afternoon at 2 pm).  Definitely an environment we didn't want to stay in for the rest of our vacation even if it was convenient!  Would not recommend or try to stay at another Staybridge again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r122117376-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>122117376</t>
+  </si>
+  <si>
+    <t>12/26/2011</t>
+  </si>
+  <si>
+    <t>Convenient and best hotel suites in North LA</t>
+  </si>
+  <si>
+    <t>If you like Trader Joe’s or Whole Foods, then Staybridge Suites is the hotel that you should stay at in Chatsworth.  It’s only 5 minutes away from these markets!  It’s also conveniently located just a few blocks from Hwy 118 and Reseda Blvd where you’ll find all the shopping malls and restaurants.  We always stay at this hotel whenever we’re in north LA for business.  The 2-bedroom 2-bath suite is large and very comfortable, with nicely decorated livingroom and a fully equipped kitchen (flat top stoves, microwave, dishwasher, sink, cooking wares, dishes).  We love the kitchen because we enjoy making meals with all the good foods from Trader Joe’s!  The beds are big with plenty of pillows and clean sheets.  The thick curtains keep the bedrooms in pitch-black darkness, great for sleeping!  In fact, it’s so dark that we have to plug in a small night light (we always travel with one) so we don’t walk into walls trying to find the bathroom in the middle of the night!  We also like the free high speed internet (you’ll need a passcode from the very helpful front desk staff to connect) and free parking.  Not sure why but the parking spaces in front of our suite are all tiny (as in everywhere else in CA we noticed!), our compact rental car can barely fit in!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>If you like Trader Joe’s or Whole Foods, then Staybridge Suites is the hotel that you should stay at in Chatsworth.  It’s only 5 minutes away from these markets!  It’s also conveniently located just a few blocks from Hwy 118 and Reseda Blvd where you’ll find all the shopping malls and restaurants.  We always stay at this hotel whenever we’re in north LA for business.  The 2-bedroom 2-bath suite is large and very comfortable, with nicely decorated livingroom and a fully equipped kitchen (flat top stoves, microwave, dishwasher, sink, cooking wares, dishes).  We love the kitchen because we enjoy making meals with all the good foods from Trader Joe’s!  The beds are big with plenty of pillows and clean sheets.  The thick curtains keep the bedrooms in pitch-black darkness, great for sleeping!  In fact, it’s so dark that we have to plug in a small night light (we always travel with one) so we don’t walk into walls trying to find the bathroom in the middle of the night!  We also like the free high speed internet (you’ll need a passcode from the very helpful front desk staff to connect) and free parking.  Not sure why but the parking spaces in front of our suite are all tiny (as in everywhere else in CA we noticed!), our compact rental car can barely fit in!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r117978542-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>117978542</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>What a great place!  All the staff was extremely courteous and professional.  It was great to have a separate bedroom and living area.  We will definitely remember this hotel chain for future travels.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r114911481-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>114911481</t>
+  </si>
+  <si>
+    <t>06/30/2011</t>
+  </si>
+  <si>
+    <t>Excellent !!</t>
+  </si>
+  <si>
+    <t>A nice, clean, very quiet suites hotel in an excellent location. The two bedroom suite was amazingly large , great free breakfast, and very friendly staff. We will be back !</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r114771014-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>114771014</t>
+  </si>
+  <si>
+    <t>06/26/2011</t>
+  </si>
+  <si>
+    <t>Excellent accomadations, cant wait to go back!</t>
+  </si>
+  <si>
+    <t>My two sons and I stayed at Staybridge, Chatsworth for summer vacation. We got a one bedroom, living rm and kitchen. It was very clean, beds very comfortable, free daily housekeeping service. The kitchen had all the necessary items to cook a warm meal all items in excellent condition. Free parking, delicious continental breakfast daily from 6:30-9:30am with a variety of warm and cold foods. They also have sundown every Tues, Wed, &amp; Thurs from 5:30-6:30pm includes free wine &amp; beer and each night is themed: Mexican, Italian, Hamburger night, etc. Excellent food my children ate very well through out our stay! There is also a pool &amp; jacuzzi area with Bar-be-Que and many tables for sitting while enjoying the pool, free towels!  To my surprise they have a 24 hour FREE laundry for guests open 24hours all you need is to provide your own soap and dirty clothes. At night there is a security guard and free parking. The complex itself is very secure and safe located in a remote part of L.A. 45 minutes from Universal Studios &amp; downtown. Avoid driving the 101 HWY as it is very congested morning and night, best HWY to use is the 118 to 170 to 101 to get into town quickly. L.A. traffic can wear you down!  Front desk staff is okay can be more friendly and outgoing to guests but besides that I plan on returning to Staybridge Suites soon!...My two sons and I stayed at Staybridge, Chatsworth for summer vacation. We got a one bedroom, living rm and kitchen. It was very clean, beds very comfortable, free daily housekeeping service. The kitchen had all the necessary items to cook a warm meal all items in excellent condition. Free parking, delicious continental breakfast daily from 6:30-9:30am with a variety of warm and cold foods. They also have sundown every Tues, Wed, &amp; Thurs from 5:30-6:30pm includes free wine &amp; beer and each night is themed: Mexican, Italian, Hamburger night, etc. Excellent food my children ate very well through out our stay! There is also a pool &amp; jacuzzi area with Bar-be-Que and many tables for sitting while enjoying the pool, free towels!  To my surprise they have a 24 hour FREE laundry for guests open 24hours all you need is to provide your own soap and dirty clothes. At night there is a security guard and free parking. The complex itself is very secure and safe located in a remote part of L.A. 45 minutes from Universal Studios &amp; downtown. Avoid driving the 101 HWY as it is very congested morning and night, best HWY to use is the 118 to 170 to 101 to get into town quickly. L.A. traffic can wear you down!  Front desk staff is okay can be more friendly and outgoing to guests but besides that I plan on returning to Staybridge Suites soon! Excellent choiceMoreShow less</t>
+  </si>
+  <si>
+    <t>My two sons and I stayed at Staybridge, Chatsworth for summer vacation. We got a one bedroom, living rm and kitchen. It was very clean, beds very comfortable, free daily housekeeping service. The kitchen had all the necessary items to cook a warm meal all items in excellent condition. Free parking, delicious continental breakfast daily from 6:30-9:30am with a variety of warm and cold foods. They also have sundown every Tues, Wed, &amp; Thurs from 5:30-6:30pm includes free wine &amp; beer and each night is themed: Mexican, Italian, Hamburger night, etc. Excellent food my children ate very well through out our stay! There is also a pool &amp; jacuzzi area with Bar-be-Que and many tables for sitting while enjoying the pool, free towels!  To my surprise they have a 24 hour FREE laundry for guests open 24hours all you need is to provide your own soap and dirty clothes. At night there is a security guard and free parking. The complex itself is very secure and safe located in a remote part of L.A. 45 minutes from Universal Studios &amp; downtown. Avoid driving the 101 HWY as it is very congested morning and night, best HWY to use is the 118 to 170 to 101 to get into town quickly. L.A. traffic can wear you down!  Front desk staff is okay can be more friendly and outgoing to guests but besides that I plan on returning to Staybridge Suites soon!...My two sons and I stayed at Staybridge, Chatsworth for summer vacation. We got a one bedroom, living rm and kitchen. It was very clean, beds very comfortable, free daily housekeeping service. The kitchen had all the necessary items to cook a warm meal all items in excellent condition. Free parking, delicious continental breakfast daily from 6:30-9:30am with a variety of warm and cold foods. They also have sundown every Tues, Wed, &amp; Thurs from 5:30-6:30pm includes free wine &amp; beer and each night is themed: Mexican, Italian, Hamburger night, etc. Excellent food my children ate very well through out our stay! There is also a pool &amp; jacuzzi area with Bar-be-Que and many tables for sitting while enjoying the pool, free towels!  To my surprise they have a 24 hour FREE laundry for guests open 24hours all you need is to provide your own soap and dirty clothes. At night there is a security guard and free parking. The complex itself is very secure and safe located in a remote part of L.A. 45 minutes from Universal Studios &amp; downtown. Avoid driving the 101 HWY as it is very congested morning and night, best HWY to use is the 118 to 170 to 101 to get into town quickly. L.A. traffic can wear you down!  Front desk staff is okay can be more friendly and outgoing to guests but besides that I plan on returning to Staybridge Suites soon! Excellent choiceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r110160121-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>110160121</t>
+  </si>
+  <si>
+    <t>05/27/2011</t>
+  </si>
+  <si>
+    <t>Staybridge Service drops a bit</t>
+  </si>
+  <si>
+    <t>As a person who has stayed at this hotel multiple times, I've had a chance to see its response to changing times. While it remains a pretty good deal(prices have risen in the last few trips), there is evidence of staff/service cutbacks under the new management co. Most noticeable is the service during the breakfast period. Where this was once staffed by multiple people keeping the coffee and food containers filled, now there is one, lone woman who really can't do it all. I expressed this to the staff at checkout. The food remains OK, but there needs to be more than one person on duty from 6:30-9:00. Room cleaning has also become more sparse, but that isn't a problem, per se. You can ask for more. All in all, I suggest more competitive rates and better food service. Still a good place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>As a person who has stayed at this hotel multiple times, I've had a chance to see its response to changing times. While it remains a pretty good deal(prices have risen in the last few trips), there is evidence of staff/service cutbacks under the new management co. Most noticeable is the service during the breakfast period. Where this was once staffed by multiple people keeping the coffee and food containers filled, now there is one, lone woman who really can't do it all. I expressed this to the staff at checkout. The food remains OK, but there needs to be more than one person on duty from 6:30-9:00. Room cleaning has also become more sparse, but that isn't a problem, per se. You can ask for more. All in all, I suggest more competitive rates and better food service. Still a good place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r97495285-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>97495285</t>
+  </si>
+  <si>
+    <t>02/21/2011</t>
+  </si>
+  <si>
+    <t>Pass on this one</t>
+  </si>
+  <si>
+    <t>Just got located via Priceline to this hotel off the beaten path. At check  they advised they do "soft touch" maid service. I had to ask for towels daily or none would be provided. I made request for the towels daily and only got them the last day I checked out. Same sheets every day for 4 nights. They came and made the bed only and emptied the trash. The lights in the room are all eco friendly and the light was dim and dingy. The shower had been modified to allow the least amount of water possible. The pressure was such that the stream of water with any shower head setting was dismal. Only Queen beds here, if you wish a king forget it. The parking while free is all compact spaces to jam every parking space into this tight parking area. Parking in front of your room may well escape your visit. Forget your SUV. The bathroom sink was stopped up and would take 3 minutes to drain from a single shave. this is NOT a 3 star Priceline property. I will decline if I ever get this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>Just got located via Priceline to this hotel off the beaten path. At check  they advised they do "soft touch" maid service. I had to ask for towels daily or none would be provided. I made request for the towels daily and only got them the last day I checked out. Same sheets every day for 4 nights. They came and made the bed only and emptied the trash. The lights in the room are all eco friendly and the light was dim and dingy. The shower had been modified to allow the least amount of water possible. The pressure was such that the stream of water with any shower head setting was dismal. Only Queen beds here, if you wish a king forget it. The parking while free is all compact spaces to jam every parking space into this tight parking area. Parking in front of your room may well escape your visit. Forget your SUV. The bathroom sink was stopped up and would take 3 minutes to drain from a single shave. this is NOT a 3 star Priceline property. I will decline if I ever get this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r91754624-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>91754624</t>
+  </si>
+  <si>
+    <t>01/04/2011</t>
+  </si>
+  <si>
+    <t>Great stay - could not have asked for more.</t>
+  </si>
+  <si>
+    <t>Ria was extremely poilte, efficient and knew the area well - she could not have done more.  Rooms were spotless with everything needed.  Will most definitely stay here again.  Other people commenting must have stayed somewhere else!</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r89592826-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>89592826</t>
+  </si>
+  <si>
+    <t>12/11/2010</t>
+  </si>
+  <si>
+    <t>Not a safe area</t>
+  </si>
+  <si>
+    <t>I've stayed here twice, both bid through Priceline, both times, I got a good deal, in relative terms.The service is okay, not phenomenal like at other hotels, who'd bend-over backwards to get you what you need.  The first time, I got a room on the first floor, the second time, on the 2nd floor.  The location of the hotel is terrible, in general.  It's in the middle of nowhere, no places to walk to and looks like it's kind of in a bad place.  You have to drive to get anywhere, but it's LA.The first time I stayed, my car got broken into.  They did the least amount of effort to help me.  They gave me the number for the police and lent me their shop-vac.  They didn't give me any plastic wrap (that I'm sure the kitchen has tons of), and they didn't even bother refunding me the price of the room!The second time I stayed, it was okay, couldn't sleep because the last time I stayed.  The rooms has a full kitchenette.The parking sucks, there aren't enough spaces for all rooms.  They also make you sign a clause that says if you party, they can take all your money and kick you to the curb.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>I've stayed here twice, both bid through Priceline, both times, I got a good deal, in relative terms.The service is okay, not phenomenal like at other hotels, who'd bend-over backwards to get you what you need.  The first time, I got a room on the first floor, the second time, on the 2nd floor.  The location of the hotel is terrible, in general.  It's in the middle of nowhere, no places to walk to and looks like it's kind of in a bad place.  You have to drive to get anywhere, but it's LA.The first time I stayed, my car got broken into.  They did the least amount of effort to help me.  They gave me the number for the police and lent me their shop-vac.  They didn't give me any plastic wrap (that I'm sure the kitchen has tons of), and they didn't even bother refunding me the price of the room!The second time I stayed, it was okay, couldn't sleep because the last time I stayed.  The rooms has a full kitchenette.The parking sucks, there aren't enough spaces for all rooms.  They also make you sign a clause that says if you party, they can take all your money and kick you to the curb.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r65210583-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>65210583</t>
+  </si>
+  <si>
+    <t>05/24/2010</t>
+  </si>
+  <si>
+    <t>Rooms are very nice &amp; clean, customer service gets a ZERO!</t>
+  </si>
+  <si>
+    <t>I purchased this on Priceline and paid a pretty good rate. It was pretty far away from where we had hoped to be staying, but since it was a weekend traffic on the freeways was not a huge issue. We checked into the hotel pretty late about 8pm on a Friday evening. The lobby was very quiet, I could hear music playing but no one greeted me at the at the front. Finally a woman came up and her name was Ria. Ria was so rude and so unfriendly. I told her I was with my family and we had a four year old. She told me I needed to sign this paper which was basically saying that if we were given any warning for noise we'd be asked to leave, there is NO warning and we'd be charged instantly for $300! My concern is that I have a 4 yr old and he could possibly make too much noise or jump up and down and I wouldn't be warned? Of course I'm going to try my hardest to keep him quiet but she was so rude about it. She had little to no personality and if she is the 1st person I'm going to be greeted by Staybridge needs to rethink their personnel! I have no other complaints about the hotel; room was very nice, bathroom was very clean, beds were comfortable and we had Free Wifi. My only...I purchased this on Priceline and paid a pretty good rate. It was pretty far away from where we had hoped to be staying, but since it was a weekend traffic on the freeways was not a huge issue. We checked into the hotel pretty late about 8pm on a Friday evening. The lobby was very quiet, I could hear music playing but no one greeted me at the at the front. Finally a woman came up and her name was Ria. Ria was so rude and so unfriendly. I told her I was with my family and we had a four year old. She told me I needed to sign this paper which was basically saying that if we were given any warning for noise we'd be asked to leave, there is NO warning and we'd be charged instantly for $300! My concern is that I have a 4 yr old and he could possibly make too much noise or jump up and down and I wouldn't be warned? Of course I'm going to try my hardest to keep him quiet but she was so rude about it. She had little to no personality and if she is the 1st person I'm going to be greeted by Staybridge needs to rethink their personnel! I have no other complaints about the hotel; room was very nice, bathroom was very clean, beds were comfortable and we had Free Wifi. My only complaint about the room is that in the living room area, the curtains don't close only the blinds close and the top blind was missing or broken so the light from outside was shining into the room all night!I would for sure recommend this hotel, I'm just hoping Ria can learn to treat people better. She told me many times that we could not "party" in our room...last time I checked I'm 36 years old with a 4 year old, I'm pretty sure there was going to be no "partying" in my room!MoreShow less</t>
+  </si>
+  <si>
+    <t>I purchased this on Priceline and paid a pretty good rate. It was pretty far away from where we had hoped to be staying, but since it was a weekend traffic on the freeways was not a huge issue. We checked into the hotel pretty late about 8pm on a Friday evening. The lobby was very quiet, I could hear music playing but no one greeted me at the at the front. Finally a woman came up and her name was Ria. Ria was so rude and so unfriendly. I told her I was with my family and we had a four year old. She told me I needed to sign this paper which was basically saying that if we were given any warning for noise we'd be asked to leave, there is NO warning and we'd be charged instantly for $300! My concern is that I have a 4 yr old and he could possibly make too much noise or jump up and down and I wouldn't be warned? Of course I'm going to try my hardest to keep him quiet but she was so rude about it. She had little to no personality and if she is the 1st person I'm going to be greeted by Staybridge needs to rethink their personnel! I have no other complaints about the hotel; room was very nice, bathroom was very clean, beds were comfortable and we had Free Wifi. My only...I purchased this on Priceline and paid a pretty good rate. It was pretty far away from where we had hoped to be staying, but since it was a weekend traffic on the freeways was not a huge issue. We checked into the hotel pretty late about 8pm on a Friday evening. The lobby was very quiet, I could hear music playing but no one greeted me at the at the front. Finally a woman came up and her name was Ria. Ria was so rude and so unfriendly. I told her I was with my family and we had a four year old. She told me I needed to sign this paper which was basically saying that if we were given any warning for noise we'd be asked to leave, there is NO warning and we'd be charged instantly for $300! My concern is that I have a 4 yr old and he could possibly make too much noise or jump up and down and I wouldn't be warned? Of course I'm going to try my hardest to keep him quiet but she was so rude about it. She had little to no personality and if she is the 1st person I'm going to be greeted by Staybridge needs to rethink their personnel! I have no other complaints about the hotel; room was very nice, bathroom was very clean, beds were comfortable and we had Free Wifi. My only complaint about the room is that in the living room area, the curtains don't close only the blinds close and the top blind was missing or broken so the light from outside was shining into the room all night!I would for sure recommend this hotel, I'm just hoping Ria can learn to treat people better. She told me many times that we could not "party" in our room...last time I checked I'm 36 years old with a 4 year old, I'm pretty sure there was going to be no "partying" in my room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r54072569-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>54072569</t>
+  </si>
+  <si>
+    <t>01/21/2010</t>
+  </si>
+  <si>
+    <t>DON'T STAY HERE!</t>
+  </si>
+  <si>
+    <t>SEAN HASHEMI is the Operations Manager here and not only was he not friendly, but he had an-real attitude. The real problem is that this is a franchise location, so basically he knows the "buck" stops with him.  The corporate office has no real power over franchises.  We requested towels and they provided (2) for a family of (2) adults and (2) toddlers. Mr. Hashemi stated their independent policy is to provide (4) towels in the room and only (2) additional, until the used towels are collected. Are you serious?  I have never heard of this type of policy.  They put a hold on your credit card for damages, so do they really think people are going to run off with their (6) towels?  It is obvious that his title is a cover for his holding as an owner.  Next, their pert run area was full of dog waste, that had no been cleaned in days.  Furthermore, they had wood that was laying in the area that had nails sticking out.I can go on further, but really it is a waste of time. I'm sticking with the Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>SEAN HASHEMI is the Operations Manager here and not only was he not friendly, but he had an-real attitude. The real problem is that this is a franchise location, so basically he knows the "buck" stops with him.  The corporate office has no real power over franchises.  We requested towels and they provided (2) for a family of (2) adults and (2) toddlers. Mr. Hashemi stated their independent policy is to provide (4) towels in the room and only (2) additional, until the used towels are collected. Are you serious?  I have never heard of this type of policy.  They put a hold on your credit card for damages, so do they really think people are going to run off with their (6) towels?  It is obvious that his title is a cover for his holding as an owner.  Next, their pert run area was full of dog waste, that had no been cleaned in days.  Furthermore, they had wood that was laying in the area that had nails sticking out.I can go on further, but really it is a waste of time. I'm sticking with the Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r47127470-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>47127470</t>
+  </si>
+  <si>
+    <t>10/18/2009</t>
+  </si>
+  <si>
+    <t>Decent suites, twilight zone experience</t>
+  </si>
+  <si>
+    <t>A month long stay reduced to two days and the worst experience I've ever had in business travel for the past twenty years. The terms were never honored, I was bullied to leave and threatened when I complained. Very bizarre staff, definitely not for children. Owned by the Intercontinental group which oddly won a customer service award last year. I'd never stay there again.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r33295747-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>33295747</t>
+  </si>
+  <si>
+    <t>06/27/2009</t>
+  </si>
+  <si>
+    <t>Very Pleasant</t>
+  </si>
+  <si>
+    <t>FIrst off, I had to change my non-refundable, no change reservation due to a change in my work schedule. The manager sean, went out of his way to assist me and I was able to change my dates to another week.This is an extended stay location and to try to compare it with HOtels is not a fair comparison.  My suite was clean and quiet. I was on the fround floor and never heard anyone above me or to either side. Previous posts mentioned noise from trains but I never heard a train. Previous posts mentioned that this was an iffy part of town but it was a very good location. I felt very safe here.Staff members that I came in contact with were always pleasant and willing to assist. I did not take advantage of the breakfast buffet but it looked good. THey do have a simple dinner 3 nights a week. Adequate business center with two computers and a printer/copier.  IF I am ever in this area again, I will be staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>FIrst off, I had to change my non-refundable, no change reservation due to a change in my work schedule. The manager sean, went out of his way to assist me and I was able to change my dates to another week.This is an extended stay location and to try to compare it with HOtels is not a fair comparison.  My suite was clean and quiet. I was on the fround floor and never heard anyone above me or to either side. Previous posts mentioned noise from trains but I never heard a train. Previous posts mentioned that this was an iffy part of town but it was a very good location. I felt very safe here.Staff members that I came in contact with were always pleasant and willing to assist. I did not take advantage of the breakfast buffet but it looked good. THey do have a simple dinner 3 nights a week. Adequate business center with two computers and a printer/copier.  IF I am ever in this area again, I will be staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r27521773-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>27521773</t>
+  </si>
+  <si>
+    <t>04/06/2009</t>
+  </si>
+  <si>
+    <t>Beautiful suites after renovation....but paperthin walls</t>
+  </si>
+  <si>
+    <t>I stayed at the Staybridge after booking a room through Priceline at $50 per night.  Room was very clean and quite spacious.  Nice brunch included in price.  Friendly staff persons who actually called me at my room to ask me how everything was so far.  Free high-speed internet.  My only complaint is that you can hear everything from your adjoining neighbor's walls.  My neighbor had his t.v. on all night long.  I called the front desk and they sent security to his room quickly.  Sure enough, I could clearly hear security knock on his door and hear him say, "hello, hello?"  He did turn down the t.v. for awhile but in about an hr., turned it back up.  In all fairness to Staybridge, I am a light sleeper and they did try to get him to quiet down.  I can't imagine what the noise would have been like if this person had decided to have a party at his room! If they added insulation to the walls, this would be the perfect place to stay!  Bring your white noise machine, if you're a light sleeper.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>I stayed at the Staybridge after booking a room through Priceline at $50 per night.  Room was very clean and quite spacious.  Nice brunch included in price.  Friendly staff persons who actually called me at my room to ask me how everything was so far.  Free high-speed internet.  My only complaint is that you can hear everything from your adjoining neighbor's walls.  My neighbor had his t.v. on all night long.  I called the front desk and they sent security to his room quickly.  Sure enough, I could clearly hear security knock on his door and hear him say, "hello, hello?"  He did turn down the t.v. for awhile but in about an hr., turned it back up.  In all fairness to Staybridge, I am a light sleeper and they did try to get him to quiet down.  I can't imagine what the noise would have been like if this person had decided to have a party at his room! If they added insulation to the walls, this would be the perfect place to stay!  Bring your white noise machine, if you're a light sleeper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r24972619-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>24972619</t>
+  </si>
+  <si>
+    <t>02/22/2009</t>
+  </si>
+  <si>
+    <t>Lovely room, Ugly Lies</t>
+  </si>
+  <si>
+    <t>I booked my room on Priceline and scored at $50.00 a night!  Woo Hoo...more drinkin money for the Cowboy Palace (an awesome Honky Tonk bar a few blocks away).
+I arrived at the hotel lobby around 6pm and was greeted by the Hotel Desk Supervisor and another friendly young lady.  Check-in was a breeze. Quick. Easy. Painless.  The Superviser advised me that there would be a $50 hold on my credit card for incidentals.  Pretty standard.  I informed her that I may be extending my stay one more night.   I was very clear in asking if another $50 charge would be applied to my card for the second day.  She CLEARLY stated that the orginal charge would be held over for the next day if I informed the front desk before 11am.  I explained to her that with the amount that I travel,  I already have about $550 in holds from hotels waiting to be cleared and I needed to avoid any more.  She laughed and assured me that I would be charged only that once.
+Well, I opted to extend my stay another night and called up the front desk.  The call was answered by a very rude guy.  I told him I had extended my stay.  He told me that I needed to bring my ID and credit card to the front desk.  Uhhhh...ok...why?  Apparently, because it was a different transaction on Priceline he needed to charge the...I booked my room on Priceline and scored at $50.00 a night!  Woo Hoo...more drinkin money for the Cowboy Palace (an awesome Honky Tonk bar a few blocks away).I arrived at the hotel lobby around 6pm and was greeted by the Hotel Desk Supervisor and another friendly young lady.  Check-in was a breeze. Quick. Easy. Painless.  The Superviser advised me that there would be a $50 hold on my credit card for incidentals.  Pretty standard.  I informed her that I may be extending my stay one more night.   I was very clear in asking if another $50 charge would be applied to my card for the second day.  She CLEARLY stated that the orginal charge would be held over for the next day if I informed the front desk before 11am.  I explained to her that with the amount that I travel,  I already have about $550 in holds from hotels waiting to be cleared and I needed to avoid any more.  She laughed and assured me that I would be charged only that once.Well, I opted to extend my stay another night and called up the front desk.  The call was answered by a very rude guy.  I told him I had extended my stay.  He told me that I needed to bring my ID and credit card to the front desk.  Uhhhh...ok...why?  Apparently, because it was a different transaction on Priceline he needed to charge the card again.  I was upset and told him that I didnt appreciate the different stories.  He got sharp with me and said "Thats just the way it is."  I was clearly pissed off and may or may not have said something really mean back (tee hee).  THEN, to make matters worse, they outsource the housekeeping to an outside company, so I wasnt even able to get housekeeping to come and give me new towels or to empty the trash.Will I stay here again, yes, more than likely.  The hotel rooms are like little apartments and its really close to my Family's house.  All I can hope is the little grouchy dude at the front desk gets run off or something.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>I booked my room on Priceline and scored at $50.00 a night!  Woo Hoo...more drinkin money for the Cowboy Palace (an awesome Honky Tonk bar a few blocks away).
+I arrived at the hotel lobby around 6pm and was greeted by the Hotel Desk Supervisor and another friendly young lady.  Check-in was a breeze. Quick. Easy. Painless.  The Superviser advised me that there would be a $50 hold on my credit card for incidentals.  Pretty standard.  I informed her that I may be extending my stay one more night.   I was very clear in asking if another $50 charge would be applied to my card for the second day.  She CLEARLY stated that the orginal charge would be held over for the next day if I informed the front desk before 11am.  I explained to her that with the amount that I travel,  I already have about $550 in holds from hotels waiting to be cleared and I needed to avoid any more.  She laughed and assured me that I would be charged only that once.
+Well, I opted to extend my stay another night and called up the front desk.  The call was answered by a very rude guy.  I told him I had extended my stay.  He told me that I needed to bring my ID and credit card to the front desk.  Uhhhh...ok...why?  Apparently, because it was a different transaction on Priceline he needed to charge the...I booked my room on Priceline and scored at $50.00 a night!  Woo Hoo...more drinkin money for the Cowboy Palace (an awesome Honky Tonk bar a few blocks away).I arrived at the hotel lobby around 6pm and was greeted by the Hotel Desk Supervisor and another friendly young lady.  Check-in was a breeze. Quick. Easy. Painless.  The Superviser advised me that there would be a $50 hold on my credit card for incidentals.  Pretty standard.  I informed her that I may be extending my stay one more night.   I was very clear in asking if another $50 charge would be applied to my card for the second day.  She CLEARLY stated that the orginal charge would be held over for the next day if I informed the front desk before 11am.  I explained to her that with the amount that I travel,  I already have about $550 in holds from hotels waiting to be cleared and I needed to avoid any more.  She laughed and assured me that I would be charged only that once.Well, I opted to extend my stay another night and called up the front desk.  The call was answered by a very rude guy.  I told him I had extended my stay.  He told me that I needed to bring my ID and credit card to the front desk.  Uhhhh...ok...why?  Apparently, because it was a different transaction on Priceline he needed to charge the card again.  I was upset and told him that I didnt appreciate the different stories.  He got sharp with me and said "Thats just the way it is."  I was clearly pissed off and may or may not have said something really mean back (tee hee).  THEN, to make matters worse, they outsource the housekeeping to an outside company, so I wasnt even able to get housekeeping to come and give me new towels or to empty the trash.Will I stay here again, yes, more than likely.  The hotel rooms are like little apartments and its really close to my Family's house.  All I can hope is the little grouchy dude at the front desk gets run off or something.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r22725066-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>22725066</t>
+  </si>
+  <si>
+    <t>12/14/2008</t>
+  </si>
+  <si>
+    <t>Home away from home in Staybridge Suites</t>
+  </si>
+  <si>
+    <t>A great place to stay! Elegrant and pretty  with friendly staff to help. Great food . Plenty of amenities in the suite full kitchen with granite counters and a sofa bed in the livingroom internet service 2 TV,s outside a heated outdoor pool jacuzzi, excercise room and  laundry room. I will highly recommend this place for a short or long stay a home away from home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r7543986-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7543986</t>
+  </si>
+  <si>
+    <t>05/02/2007</t>
+  </si>
+  <si>
+    <t>Worst Hotel Stay Ever</t>
+  </si>
+  <si>
+    <t>In more than 20 years of travel for business and vacations, I have never experienced anything like the terrible service I received at this hotel.  There were more problems than I imagined could be possible in a four day stay.  The management was incompetent and the staff unresponsive.  I would stay in my rental car before I would stay in this hotel again.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r6510192-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>6510192</t>
+  </si>
+  <si>
+    <t>12/27/2006</t>
+  </si>
+  <si>
+    <t>Worst guest treatment I have ever received</t>
+  </si>
+  <si>
+    <t>This was the third time that my family and I stayed at this hotel. In the two previous visits I was pleased with their basic and reliable amenities of an extended stay. This time I received the worst treatment as a hotel guest I have ever experienced.  Basically my family and I were suddenly shortchanged in our stay in order to accomodate some other hotel guest of "higher priority" for the management.  I guess they just hoped that I wouldn't notice or that I wouldn't care that one day into the reservation the level of comfort of our stay had drastically diminished. What followed was a series of sixteen lies (yes, I counted) by the two managers at the front desk in order to cover up what they had done. Eventurally, the operations manager apologized profusedly and gave me points on my frequent stay card and 20% off on our NEXT stay (which we will not be using). This was not the way to get me to come back, but may be that was the point.   By the end, it was pointed out to me how much the front desk managers felt they had gone out of their way in order to make things right  AFTER I pointed out that they had lied repeatedly and made our pre-Christmas day miserable. The entire management staff needs some serious training on accountability, customer relations, and communication among staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>This was the third time that my family and I stayed at this hotel. In the two previous visits I was pleased with their basic and reliable amenities of an extended stay. This time I received the worst treatment as a hotel guest I have ever experienced.  Basically my family and I were suddenly shortchanged in our stay in order to accomodate some other hotel guest of "higher priority" for the management.  I guess they just hoped that I wouldn't notice or that I wouldn't care that one day into the reservation the level of comfort of our stay had drastically diminished. What followed was a series of sixteen lies (yes, I counted) by the two managers at the front desk in order to cover up what they had done. Eventurally, the operations manager apologized profusedly and gave me points on my frequent stay card and 20% off on our NEXT stay (which we will not be using). This was not the way to get me to come back, but may be that was the point.   By the end, it was pointed out to me how much the front desk managers felt they had gone out of their way in order to make things right  AFTER I pointed out that they had lied repeatedly and made our pre-Christmas day miserable. The entire management staff needs some serious training on accountability, customer relations, and communication among staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r861961-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>861961</t>
+  </si>
+  <si>
+    <t>02/27/2003</t>
+  </si>
+  <si>
+    <t>Best in the area</t>
+  </si>
+  <si>
+    <t>Very comfortable hotel.  Started with extremely friendly and accommodating staff.  The accommodations are comparable to a Residence Inn (but at a lower price).  In the "Valley" there are not many good choice . . . but this is one.  The only item that keeps me from ranking it "excellent" is that if you stay on the 2nd or 3rd floors in the various buildings, there is no elevators to get you there.  It's my problem, but after "hoofing" up to floors, to the 3rd floor, I was ready for a nice place to walk into . . . and I was not disappointed.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2479,5477 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>143</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>200</v>
+      </c>
+      <c r="X22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>168</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" t="s">
+        <v>110</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>245</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>246</v>
+      </c>
+      <c r="X29" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>244</v>
+      </c>
+      <c r="O30" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>244</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>246</v>
+      </c>
+      <c r="X31" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>267</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" t="s">
+        <v>269</v>
+      </c>
+      <c r="K33" t="s">
+        <v>270</v>
+      </c>
+      <c r="L33" t="s">
+        <v>271</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L35" t="s">
+        <v>283</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>284</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>290</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>293</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s">
+        <v>295</v>
+      </c>
+      <c r="L37" t="s">
+        <v>296</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>290</v>
+      </c>
+      <c r="O37" t="s">
+        <v>143</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>297</v>
+      </c>
+      <c r="X37" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>301</v>
+      </c>
+      <c r="J38" t="s">
+        <v>302</v>
+      </c>
+      <c r="K38" t="s">
+        <v>303</v>
+      </c>
+      <c r="L38" t="s">
+        <v>304</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>305</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>284</v>
+      </c>
+      <c r="O39" t="s">
+        <v>76</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>316</v>
+      </c>
+      <c r="X40" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>325</v>
+      </c>
+      <c r="X41" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" t="s">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s">
+        <v>331</v>
+      </c>
+      <c r="L42" t="s">
+        <v>332</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>333</v>
+      </c>
+      <c r="O42" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>336</v>
+      </c>
+      <c r="J43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s">
+        <v>322</v>
+      </c>
+      <c r="L43" t="s">
+        <v>338</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>339</v>
+      </c>
+      <c r="O43" t="s">
+        <v>143</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>340</v>
+      </c>
+      <c r="X43" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>344</v>
+      </c>
+      <c r="J44" t="s">
+        <v>345</v>
+      </c>
+      <c r="K44" t="s">
+        <v>346</v>
+      </c>
+      <c r="L44" t="s">
+        <v>347</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>348</v>
+      </c>
+      <c r="O44" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>349</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>350</v>
+      </c>
+      <c r="J45" t="s">
+        <v>351</v>
+      </c>
+      <c r="K45" t="s">
+        <v>352</v>
+      </c>
+      <c r="L45" t="s">
+        <v>353</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>354</v>
+      </c>
+      <c r="O45" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s">
+        <v>193</v>
+      </c>
+      <c r="L46" t="s">
+        <v>359</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>360</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>362</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>363</v>
+      </c>
+      <c r="J47" t="s">
+        <v>364</v>
+      </c>
+      <c r="K47" t="s">
+        <v>365</v>
+      </c>
+      <c r="L47" t="s">
+        <v>366</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>367</v>
+      </c>
+      <c r="O47" t="s">
+        <v>143</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>368</v>
+      </c>
+      <c r="X47" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>371</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>372</v>
+      </c>
+      <c r="J48" t="s">
+        <v>373</v>
+      </c>
+      <c r="K48" t="s">
+        <v>374</v>
+      </c>
+      <c r="L48" t="s">
+        <v>375</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>354</v>
+      </c>
+      <c r="O48" t="s">
+        <v>143</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>377</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>378</v>
+      </c>
+      <c r="J49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" t="s">
+        <v>380</v>
+      </c>
+      <c r="L49" t="s">
+        <v>381</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>354</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" t="s">
+        <v>385</v>
+      </c>
+      <c r="K50" t="s">
+        <v>386</v>
+      </c>
+      <c r="L50" t="s">
+        <v>387</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>388</v>
+      </c>
+      <c r="O50" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>390</v>
+      </c>
+      <c r="J51" t="s">
+        <v>391</v>
+      </c>
+      <c r="K51" t="s">
+        <v>392</v>
+      </c>
+      <c r="L51" t="s">
+        <v>393</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>394</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>397</v>
+      </c>
+      <c r="J52" t="s">
+        <v>398</v>
+      </c>
+      <c r="K52" t="s">
+        <v>399</v>
+      </c>
+      <c r="L52" t="s">
+        <v>400</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>401</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>402</v>
+      </c>
+      <c r="X52" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>405</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>406</v>
+      </c>
+      <c r="J53" t="s">
+        <v>407</v>
+      </c>
+      <c r="K53" t="s">
+        <v>408</v>
+      </c>
+      <c r="L53" t="s">
+        <v>409</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>410</v>
+      </c>
+      <c r="O53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>412</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>413</v>
+      </c>
+      <c r="J54" t="s">
+        <v>414</v>
+      </c>
+      <c r="K54" t="s">
+        <v>415</v>
+      </c>
+      <c r="L54" t="s">
+        <v>416</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>417</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>418</v>
+      </c>
+      <c r="X54" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>421</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>422</v>
+      </c>
+      <c r="J55" t="s">
+        <v>423</v>
+      </c>
+      <c r="K55" t="s">
+        <v>424</v>
+      </c>
+      <c r="L55" t="s">
+        <v>425</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>426</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>427</v>
+      </c>
+      <c r="X55" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>430</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>431</v>
+      </c>
+      <c r="J56" t="s">
+        <v>432</v>
+      </c>
+      <c r="K56" t="s">
+        <v>433</v>
+      </c>
+      <c r="L56" t="s">
+        <v>434</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>435</v>
+      </c>
+      <c r="O56" t="s">
+        <v>76</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>426</v>
+      </c>
+      <c r="O57" t="s">
+        <v>143</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>444</v>
+      </c>
+      <c r="J58" t="s">
+        <v>445</v>
+      </c>
+      <c r="K58" t="s">
+        <v>446</v>
+      </c>
+      <c r="L58" t="s">
+        <v>447</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>448</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>450</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>451</v>
+      </c>
+      <c r="J59" t="s">
+        <v>452</v>
+      </c>
+      <c r="K59" t="s">
+        <v>453</v>
+      </c>
+      <c r="L59" t="s">
+        <v>454</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>455</v>
+      </c>
+      <c r="O59" t="s">
+        <v>110</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>457</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>458</v>
+      </c>
+      <c r="J60" t="s">
+        <v>459</v>
+      </c>
+      <c r="K60" t="s">
+        <v>460</v>
+      </c>
+      <c r="L60" t="s">
+        <v>461</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>448</v>
+      </c>
+      <c r="O60" t="s">
+        <v>143</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>462</v>
+      </c>
+      <c r="X60" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>465</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>466</v>
+      </c>
+      <c r="J61" t="s">
+        <v>467</v>
+      </c>
+      <c r="K61" t="s">
+        <v>468</v>
+      </c>
+      <c r="L61" t="s">
+        <v>469</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>470</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" t="s">
+        <v>474</v>
+      </c>
+      <c r="K62" t="s">
+        <v>475</v>
+      </c>
+      <c r="L62" t="s">
+        <v>476</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>470</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>477</v>
+      </c>
+      <c r="X62" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>480</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>481</v>
+      </c>
+      <c r="J63" t="s">
+        <v>482</v>
+      </c>
+      <c r="K63" t="s">
+        <v>483</v>
+      </c>
+      <c r="L63" t="s">
+        <v>484</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>485</v>
+      </c>
+      <c r="O63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>487</v>
+      </c>
+      <c r="J64" t="s">
+        <v>488</v>
+      </c>
+      <c r="K64" t="s">
+        <v>489</v>
+      </c>
+      <c r="L64" t="s">
+        <v>490</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>485</v>
+      </c>
+      <c r="O64" t="s">
+        <v>143</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>492</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>493</v>
+      </c>
+      <c r="J65" t="s">
+        <v>494</v>
+      </c>
+      <c r="K65" t="s">
+        <v>495</v>
+      </c>
+      <c r="L65" t="s">
+        <v>496</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>497</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>498</v>
+      </c>
+      <c r="X65" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>501</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>502</v>
+      </c>
+      <c r="J66" t="s">
+        <v>503</v>
+      </c>
+      <c r="K66" t="s">
+        <v>504</v>
+      </c>
+      <c r="L66" t="s">
+        <v>505</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>506</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>507</v>
+      </c>
+      <c r="X66" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>510</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>511</v>
+      </c>
+      <c r="J67" t="s">
+        <v>512</v>
+      </c>
+      <c r="K67" t="s">
+        <v>513</v>
+      </c>
+      <c r="L67" t="s">
+        <v>514</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>515</v>
+      </c>
+      <c r="O67" t="s">
+        <v>76</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>516</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>517</v>
+      </c>
+      <c r="J68" t="s">
+        <v>518</v>
+      </c>
+      <c r="K68" t="s">
+        <v>519</v>
+      </c>
+      <c r="L68" t="s">
+        <v>520</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>515</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>522</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>523</v>
+      </c>
+      <c r="J69" t="s">
+        <v>524</v>
+      </c>
+      <c r="K69" t="s">
+        <v>525</v>
+      </c>
+      <c r="L69" t="s">
+        <v>526</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>527</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>529</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>530</v>
+      </c>
+      <c r="J70" t="s">
+        <v>531</v>
+      </c>
+      <c r="K70" t="s">
+        <v>532</v>
+      </c>
+      <c r="L70" t="s">
+        <v>533</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>534</v>
+      </c>
+      <c r="O70" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>535</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>536</v>
+      </c>
+      <c r="J71" t="s">
+        <v>537</v>
+      </c>
+      <c r="K71" t="s">
+        <v>538</v>
+      </c>
+      <c r="L71" t="s">
+        <v>539</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>540</v>
+      </c>
+      <c r="O71" t="s">
+        <v>245</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>541</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>542</v>
+      </c>
+      <c r="J72" t="s">
+        <v>543</v>
+      </c>
+      <c r="K72" t="s">
+        <v>544</v>
+      </c>
+      <c r="L72" t="s">
+        <v>545</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>540</v>
+      </c>
+      <c r="O72" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>547</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>548</v>
+      </c>
+      <c r="J73" t="s">
+        <v>549</v>
+      </c>
+      <c r="K73" t="s">
+        <v>550</v>
+      </c>
+      <c r="L73" t="s">
+        <v>551</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>552</v>
+      </c>
+      <c r="O73" t="s">
+        <v>76</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>554</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>555</v>
+      </c>
+      <c r="J74" t="s">
+        <v>556</v>
+      </c>
+      <c r="K74" t="s">
+        <v>557</v>
+      </c>
+      <c r="L74" t="s">
+        <v>558</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>559</v>
+      </c>
+      <c r="O74" t="s">
+        <v>143</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>561</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>562</v>
+      </c>
+      <c r="J75" t="s">
+        <v>563</v>
+      </c>
+      <c r="K75" t="s">
+        <v>564</v>
+      </c>
+      <c r="L75" t="s">
+        <v>565</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>566</v>
+      </c>
+      <c r="O75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>567</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>568</v>
+      </c>
+      <c r="J76" t="s">
+        <v>569</v>
+      </c>
+      <c r="K76" t="s">
+        <v>570</v>
+      </c>
+      <c r="L76" t="s">
+        <v>571</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>572</v>
+      </c>
+      <c r="O76" t="s">
+        <v>110</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>574</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>575</v>
+      </c>
+      <c r="J77" t="s">
+        <v>576</v>
+      </c>
+      <c r="K77" t="s">
+        <v>577</v>
+      </c>
+      <c r="L77" t="s">
+        <v>578</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>572</v>
+      </c>
+      <c r="O77" t="s">
+        <v>76</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>580</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>581</v>
+      </c>
+      <c r="J78" t="s">
+        <v>582</v>
+      </c>
+      <c r="K78" t="s">
+        <v>583</v>
+      </c>
+      <c r="L78" t="s">
+        <v>584</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>585</v>
+      </c>
+      <c r="O78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>587</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>588</v>
+      </c>
+      <c r="J79" t="s">
+        <v>589</v>
+      </c>
+      <c r="K79" t="s">
+        <v>590</v>
+      </c>
+      <c r="L79" t="s">
+        <v>591</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>592</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>593</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>594</v>
+      </c>
+      <c r="J80" t="s">
+        <v>595</v>
+      </c>
+      <c r="K80" t="s">
+        <v>596</v>
+      </c>
+      <c r="L80" t="s">
+        <v>597</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>598</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>600</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>601</v>
+      </c>
+      <c r="J81" t="s">
+        <v>602</v>
+      </c>
+      <c r="K81" t="s">
+        <v>603</v>
+      </c>
+      <c r="L81" t="s">
+        <v>604</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>605</v>
+      </c>
+      <c r="O81" t="s">
+        <v>143</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>607</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>608</v>
+      </c>
+      <c r="J82" t="s">
+        <v>609</v>
+      </c>
+      <c r="K82" t="s">
+        <v>610</v>
+      </c>
+      <c r="L82" t="s">
+        <v>611</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>612</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>614</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>615</v>
+      </c>
+      <c r="J83" t="s">
+        <v>616</v>
+      </c>
+      <c r="K83" t="s">
+        <v>617</v>
+      </c>
+      <c r="L83" t="s">
+        <v>618</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>619</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>620</v>
+      </c>
+      <c r="J84" t="s">
+        <v>621</v>
+      </c>
+      <c r="K84" t="s">
+        <v>622</v>
+      </c>
+      <c r="L84" t="s">
+        <v>623</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>624</v>
+      </c>
+      <c r="O84" t="s">
+        <v>76</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>625</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>626</v>
+      </c>
+      <c r="J85" t="s">
+        <v>627</v>
+      </c>
+      <c r="K85" t="s">
+        <v>628</v>
+      </c>
+      <c r="L85" t="s">
+        <v>629</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>630</v>
+      </c>
+      <c r="O85" t="s">
+        <v>76</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>27797</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>632</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>633</v>
+      </c>
+      <c r="J86" t="s">
+        <v>634</v>
+      </c>
+      <c r="K86" t="s">
+        <v>635</v>
+      </c>
+      <c r="L86" t="s">
+        <v>636</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>636</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_719.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_719.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="722">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>pnkgirl27</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We stayed at this location for business March 11th - 14th and had a pleasant quiet stay. Parking was not a problem and breakfast was good. We got a corporate rate of $143 a night which was a lot cheaper than the standard price, very kind of them to offer that.More</t>
   </si>
   <si>
+    <t>NYC9423</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r567066876-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Friendly and helpful staff. Decent breakfast options and the social hours during the week. Plus you have options walking distance from the hotel. They also have great scenic views close enough to enjoy.More</t>
   </si>
   <si>
+    <t>george g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r565593298-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>The reception area was warm and friendly.Always had coffee and Hot water available. Breakfast entrees changed each day, along with the standard breads,waffles, fruit etc. Coffee was excellent bold or mild and flavored creams. My room was huge with a full kitchen ( I did not use it on this trip). Location was a bit tucked away and I did not know the area so I did not venture far. Pool and jacuzzi seemed small I did not use either. Bed was very comfortable and the living area was nice, lots of room to stretch out and a good desk with all hook ups for your laptop etc. The bathroom was cramped and I am sorry the toilet tissue was like sandpaper... why do Hotels insist on putting budget TP in there bathrooms ? They have a evening reception with beer and wine and light dinner items. I was out for dinner each night so I did not partake. I will definatley stay here again on my next trip in the fall.WIFI was perfect no issues at allMore</t>
   </si>
   <si>
+    <t>Peter M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r524380222-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>We stayed for one week beginning of September.The overall impression of the hotel was very good. The rooms were clean, they have a nice pool and Jacuzzi, a fireplace and BBQ grills outside.The self laundry is also useful.We had a one bedroom suite for 4 people, so we needed to use the sleeper sofa bed.It was a bit small and uncomfortable. Maybe they should make the 2 bedroom suites cheaper, then it will be an option for us. The breakfast menu was good and the selection of food was enough. The service on some days was slow (no plates, no silverware anymore, coffee empty... took a while...), on other days everything was in place and if something was missing it was filled up immediately.All employees were very nice and helpful and fulfilled our requests immediately.At the beginning we thought that Chatsworth is a bit far away from everything, but it is only a 30 minutes ride to Santa Monica or Hollywood, so a perfect spot to stay.Oh and btw - if you stay there, hop over to Amazing Siam across the street (Topanga Canyon Blvd/Lassen Street) - they offer great food !!!We surely will stay again in your hotel the next time we come to LA.More</t>
   </si>
   <si>
+    <t>Robin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r519223165-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>I would have given a "very good" rating except housekeeping simply could not follow simple directions. They put 3 sets of towels in our room even though we had 4 people in the room. We even left written notes and instructions with the front desk, it didn't matter.Be aware you only get a "light cleaning" daily, which is just changing towels if you put them on the floor. A full cleaning to include vacuuming and changing the sheets is done weekly, 1 week after you check in.The breakfast is actually decent, with enough variety most folks will find something they can eat. Coffee is on all the time, though sometimes can taste old in the late evening.Laundry is complimentary, which was a big positive for our 2 weeks stay, just be sure to buy your own laundry detergent, etc., theirs is expensive.The room was clean and in good condition, even though we had a pet friendly room (some places seem to reserve the junky rooms for those of us with pets).They have a nice outdoor seating area to sit and relax which enjoying your breakfast or an evening drink.Location is pretty convenient if you are visiting the North LA area or Malibu, most things are within 30-45 minute drive, of course not counting the famous LA traffic.More</t>
   </si>
   <si>
+    <t>Brian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r518111979-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>Very nice Staybridge to stay at that was right in between - Warner Brothers Studios, and the Reagan Library. We wanted some place that would be easy for us to hit both locations. We enjoyed our stay, the room was a one bedroom unit, with kitchen. It was nice to be able to make our own meals and not have to go out for dinner! The room was clean - and best part was the staff was very friendly and helpful!More</t>
   </si>
   <si>
+    <t>joe292</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r500500818-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -330,6 +351,9 @@
     <t>I hadn't stayed at a Staybridge before so didn't know what to expect. I was quite surprised. Check in was fast and the lady was very pleasant. Large1 bed suite with a full kitchen on the second floor. Rooms were very clean and had all amenities. Small pool. Good breakfast which was included in the price. Also free parking and Wifi.. Little bit pricey though.More</t>
   </si>
   <si>
+    <t>pas2rjw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r487179156-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -360,6 +384,9 @@
     <t>This is where I stay when I come to the San Fernando Valley to visit family.  The spacious suites are clean and comfortable.  I have room to spread out and make myself at home.  The breakfasts are tasty.  Although I have not yet attended, there is evening food that could be dinner.More</t>
   </si>
   <si>
+    <t>Khodor A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r476152729-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>The rooms were clean, smell nice too, but if you have someone living in the room above yours, you can't sleep at night, if they walk the sound of the wooden floors are annoying and too loud, met some good and bad staff, the bed was comfy but that's doesn't matter if you can't sleep! LolMore</t>
   </si>
   <si>
+    <t>Jaqueline V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r463507800-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>At first sight it seemed perfect, considering that I needed an apartment that had a small kitchen because I was with a baby.I took out the suitcases from the car and when I entered the apartment I was disappointed. The furniture was covered in dust, including the kitchen appliances. It was not a dust of hours ago, no, that was dust of days without cleaning. To make things worse, I just had the trash taken off the first day. In the following days the trash was left and the kitchen was not cleaned. So,I'm very disappointed about that and for sure, this hotel is out of my list in future trips.PS: (1) Yes, I could have complained to the manager about the lack of cleanliness in the room, but that would solve my problem and not the concept of cleanliness of the place in general. The housekepping manager should be aware of this and check if the service is doing well ...(2)Yes, I could have left the hotel and find another one, instead of complaining, but that would not be so easy, after a 6-hour car trip with 2 children, one being a 9-month-old baby.  It is not about changing hotels but about the responsibility of the workers to do their job well.More</t>
   </si>
   <si>
+    <t>P B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r460256817-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -429,6 +462,9 @@
     <t>I have stayed 4wks at the Staybridge Suites. They have great daily breakfast options and Social Hour dinners 3 days a week.  Unfortunately, I have food allergies and have a difficult time eating most foods.  In social passing, the front desk found out about my food allergies. Knowing that I will be staying an additional 4wks. Staybridge Suites  delivered a case of single serving Chobani yogurt to my room.  What a great treat!  That was very thoughtful and meaningful, when you have food challenges like I do...priceless!  I will always remember this Staybridge Suites in Chatsworth, California.  At home, I have a wonderful wife and for kiddos; this hotel would be a wonderful place to bring them. I highly recommend this Staybridge Suites for family, fun or business.More</t>
   </si>
   <si>
+    <t>GTMickey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r446336700-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -450,6 +486,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>maryannfnewman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r428010215-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -468,6 +507,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Susan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r404909201-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -489,6 +531,9 @@
     <t>Booked five days here following a stay in Staybridge Las Vegas. We were just as impressed. The hotel is laid out in small two and three storey blocks. Our suite was on the ground floor. We opened the door into a lounge area with sofa that opened out into a double bed.  Behind this was a desk and breakfast bar and kitchen with large fridge freezer, microwave, toaster, coffee maker, two ring hob and dish washer. Off the lounge was a double bedroom and bathroom. It too was spacious, clean and tidy. Check in was quick and efficient and the receptionist polite friendly and very helpful. As it was a Monday there was a complementary evening buffet meal with wine  and beer, which was so welcome after a long drive from Las Vegas. This complementary meal is available Monday to Wednesday 5.30-7.30.  Breakfast is also complementary and is buffet with two hot items.  There is an enclosed pool and spa pool, and plenty of sunbeds and seating. There is a BBQ area and fire pit off the pool area with more seating. There is a complementary laundry and business centre and good wifi. Highly recommend.More</t>
   </si>
   <si>
+    <t>Michelle A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r398616610-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -507,6 +552,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>grandpawz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r373548649-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -525,6 +573,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>kidneymd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r372836273-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -544,6 +595,9 @@
   </si>
   <si>
     <t>Located on Lassen just a few feet east of Topanga Canyon. Nice grounds with pool, bbq, and fire pit.  Rooms are suites.  Kitchen had frig with ice maker, dish washer, stove, dishes, pots and pans , soap, paper towels, coffee and maker.  Living room had L-shaped couch that makes up into bed, 50 inch flat screen, DVD player, chair.  Bed room had queen bed (they have only queen beds), 2 night stands, dresser, flat screen tv.  Bath room had one sink. To the left of the sink was a walk-in closet with ironing board. To the right, was the potty/shower/tub that was separated from the sink area by a sliding door that I didn't care for.  Breakfast was sumptuous with all kinds of hot and cold foods!  On Mon., Tues., and Wed., there is also a small dinner meal with wine or beer.  The staff is very friendly and helpful. As this is not a hotel/motel, there is only light housekeeping. They make the bed, dump the trash, and replace the towels.  And you have to request housekeeping on the weekends or you don't get it.  If you can afford $200 a night, this is a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>drmirage</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r362632820-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
@@ -579,6 +633,9 @@
 Also want to recognize how friendly the front desk team members who are very passionate about their work. Keisha, Dilruba, Dianne, Jenny A, Lucy and Hassan.  There is always...Our family has been relocated to the StayBridge Suites in Chatsworth from Porter Ranch, CA due to the Aliso Canyon Gas Leak. This Hotel is booked solid and we are so fortunate to have rooms available when we checked in on Nov 22nd 2015.  (We got our reservation just in time).  We have a 2BDR on the 3rd Floor.  The StayBridge in Chatsworth could possibly be the "#1 Hotel in the San Fernando Valley". The rooms are exceptionally clean and comfortable.  I am so happy that our relocation company placed us here instead of the other hotels. (The Radisson, Comfort Inn, the Ramada, the Best Western or the Extended Stay America)The full daily breakfast is epic with fresh fruits, berries and even granola.  Coffee is delicous. Social night dinners are great time to meet up with other relocated residents (Monday to Wednesday from 5:30pm to 7:30pm).  Ria G (Front Office Manager) and Alex G (Front Desk Supervisor) call me by name whenever I pass by the front desk and have been making sure my family are comfortable in our stay during this relocation period.We have been staying here for 131 nights. Nov 22nd to Dec 26th, Jan 2nd to Feb 25th and Feb 26th to Aprilk 9th (so far)Also want to recognize how friendly the front desk team members who are very passionate about their work. Keisha, Dilruba, Dianne, Jenny A, Lucy and Hassan.  There is always service with a smile. Jennifer and Jenny K are outstanding in running this place. The StayBridge Suites in Chatsworth is a Great Example of Good Hotel &amp; Good Staff.  Very friendly and helpful throughout the stay. Thank you! -Elery T.More</t>
   </si>
   <si>
+    <t>Shannon G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r333025400-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -602,6 +659,9 @@
 We then on next visit requested a room on the backside of parking lot. We thought that would be better since being away from small parking lot/pool. Turned out that we were close to Del Taco with a drive through that pressure washes the drive through and parking lot/sidewalks at approx. 4:30 am. We also...We chose Staybridge because it's a pretty well known property to us, &amp; it's convenient, within walking distance to our daughter's home . We had stayed there long ago( at least 12yrs ago) on more than one occasion, chose not to for many years because the price was out of our budget. We began staying here again this summer. Our daughter had a troubling pregnancy and delivery. Our stays then were based on the property's availability, approx. every two weeks. The first visit in the summer was more than pleasant. Each time there after has been not so pleasant. One time a man talking loudly to himself in the patio area beside the pool, drinking with swearing. He was threatening other races and came into the pool area and showed my husband and adult son, grand children his new knife and what an excellent weapon it was. The next visit had loud partying people across from us in the building with the lobby. We had another visit and was given a room at the back over a garden area. We had people partying until 1am.We then on next visit requested a room on the backside of parking lot. We thought that would be better since being away from small parking lot/pool. Turned out that we were close to Del Taco with a drive through that pressure washes the drive through and parking lot/sidewalks at approx. 4:30 am. We also had a family staying in the room next door and came in after midnight fighting and calling a young child names, slamming doors and such. This last stay was over the weekend of Dec 11. Again I requested a room on the opposite side of the parking lot/pool. Upon check in, the man seemed out of patience when asking if we got a room as requested, then when explaining he had a room on 2nd or 3rd floor again impatient. We chose a room on the 2nd that happened to be above and across from the desk. Hoped that may give us a little more opportunity to have some quiet and sleep. No. On Friday night I had to use my earplugs, there was either a small party in the lounge/dining area or it was a gathering of employees with loud conversation until after midnight.Saturday night, I called down to the desk and asked how long the party might be going tonight. She kind of had a little giggle and said she would tell them. It took a half hour to calm down with doors slamming and still loud conversation. We have chosen this property not only because of the nearness to our family, cleanliness but because it is also in a better part of the area to choose a property from for us to stay. Because my husbands internal alarm wakes him by 4:30. These suites have French doors to the bedroom that can be shut and I don't hear him making coffee and watching the news. Which was helpful when we were in the NICU with our 9week preemie grand daughter till 1am.We will probably try this property one more time and see it there is anything different and choose a room on the backside of the parking lot again. The rooms are comfortable, some are starting to get that old property musty smell. Some beds seem much, much newer and more comfortable than others, although, they are not a true queen bed. The bedding is warm and cool when you need it to be. I enjoy the tub after a long day and the shower heads are the rain showers that do deliver a whole body flow. The entrance door to the lobby at night is a wrestlers dream, you have to pry it apart to open.The breakfast, if you like cheap powdered eggs and bacon slices so thin you can see a full view through them then, I guess you could agree that they provide a breakfast. I stick to the bagels and fruit, yogurt for that reason. The parking really does suck, very close together, I am a small woman and I have to squeeze up against my car not to bump others with my door and not enough.I do have question when I reserve a room, two weeks in advance why is it such an issue to have a room that is requested. Not a specific room but an area a room could be in.More</t>
   </si>
   <si>
+    <t>Pamela S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r325842470-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -617,6 +677,9 @@
     <t>Spent 3 weeks here &amp; would highly recommend it . Well equipped kitchenette , comfy bedding, clean , quiet &amp; secure! Outstanding hot &amp; cold breakfast buffet with new items daily . Pool &amp; fitness center . Reasonable pricing with all above included. No regrets staying at Staybridge.</t>
   </si>
   <si>
+    <t>nialstheman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r325104237-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -641,6 +704,9 @@
     <t>Overall the hotel was OK.  Going to rate based on pros and cons...Pros- Nice clean rooms- full kitchen with extras- great gym- nice staff- well maintained propertyCons- housekeeping vacuuming and stomping in the rooms above you at 7am- parking lot always full, have to park on the street- front door broken,would not open, even with card access.- Holiday Inn Express breakfast, powdered eggsMore</t>
   </si>
   <si>
+    <t>Wayne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r319584176-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -662,6 +728,9 @@
     <t>Stayed at this hotel for 3 days as we were looking for somewhere away from the hustle and bustle of central LA and this place was perfect. Room was large with a fully functioning kitchen that had everything required to cook if that is what you wanted we just used the fridge, then there was a living area with sofa and TV then the bedroom with a comfy double size bed then adjacent to the bedroom was the toilet and shower, the sink area is just outside of the bathroom. There was sufficient clothes storage and an iron and board were provided. A good continental breakfast was provided each morning which consisted of fresh fruit, cereals, waffles ,scrambled eggs and bacon.There was a fitness suite open 24 hours, a good sized pool and jacuzzi which was very clean and a surrounding family area furnished with large cushioned chairs, BBQ and fire pit, this was a lovely place to sit in the evenings and just chill. The staff were very helpful and friendly. We chose this hotel as a tranquil retreat after some very hectic days in central LA and it didn't disappoint and I would not hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>daisyWarwickshire</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r316422673-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -677,6 +746,9 @@
     <t xml:space="preserve">Nice 2 night stay , really clean , big well equipped suites . Good bathroom &amp; very comfortable bed . Good location for LA &amp; surrounding districts. Breakfast ok , nice , efficient, friendly staff . Didn't use the pool but nice area with plenty of tables chairs etc . There are local shops &amp; a restaurant very near but you'll need a car to get around. </t>
   </si>
   <si>
+    <t>Kym T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r313140818-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -695,6 +767,9 @@
     <t>SERVICE: Every staff member we came across was friendly and courteous. They provide ice cold water, coffee, and tea throughout the day. The best part is, the coffee actually tastes good!SUITES: Suites are very clean and spacious. We had a group of 4 staying in a 1 bedroom suite and it was just the right size. Full size kitchen, pull out couch, bedroom w/ little walk in closet, and a bathroom with separate sink and mirror. My only wish is that there was an entrance to the bathroom from the outside. The way it is set-up, you have to go inside the bedroom to get to the bathroom which isn't ideal when you're trying not to wake the people up who are staying in the bedroom. BREAKFAST:Every morning there is a free hot breakfast provided. In the 4 nights we stayed, there were always eggs, waffles, bread, and fruit. The other stuff that switched up was between bacon, sausages, corn beef hash. The dining area is clean and spacious with lots of tables. LOCATION: Nice neighborhood in Chatsworth. If you haven't got a car, there are little plazas within walking distance that have restaurants, cafes, and convenience stores. AMENITIES: There is a small gym and a swimming pool. We didn't have time to take advantage of these amenities but it looked very clean. Thank you Staybridge for the lovely 4 night stay!More</t>
   </si>
   <si>
+    <t>Bob R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r308601156-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -710,6 +785,9 @@
     <t>Great service. Great rooms.  They provide breakfast and dinner .   was worth staying for short or long stays. Would be first choice when I go back to the area. They go out of their way to make your stay comfortable.</t>
   </si>
   <si>
+    <t>Traveling4food</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r298600446-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -728,6 +806,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>SEAPexplorer012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r293160807-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -749,6 +830,9 @@
     <t>We stayed in a suite with one queen bed.  It was basically a small apt.  The complex is older but the the internal finishings have been updated.  The hot water was good.  The bedding was comfortable.  The couch was not great to sit on but we were not staying in the room for an extended period.  The plugs were conveniently located.  THere was a large walk in closet.  The location was good for us about 5 miles from California State Northridge.  There is a 24 hr Del Taco next door.  What made this place unusual was the staff.  We were welcomed by an exceptionally friendly lady.  There is short term parking at the front to use to check in.  Then we moved the car to be in front of our unit.  There are 3 floors so if you have a preference, let them know.  Breakfast the first day was very nice.  Good atmosphere, plenty of healthy choices.  The second day they were closing it out early.  Nearly everything was gone. Someone asked for fruit and was told there was none.  We mentioned it on checkout and they went out of their way to make up for it.  The front desk attendant got us bananas and water and the manager followed up with a note. I have confidence that they will take care of any issues!More</t>
   </si>
   <si>
+    <t>weewilly2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r259815458-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -779,6 +863,9 @@
     <t>A friend and I stayed here four nights recently (2 bedroom suite) and, as he'd stayed in many Staybridges before, he was disappointed in how small the rooms were and how much more expensive it was than other Staybridges (250.00 a night). I had no frame of reference as I'd never stayed at one before. The rooms were clean and well-appointed, At breakfast, the first morning, the scrambled eggs were leaking yellow water and other days were over-cooked. There was only one four-slice toaster (and many people waiting to use it). It wasn't the black hole of Calcutta, but there were niggling, little things to complain about.More</t>
   </si>
   <si>
+    <t>alexgray-york</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r259659490-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -794,6 +881,9 @@
     <t>a standard Staybridge suite with nothing overly exciting about it. Not a bad location. For la. Clean tidy big rooms. Breakfast was okay but not amazing. Didn't use the pool but it was clean &amp; tidy. Room was spacious and nice decour</t>
   </si>
   <si>
+    <t>Div K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r259194099-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -812,6 +902,9 @@
     <t>Hey people the funny thing is that I actually like this hotel. An would have love to give them a 5 star rating. Buuuuut....I get back to my room today aaan....I can't believe that the house keeping let a complete mess all over the floor...I mean to get to the bathroom she literally would have walked thru this...I have a Service Dog an he was have to much fun with his toy last night...but...I guess the house keeping decided to punish the customer an leave my room messy...WELL....thanks to the Internet now us lil guys have the ability to  let each other know when to stay away....soooo....bottom line is if you don't want your housekeeper to punish you like a 6 year old then DON'T stay here....check out my pic.you.wont believe your eyes....More</t>
   </si>
   <si>
+    <t>Kenneth K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r250504205-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -833,6 +926,9 @@
     <t>Just 2 dings against this facility. We were traveling with a 9 and 11 year-old girl who had to share the pull-out bed in the living area. It's barely double-bed size, so there was some conflict over whose side was whose. Also, we had to make the bed ourselves--some places I've stayed, the bed is made as soon as you fold it out. Not a deal breaker, but it would have been nice to not have to make the bed when we arrived tired from our trip.Also, our room's window was right by the stairs to other rooms, so we could really hear other guests moving to and from their rooms. Thankfully there wasn't too much foot traffic late at night when we were there, and overall the facility is quiet.If you are 2-3 people--or if your kids are little enough to share a small double bed--I'd highly recommend the facility for a good breakfast bar, clean rooms with plenty of outlets and a modern look.More</t>
   </si>
   <si>
+    <t>CallMeGomez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r244382124-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -851,6 +947,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>curioustraveller78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r235136764-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -869,6 +968,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>twinning2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r226952584-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -887,6 +989,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Andrea R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r225575326-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -908,6 +1013,9 @@
     <t>We had to stay here a couple nights due to water damage at our house.  The front desk staff were very nice and were able to check us in early which we really appreciated.  The facility was well maintained, clean, and during the week they have a light dinner with free beer and wine!  Also, every morning they had hot breakfast which the kids enjoyed.  The pool facilities were nice although they could use some adult size pool towels.  The room was nice size for the 4 of us although the sleeper sofa could use some sort of topper on it and the pillows were very flimsy and we had to call and get a couple more sent up.  The kitchen was nice to have a refrigerator to store some snacks and drinks.  We would probably stay again if our house ever needs repairs again!More</t>
   </si>
   <si>
+    <t>CareerGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r224674122-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -932,6 +1040,9 @@
     <t>We stayed four nights at this hotel.  Our room was on the ground floor near the pool, so it was quite noisy but the pool closes at 10pm so it wasn't an issue.  The room was well equipped but had no safe.  There is a laundry on site which is open 24 hours a day.  The bed was only double size (I have a queen bed at home and the hotel bed was not as big).  I did not find the bed to be very comfortable although my partner had no complaints.  Being on the ground floor we could hear noise from people using the stairs to get to the upstairs rooms.  There was plenty of parking.  The day of arrival there was a 'social' going on which is really just free food, wine and beer.  This was good for us as it was a barbeque and we did not need to buy dinner that evening.  Breakfast was always very crowded and noisy and the food was average but adequate.  Lots of families stay here so breakfast was always dominated by screaming kids, although it is possible to take your food outside to eat by the pool.Staff overall were friendly and accommodating.More</t>
   </si>
   <si>
+    <t>Micha-07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r217895247-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -950,6 +1061,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>jojofosho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r215929878-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -963,6 +1077,9 @@
   </si>
   <si>
     <t>To start off with, the rooms here are brand new and immaculate. Has a wonderful common area right in front of the room, and another be the pool area with grills and a fire pit. The free breakfast is not your traditional continental breakfast, its in competition with a nice restaurant. From Tuesday until Friday night there is also free dinner that is buffet style and as good if not better than breakfast. It was very reasonably priced and its location is great. If i could choose I would stay no where other than a Staybridge.</t>
+  </si>
+  <si>
+    <t>D B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r212335728-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
@@ -995,6 +1112,9 @@
 On the upside, one employee in particular, Sobey, would smile at us every time he...We stayed for two weeks at Staybridge Suites and our initial impressions were positive--the front desk staff were friendly and helpful and we were pleased with the layout of our room, with a separate bedroom from the lounge area. The breakfasts provided were adequate for our needs but nothing special.The main concern about staying here is the other "guests". Questionable and seedy characters hang around the parking lots as well as a group of men who basically take over the pool area in the evenings and weekends, playing loud rap music with expletive-laced lyrics. My young children kept pointing out all the "bad words" they were hearing, to the point that we left the pool much earlier than we wanted to. Management is totally oblivious to these intimidation tactics but they worked for those young men, who were basically left with the pool to themselves. I also understand that each room only gets "light housekeeping" daily but we stayed in the main building and not once in two weeks did I see or hear a vacuum in any of the public areas. On our second day, someone dropped some sour cream on the carpet on the stairs and it was still there (ground in and stained) at the end of our two-week stay as well as lots of other stains, dirt and dust bunnies.On the upside, one employee in particular, Sobey, would smile at us every time he passed, and also offer help with whatever we were doing--bringing in groceries, getting us towels, turning on the hot tub, or activating the firepit. He really went above and beyond in terms of customer service.Wish our experience could have been more positive.More</t>
   </si>
   <si>
+    <t>TJBoston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r208929564-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1022,6 +1142,9 @@
     <t>This Hotel is fantastic.  The staff was very accommodating, and the service was excellent.  It was my home away from home for nearly 2 months. I met a lot of great people during my stay and would without a doubt stay there again. More</t>
   </si>
   <si>
+    <t>TrishaTim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r202131564-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1043,6 +1166,9 @@
     <t>The location was great for visiting Universal Studios and Magic Mountain.  Nice place for a couple with kids, big rooms and great included breakfast.  Also a manager's reception 3 nights a week.  The staff is pleasant and helpful.  I only had a few complaints, not enough parking for the property.  We were coming back from parks sometimes later in the evening and had a hard time finding parking.  Sometimes only finding one spot available.  Cleaning is set up unlike any hotel I've ever visited.  During the week it's called "light cleaning" on the weekends I guess there is no cleaning, which was weird to me.  We asked for extra towels every day as there were 4 of us in the room and only 3 towels.  As previous reviews have stated the beds aren't the most comfortable.  Also there is a nice kitchen but no stove, which was very bizarre.  We didn't notice that and brought pizzas back to the room to cook for dinner which we weren't able to do so had to order pizza and leave the pizzas we purchased in the fridge, sadly a waste of money.But the area was nice with plenty of shops and restaurants nearby and friendly, courteous staff.  I'd definitely recommend it for families.  Check out Stone Fire for dinner - wonderful!More</t>
   </si>
   <si>
+    <t>Mskyline</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r199975207-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1067,6 +1193,9 @@
     <t>I stayed here for 2 weeks in March and it was excellent.The staff was very helpful and room was clean and tidy.The breakfast is decent and there is a free shuttle to nearby malls for my wife when I am on business.There is guest nights during Tuesday-Thursday evening and I like the serenity in the evenings.Definitely will come back here again on my next trip to LA.Special mention to the front desk staff, Ria for her hospitality and making my wife and I felt at home.More</t>
   </si>
   <si>
+    <t>xpp888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r191814736-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1083,6 +1212,9 @@
   </si>
   <si>
     <t>January 2014</t>
+  </si>
+  <si>
+    <t>Gail G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r191385613-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
@@ -1110,6 +1242,9 @@
 Parking was...Earlier this year, I booked a room for my family.  Because it was a special-needs situation, I was pretty thorough in my research.  After ascertaining online that this hotel would likely fit the bill, I drove there, asked for a Manager and was allowed to examine one of the handicap suites in detail.  Then, I booked online.  Between the time of booking and the date of the reservation, I phoned the hotel no less than three times.  On each occasion my request for a 2 bedroom handicap accessible room with roll-in shower was reaffirmed.This lovely hotel is a cluster of suites, set back from two busy streets in the northwest corner of the San Fernando Valley near the Chatsworth boulders.  Unless you know exactly where to look, it's pretty easy to drive right past, which is what I did my first time.  The accessible suite I reserved was well-thought out, spotlessly clean, nicely equipped and attractively decorated.  Each bedroom contained a queen bed (one of which was on a platform and not suitable to accommodate our patient lift, which rolls partially under the bed), a TV, a private bath and ample closet and drawer space.  There was a small workspace in the living room, a dining area, an additional TV and a sleeper sofa.  The full kitchen was beautifully equipped with basic appliances and implements, the fridge ample in size to accommodate several days worth of supplies.  Parking was OK, though handicap specific parking was somewhat limited and we ended up parking a distance from the room.  I believe there were both a pool and a gym.  Although I'd understood that daily breakfast was included (which my mom reported was wonderful), I hadn't counted on a further perk-- that being an evening social which happened to be most of the nights my family was staying, and each social included a hot entree at dinnertime.  My family was very pleased with this feature as it meant they didn't have to cook or go to a restaurant.All in all, it ended up a great stay for them-- it was getting there which was a bit rocky.  Check in was not a fun experience.My first mistake was not questioning the room number given.  That very morning on the phone, Jennifer had told me that the room had been assigned and that it was at the front of the property, close to the office-- so perhaps I would've saved a great deal of time, movement and aggravation had I simply said, "Are you sure you've given me the right room?" at the onset.  But because I said nothing, back we all went to the van, reloading the wheelchair since the room we were given was at the rear of the property.  Amazingly, there wasn't a single handicap space that I could see in the vicinity, but even more surprising than that was the complete lack of ramps or really any sign suggesting that the room was accessible (on my tour of the facilities before booking, I'd noticed how clearly marked all handicap facilities had been.)  But it got worse.  There was a message hanging on the door of our assigned room  informing that it still wasn't made up.  Excuse me?  It was after five pm.  Miffed, I drove back to the office.  My passengers elected to stay in the van this time, never mind that it had been over 100 degrees earlier that day.  The young woman at the desk checked her computer, then informed me that the room assignment she'd given me had been correct.  When I pointed out the lack of handicap signage, she tried to tell me that there was no mention of handicap needs in the reservation.  At this point, I came perilously close to coming unglued.  I was hot, I was tired.  And now, I was Very Upset.  I'd done my homework, planning this for many weeks, had spoken to no less to three people regarding the reservation (I had names) and now she was trying to tell there was no mention of handicap needs in my reservation?  "No, no, no, no...." I remember saying.  "Do not even TRY to use that excuse--"  About this time another agent wisely intervened seeking to avert a major catastrophe.  I can only guess at what they were looking at on the computer, but I thank God that a few moments later, Jennifer walked by and said something like "Are you the 2-room handicap with the roll-in shower I spoke to earlier today?"  And just like that, my room appeared.  The initial agent was apologetic over dropping a digit in our room number-- and the room, by the way, ended up being right by the front of the property, just as Jennifer had told me it would be.All's well that ends well and my family had a pleasant stay  Would this entire incident deter me from booking there again?  No.  Would I deter others from staying what is otherwise a well-run, comfortable establishment?  Also no.  It is less about the desk agent having made a mistake than it is about the way in which she handled said mistake.  Lesson learned?  I hope so.  Everyone else at this hotel rated a four or a five on customer service; so I'm sorry to let a single individual drag down my rating on service.More</t>
   </si>
   <si>
+    <t>darylmarx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r188457402-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1128,6 +1263,9 @@
     <t>The hotel's well-appointed suites, outdoor pool and spa are just a few of the perks guests can experience when they choose this property in Chatsworth as their accommodations. The Social on Tuesday, Wednesday and Thursday evenings lets guests mingle while enjoying delicious hors d'oeuvres,Bar B Q,  wine and beer.  The only negative we had was that the linens weren't changed as promised and the bed not made several days.  Other than that, the kitchen was more than adiequate and fully stocked with dishes, coffee pots, pots and pans as well as silverware.  A dishwasher is available, but we didn't use it.  There are food stores near by to stock your frig!!  Try this place, you'll like it.More</t>
   </si>
   <si>
+    <t>Texas_native_01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r175478827-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1153,6 +1291,9 @@
   </si>
   <si>
     <t>Just stayed here Labor day weekend 2013.. overall the place is decent. Nothing looks run down. It's kept nice and clean. I have three gripes.. 1) they sign out front needs updating and so does the exterior of all the buildings. 2) the wireless internet was not working properly or either very very slow. 3)when the hotel is full or busy the parking space is very limited so you may have to park on the street. The rooms are very comfortable and nicely kept. And breakfast was also pretty decent. The hotel is pretty convenient to major roads and it sits right next to a major chain taco restaurant with other places very close by. You would not be disappointed with your stay here, but you also would not feel like you were at a top of the line hotel either. As for the staff, I found them to be very helpful and polite. I rated this place 3-star because of the 3 negatives I mentioned which certainly are not major but it would increase the hotel rating if those things were corrected/changed.More</t>
+  </si>
+  <si>
+    <t>griff72</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r175100801-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
@@ -1179,6 +1320,9 @@
 We also took advantage of the breakfast each morning that seemed well stocked with average hotel breakfast foods being available.  I did partake of one evening meal that harkened back to my schooldays.  Not sure I'd plan to eat the evening meal (available Tu-Th) again but it served a...The first thing one must know about this property is that it was not built as a Staybridge originally.  Rather than one big building full of rooms as most purpose-built SS hotels this one has multiple buildings of three floors each.  This yields a somewhat apartmenty feel which is quite nice to have for some trips.  The room itself was obviously re-done and seemed more upscale than I would have expected from this hotel chain.  Most impressive to me was the bathtub/shower that seems to have been redone with genuine tile including some elegant accenting.  Along with the shower area you'll find the toilet and then a large vanity on the other side of the door.  The vanity is clearly in the bedroom area which is great for a couple needing to get ready for a day out.  The closet is quite large as well and could easily keep a couple in clothes for quite a few months.  We found the bed to be quite comfortable and enjoyed the door separating the living area from the bedroom.  Noise was usually quite minimal and we found ourselves getting quality sleep each night.  We also took advantage of the breakfast each morning that seemed well stocked with average hotel breakfast foods being available.  I did partake of one evening meal that harkened back to my schooldays.  Not sure I'd plan to eat the evening meal (available Tu-Th) again but it served a purpose. Aside from the well redone rooms and homelike rooms I have to say the property has some of the best staff I've encountered.  Everyone I spoke with was extremely friendly and caring.  Having stayed at some very upscale hotels it's always amazing to me how much nicer staff can be at hotels of this nature. We had originally planned to stay at the Extended Stay America nearby but after visiting a restaurant near that hotel we were so happy to have chosen the Staybridge Suites.  The location of the SS is secluded and quiet most evenings whereas the Extended Stay faces a pretty major street with a bunch of retail and traffic. Overall we really enjoyed our stay and even declined the light touch housekeeping as we felt we were in an apartment.  The hotel does provide soap and shampoo and will make your bed and refresh towels on weekdays.  We did have housekeeping trade out our towels a couple of times which was easy to do. We'll be headed back to the area in January and will most likely stay at this property again provided the cost is still agreeable. More</t>
   </si>
   <si>
+    <t>Stephen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r173264969-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1197,6 +1341,9 @@
     <t>The rooms are big and I love the kitchenette.  The beds are good with plenty of pillows &amp; soft.  The television is good and the locations seems like a good place..  However..  The stairs were very noisy when kids would go up and down.  The rooms were a little noisy and we could hear the neighbors above and next to us.  The breakfast area was messy and chaotic.  Probably from the many families that stayed there.  The worst thing about the hotel was the people that hung out in the parking lots.  I continually watched my vehicle out the window as some of the people I saw there were a little suspect. I've read many of the reviews regarding the management but didn't have any troubles with them.  They were great from checkin to checkout.More</t>
   </si>
   <si>
+    <t>Paul T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r167303319-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1215,6 +1362,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>wtdavis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r163364166-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1236,6 +1386,9 @@
     <t>Stayed here for 6 nights and it was the best experience I've ever had at a hotel.  The staff is super friendly, personable, helpful, and always cheerful.  The rooms are clean, spacious, bright, and well designed.  I normally have a hard time enjoying hotels but the staff here made me feel right at home from the beginning.  The breakfast options in the morning cover a wide range and the quality is on par with a Residence Inn, perhaps slightly better.  I usually opt for Residence Inn but based on my experience here, I'll be looking for a Staybridge Suites in the future.  Lots of really great mom-and-pop restaurants nearby too.More</t>
   </si>
   <si>
+    <t>Frecklebox</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r161645717-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1261,6 +1414,9 @@
   </si>
   <si>
     <t>My daughter just graduated from Northridge (CSUN). We have stayed in many hotels and finally for her graduation found a great one. The room was great and clean and the staff was friendly even though we arrived very late. We wish we had found this one earlier. Great value.More</t>
+  </si>
+  <si>
+    <t>TioLoco333</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r156642510-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
@@ -1284,6 +1440,9 @@
   <si>
     <t>Came down to visit family with our dogs and they'd just updated the hotel.  I was expecting the same old one room average place, but was happy to find a contemporary three-room suite with a fully functional kitchen, stocked with basic utensils. The kitchen was perfect for cordon off the dogs when we left (bring a gate). It's unusual to find a place that allows you to leave the dogs in the hotel when you leave.  There's also a nice lawn for them and there's a back area that has bags for picking up.  I chose the place because it's near our family, but also because it had a hot tub for my wife and a pool for my kid (which is nice when it gets hot in the valley).  They also had a pretty nice free breakfast with eggs and waffles, and some evening meals during the week, though I didn't partake in those.  Everything was clean and everyone was friendly.  I especially appreciated Sobe (from Egypt), Rhea, and Rob (perhaps the happiest desk person I've ever met). 
 Okay, so it's clear I was very happy.  No place is perfect, so here are some of the cons:1) No elevator for a third floor can get tiring, but Sobe helped carry our luggage.  2) It can get pricey during the week.  Found a $98-110 during the weekend, but it shoots up to over $130 during the week.  Be sure to...Came down to visit family with our dogs and they'd just updated the hotel.  I was expecting the same old one room average place, but was happy to find a contemporary three-room suite with a fully functional kitchen, stocked with basic utensils. The kitchen was perfect for cordon off the dogs when we left (bring a gate). It's unusual to find a place that allows you to leave the dogs in the hotel when you leave.  There's also a nice lawn for them and there's a back area that has bags for picking up.  I chose the place because it's near our family, but also because it had a hot tub for my wife and a pool for my kid (which is nice when it gets hot in the valley).  They also had a pretty nice free breakfast with eggs and waffles, and some evening meals during the week, though I didn't partake in those.  Everything was clean and everyone was friendly.  I especially appreciated Sobe (from Egypt), Rhea, and Rob (perhaps the happiest desk person I've ever met). Okay, so it's clear I was very happy.  No place is perfect, so here are some of the cons:1) No elevator for a third floor can get tiring, but Sobe helped carry our luggage.  2) It can get pricey during the week.  Found a $98-110 during the weekend, but it shoots up to over $130 during the week.  Be sure to use your AAA discount if you have one! Also join their IGH or IHG rewards when you book so you can get a few perks. The pets cost $75 for 6 nights, which is a reasonable cost, but shoots up to $150 for 7 nights.Otherwise...I recommend this place highly if you have to be in the Chatsworth area.  Also, check out the Simi Valley Big Sky dog park if you have dogs.67493334More</t>
+  </si>
+  <si>
+    <t>bmwatson33</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r155072094-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
@@ -1317,6 +1476,9 @@
 The hotel is laid out ‘motel’ style, so you typically need to drive over to and park near your room. I ended up staying on the second floor of a three story building, which ultimately I ended up regretting. A colleague of mine stayed on the floor above me and the floors of this hotel creek like an old farm house. I could easily hear basically every step taken above me, and it woke me up several times through the night. If I stayed here again I would insist on a top floor...Chatsworth isn’t exactly a get-away destination, but this last Sunday night I had to stay in the area for work and figured this would be a great opportunity to review a new hotel. The area immediately surrounding the hotel is a bit intimidating, but once you’re in the parking lot the cleanliness and inviting design of the hotel helps set your mind at ease.The hotel lobby was very clean and well designed, and you feel like you’re in a ‘nice’ hotel. The check-in staff was very friendly, but a little too talkative….a five minute check-in I get at most hotels was 15 minutes here. They also ask you to fill in a bunch of personal information that most hotels don’t require (and I’ve stayed at a lot). To their defense, I was exhausted that day, a bit grumpy and not really in the mood for conversation.The hotel is laid out ‘motel’ style, so you typically need to drive over to and park near your room. I ended up staying on the second floor of a three story building, which ultimately I ended up regretting. A colleague of mine stayed on the floor above me and the floors of this hotel creek like an old farm house. I could easily hear basically every step taken above me, and it woke me up several times through the night. If I stayed here again I would insist on a top floor room (pro tip).The rooms themselves are surprisingly modern and comfortable, laid out with a separated kitchen/living room area and bedroom. Although I was only there for the night, I found myself wishing I had more time to spend in the room. Everything seemed to be brand new. The bed was also very comfortable…despite the squeaky floors and a car alarm going off in the middle of the night (meh), I ended up sleeping fairly peacefully.Prices are on the higher side for the area, but it’s worth the additional cost if you absolutely have to stay in Chatsworth (lucky you). The hotel is also conveniently located nearby the Northridge Mall, so there are tons of restaurants and shopping a short drive away. If you get fast food cravings, there is also a Del Taco within easy walking distance right next to the hotel. I was disappointed however that there were no bars within walking distance.http://www.explorernation.com/2013/03/staybridge-suites-chatsworth-ca.htmlMore</t>
   </si>
   <si>
+    <t>Nancy O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r153745686-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1344,6 +1506,9 @@
     <t>the general Manager Sean is rude, disrespectful, and arrogant. I caught him snooping around my room.  he was trying to start my computer and i think some of my food was not where i left it so i threw it out because i was creeped out by the whole situation. when i asked him why he was in my room he said he was the manager here and he can go thru any room at anytime.More</t>
   </si>
   <si>
+    <t>Jean W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r151058264-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1365,6 +1530,9 @@
     <t>My husband and I stayed for 2 nights with another couple in a 2 bedroom suite. We got 2 very nice bedrooms - spacious and nicely decorated - plus a living room. This suite was a great bargain. We all slept very well - it was so quiet, and the blackout curtains were a nice touch. The kitchen was clean, and fully equipped.  One exception - we are coffee addicts, and there were no coffee filters for brewing the coffee we brought with us. But the complimentary breakfast was great. Fresh fruit, too. We left a remote control for our ipod dock there, and the staff is sending it back to us. We really appreciate service like that. We would definitely stay at the Staybridge Suites in Chatsworth again, and highly recommend it to others.More</t>
   </si>
   <si>
+    <t>Adriana C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r150137016-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1383,6 +1551,9 @@
     <t>Hotel was a lot nicer than expected.  Room was very nice and very clean. Room included a fridge w/freezer, stove, microwave, sink, shower with tub, roomy closet, two tvs, one dvd player. The living room couch was comfortable and a great place to chill and watch movie. Bedroom very comfortable and could be closed off from living room. Shower nice and hot and adjustable shower settings.  Staff was very friendly.Cons, walls were very thin so could hear everything going on in room above us and we could hear every time someone was walking around in the room above which didn't allow for sleeping in or getting much sleep at all.More</t>
   </si>
   <si>
+    <t>Wizard41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r148898858-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1404,6 +1575,9 @@
     <t>We stayed there at the end of September 2012 for 3 nights (5 people). It's quite far away from the center of Los Angeles - about one hour's drive from Disney Land, and 30 minutes drive from Universal Studios. But on the other hand, its' a quiet and safe neighborhood, with all that one needs close by: laundromats, restaurants, gas stations, supermarkets. This is very convenient. The hotel is actually a whole street of apartments. Ours was on the third floor. No elevators. The suite we received was renovated like new and very big - two completely separate units, each containing a bedroom and a shower and toilet. The kitchen is big and well equipped with a large refrigerator, a dishwasher, dishes, kettle and everything you can think of! The staff is nice and helpful. There is a standard American breakfast, free WIFI, and a swimming pool. The price was also reasonable. We really enjoyed our stay!One morning when we had to leave very early, they let us grab as much breakfast food as we wanted at 6 o'clock in the morning! That was really helpful.More</t>
   </si>
   <si>
+    <t>happylightworker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r145424353-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1423,6 +1597,9 @@
   </si>
   <si>
     <t>I stayed at the Staybridge Suites in Chatsworth CA for almost a full week in November 2012 and I was so impressed that I am making a point to right a review which I've never done before.  The property is like a home away from home and my suite looked like an upscale condo inside.  I could not believe how nice,NEW, and comfortable everything was.  The bed and other furniture was super comfortable and I slept like a baby every night.  I also enjoyed having a hot waffle and delicious coffee every morning from the complimentary breakfast buffet and also enjoyed the complimentary dinner and wine from Tuesday thru Thursday nights.  I also loved having complimentary washer and dryers as well as a mini convenience store where I could purchase anything I required from toiletries to snacks for my stay. The staff was also very, very, nice and extremely accomodating and if I was able to stay here longer I would.  I also loved that it was a smoke free property, due to the fact that I am allergic to cigarette smoke, this was a HUGE plus!!!  I am extremely grateful to everyone at Staybridge suites for being such a phenomenal staff and giving me an amazing experience.  I will always look for a Staybridge Suites whenever I travel from now on and will continue to tell everyone how much I enjoyed my stay.  Thanks Staybridge!!!More</t>
+  </si>
+  <si>
+    <t>GJI-London</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r141048890-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
@@ -1455,6 +1632,9 @@
 That Holiday Inn is charging full or only slightly discounted rates during this construction is unbelievable (an AAA rate for a week night is $147.99!!). The hotel staff do the best they can for their guests under these circumstances, so I don't blame them, but I do blame their corporation. I asked for a discount for the last day due to the fact that all the water in the hotel was turned off from 10am-1pm with only 2 hours' notice (!!). I got a slight discount, but not enough to make me want to stay at another...The hotel staff are all very nice, helpful and pleasant.But the hotel is undergoing complete renovation, with constant noise of large trucks and forklifts loading and unloading large pieces of rubble, as well as furniture, carpet rolls, and other equipment, which end up strewn all over the parking lot. Other constant noise comes from sledgehammers and electric saws, and there is a lot of hammering and drilling. The trucks and equipment constantly block the parking lot, so getting your car in or out of the lot is often difficult. The construction workers try to accommodate the guests, but why should guests even have to deal with this major level of noise and inconvenience?We didn't know about the major level of noise or construction when we booked on the Staybridge website, and the noise and inconvenience increased significantly on our final day.That Holiday Inn is charging full or only slightly discounted rates during this construction is unbelievable (an AAA rate for a week night is $147.99!!). The hotel staff do the best they can for their guests under these circumstances, so I don't blame them, but I do blame their corporation. I asked for a discount for the last day due to the fact that all the water in the hotel was turned off from 10am-1pm with only 2 hours' notice (!!). I got a slight discount, but not enough to make me want to stay at another Holiday Inn property in the future.More</t>
   </si>
   <si>
+    <t>MtGlitterqueen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r135829013-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1476,6 +1656,9 @@
     <t>We have moved out of California and were visiting our families as well as business. I can honestly say that this might have been a nice hotel in it's early days. The staff is both professional and courteous. It's not their fault that things are run down. That being said... We didn't enjoy our stay there. We stay June 23 through July 1, 2012. We walked in our Room to find there was still dried spaghetti sauce on the floor near the fridge that hadn't been cleaned up, roaches in the cabinet where the plates were. The front desk girl had them come fumigate the room (now I'm afraid to open my suite case as I might have bugs in them). I walked barefoot and found that the carpets were filthy once I stepped in the shower to bathe. I was grossed out by this and walked with shoes on the remaining of the time we were there. The trash was finally picked up on my request 6 days after we had been there and fresh towels. We were in the main building but in one of the outside units... Right under the laundry room where we kept hearing the maids slam the door whilst doing laundry late at night. They did try to move us but at that point we were unpacked and the hubby didn't want to move. On to parking...because we were not in by 7 there...We have moved out of California and were visiting our families as well as business. I can honestly say that this might have been a nice hotel in it's early days. The staff is both professional and courteous. It's not their fault that things are run down. That being said... We didn't enjoy our stay there. We stay June 23 through July 1, 2012. We walked in our Room to find there was still dried spaghetti sauce on the floor near the fridge that hadn't been cleaned up, roaches in the cabinet where the plates were. The front desk girl had them come fumigate the room (now I'm afraid to open my suite case as I might have bugs in them). I walked barefoot and found that the carpets were filthy once I stepped in the shower to bathe. I was grossed out by this and walked with shoes on the remaining of the time we were there. The trash was finally picked up on my request 6 days after we had been there and fresh towels. We were in the main building but in one of the outside units... Right under the laundry room where we kept hearing the maids slam the door whilst doing laundry late at night. They did try to move us but at that point we were unpacked and the hubby didn't want to move. On to parking...because we were not in by 7 there were no parking spaces left for us. We had to park on the street three blocks away several times. It was quite infuriating to see the construction vehicles taking up three parking spaces as we had to park so far away each night. Traveling for business is bad enough but when you don't have a space for me when I get back from a business dinner... Shame on you. When I brought it up I was told that it was only a perk and basically I had to park on the street? I did notice some others on the premises park in the check in spots over night and asked if we could. I was told I'd be towed and definitely not to. I should have just done it since others did without thinking about it. Oh and the construction early morning even on the weekend was lovely. I was so frustrated that I don't think I'll ever stay at your place again or anyone you're affiliated with.  Breakfast was okay when it wasn't  filled with people waiting for food once it ran out. The coffee being stocked day and night was also a nice perk. Pay a few dollars more and have peace of mind once you get home and a PARKING spot waiting for you ( guaranteed).More</t>
   </si>
   <si>
+    <t>KimInJax</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r132489260-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1500,6 +1683,9 @@
     <t>Stayed here for a week for a business trip. Since it was going to be such a long trip. I decided that having a kitchen would be nice. What a mistake.I opened the cupboard doors above the sink and a 12 pack of empty beer cans, an old pizza box, dirty napkins, and my favorite- the empty box of condoms - along with the receipt showing that these items had been purchased the night before I checked in.I have not yet told you about the lovely clientel that stay at this property. Or the 4 (yes, 4) cop cars that all pulled up one morning before I left for the office. YUCKMore</t>
   </si>
   <si>
+    <t>imfisher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r130939830-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1516,6 +1702,9 @@
   </si>
   <si>
     <t>May 2012</t>
+  </si>
+  <si>
+    <t>FOmama</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r130913686-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
@@ -1542,6 +1731,9 @@
 If you are looking for a nice, clean comfortable room with lots of space, a congenial,...My husband and I were recently in the Chatsworth area visiting some long time friends of mine.  I had read other reviews on the Staybridge Suites and it seemed like it would be perfect for our needs and it was!The main lobby and entry area was clean and bright and the woman who checked us in was delightful.  The room was spacious and we loved having the full kitchen and a separate living area with a sofa and chair.  The kitchen had granite counter tops and nice cabinets.  The furnishings were updated and comfortable.  We were toward the back of the property and it was quiet and there was a little grassy area and a picnic table outside our front door between us and the other building.  There was plenty of parking and every member of the staff that we dealt with were very helpful and friendly.  The breakfast included a good selection of hot and cold items and the room was bright and welcoming. They have a laundry room for use if you bring the detergent and a small workout room with a stationary bike, a treadmill and an elliptical.  Evidently, during the week they have a reception in the evenings with some drinks and a small, simple meal, but we were there on the weekend, so I cannot report on that.If you are looking for a nice, clean comfortable room with lots of space, a congenial, helpful staff and a plentiful breakfast, this is your place.  We would definitely stay there again!More</t>
   </si>
   <si>
+    <t>jc m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r128470821-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1569,6 +1761,9 @@
     <t>Run down hotel rooms. Owner is an arrogant person. He demanded to see and "up to date" version of my AAA card, and wanted me to fax AAA for it.  I did mange to find the card, but I couldn't believe he put me through that, and I'm a club member!!!!  Not too many other choices in this area is why I stayed here. Old tvs and vhs players in the rooms, power outlets behind the desks, like something from 20 years ago!  Avoid this place!More</t>
   </si>
   <si>
+    <t>cariboukb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r125376253-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1596,6 +1791,9 @@
     <t>We should have been concerned when we had to be buzzed into the property at 10 p.m. on a Sunday night, and even more concerned when there was a security guard on foot patroling the parking lots. But hey, it's Southern California. Overall, the property is in good repair, but, it is showing signs of age.  The breakfast is usual fare, and the evening receptions are very disappointing - I was traveling with a colleague that is a Vegan, and there was nothing that she could eat except for a poorly put together ice burg salad. Internet connectivity is poor at best.  The highlight of the week here was the staff that drove our daily shuttle (our business meetings were in VanNuys).  They were courteous and always on time when we requested a pick up.More</t>
   </si>
   <si>
+    <t>HermanTheGerman-inTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r124020444-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1614,6 +1812,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>SuzM1004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r123352712-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1632,6 +1833,9 @@
     <t>My family and I checked into this hotel and checked out 3 hours later.  We got to our room, it smelled like animal urine covered up with carpet cleaner and air freshener, my shoes stuck to the bathroom floor and left tread marks, dirty towel on the sink, couch cushions different colors (not for decorative purposes), water bottle full of cigarettes at the top of the stair case and outdoor trash cans were overflowing with trash (on a Sunday afternoon at 2 pm).  Definitely an environment we didn't want to stay in for the rest of our vacation even if it was convenient!  Would not recommend or try to stay at another Staybridge again!More</t>
   </si>
   <si>
+    <t>punacoast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r122117376-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1653,6 +1857,9 @@
     <t>If you like Trader Joe’s or Whole Foods, then Staybridge Suites is the hotel that you should stay at in Chatsworth.  It’s only 5 minutes away from these markets!  It’s also conveniently located just a few blocks from Hwy 118 and Reseda Blvd where you’ll find all the shopping malls and restaurants.  We always stay at this hotel whenever we’re in north LA for business.  The 2-bedroom 2-bath suite is large and very comfortable, with nicely decorated livingroom and a fully equipped kitchen (flat top stoves, microwave, dishwasher, sink, cooking wares, dishes).  We love the kitchen because we enjoy making meals with all the good foods from Trader Joe’s!  The beds are big with plenty of pillows and clean sheets.  The thick curtains keep the bedrooms in pitch-black darkness, great for sleeping!  In fact, it’s so dark that we have to plug in a small night light (we always travel with one) so we don’t walk into walls trying to find the bathroom in the middle of the night!  We also like the free high speed internet (you’ll need a passcode from the very helpful front desk staff to connect) and free parking.  Not sure why but the parking spaces in front of our suite are all tiny (as in everywhere else in CA we noticed!), our compact rental car can barely fit in!More</t>
   </si>
   <si>
+    <t>FreyShay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r117978542-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1671,6 +1878,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Jw550</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r114911481-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1689,6 +1899,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>Febeautiful</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r114771014-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1707,6 +1920,9 @@
     <t>My two sons and I stayed at Staybridge, Chatsworth for summer vacation. We got a one bedroom, living rm and kitchen. It was very clean, beds very comfortable, free daily housekeeping service. The kitchen had all the necessary items to cook a warm meal all items in excellent condition. Free parking, delicious continental breakfast daily from 6:30-9:30am with a variety of warm and cold foods. They also have sundown every Tues, Wed, &amp; Thurs from 5:30-6:30pm includes free wine &amp; beer and each night is themed: Mexican, Italian, Hamburger night, etc. Excellent food my children ate very well through out our stay! There is also a pool &amp; jacuzzi area with Bar-be-Que and many tables for sitting while enjoying the pool, free towels!  To my surprise they have a 24 hour FREE laundry for guests open 24hours all you need is to provide your own soap and dirty clothes. At night there is a security guard and free parking. The complex itself is very secure and safe located in a remote part of L.A. 45 minutes from Universal Studios &amp; downtown. Avoid driving the 101 HWY as it is very congested morning and night, best HWY to use is the 118 to 170 to 101 to get into town quickly. L.A. traffic can wear you down!  Front desk staff is okay can be more friendly and outgoing to guests but besides that I plan on returning to Staybridge Suites soon!...My two sons and I stayed at Staybridge, Chatsworth for summer vacation. We got a one bedroom, living rm and kitchen. It was very clean, beds very comfortable, free daily housekeeping service. The kitchen had all the necessary items to cook a warm meal all items in excellent condition. Free parking, delicious continental breakfast daily from 6:30-9:30am with a variety of warm and cold foods. They also have sundown every Tues, Wed, &amp; Thurs from 5:30-6:30pm includes free wine &amp; beer and each night is themed: Mexican, Italian, Hamburger night, etc. Excellent food my children ate very well through out our stay! There is also a pool &amp; jacuzzi area with Bar-be-Que and many tables for sitting while enjoying the pool, free towels!  To my surprise they have a 24 hour FREE laundry for guests open 24hours all you need is to provide your own soap and dirty clothes. At night there is a security guard and free parking. The complex itself is very secure and safe located in a remote part of L.A. 45 minutes from Universal Studios &amp; downtown. Avoid driving the 101 HWY as it is very congested morning and night, best HWY to use is the 118 to 170 to 101 to get into town quickly. L.A. traffic can wear you down!  Front desk staff is okay can be more friendly and outgoing to guests but besides that I plan on returning to Staybridge Suites soon! Excellent choiceMore</t>
   </si>
   <si>
+    <t>CABozeman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r110160121-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1728,6 +1944,9 @@
     <t>As a person who has stayed at this hotel multiple times, I've had a chance to see its response to changing times. While it remains a pretty good deal(prices have risen in the last few trips), there is evidence of staff/service cutbacks under the new management co. Most noticeable is the service during the breakfast period. Where this was once staffed by multiple people keeping the coffee and food containers filled, now there is one, lone woman who really can't do it all. I expressed this to the staff at checkout. The food remains OK, but there needs to be more than one person on duty from 6:30-9:00. Room cleaning has also become more sparse, but that isn't a problem, per se. You can ask for more. All in all, I suggest more competitive rates and better food service. Still a good place.More</t>
   </si>
   <si>
+    <t>XRAYColorado</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r97495285-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1749,6 +1968,9 @@
     <t>Just got located via Priceline to this hotel off the beaten path. At check  they advised they do "soft touch" maid service. I had to ask for towels daily or none would be provided. I made request for the towels daily and only got them the last day I checked out. Same sheets every day for 4 nights. They came and made the bed only and emptied the trash. The lights in the room are all eco friendly and the light was dim and dingy. The shower had been modified to allow the least amount of water possible. The pressure was such that the stream of water with any shower head setting was dismal. Only Queen beds here, if you wish a king forget it. The parking while free is all compact spaces to jam every parking space into this tight parking area. Parking in front of your room may well escape your visit. Forget your SUV. The bathroom sink was stopped up and would take 3 minutes to drain from a single shave. this is NOT a 3 star Priceline property. I will decline if I ever get this hotel in the future.More</t>
   </si>
   <si>
+    <t>EuropeaninAsia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r91754624-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1767,6 +1989,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>gbcue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r89592826-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1788,6 +2013,9 @@
     <t>I've stayed here twice, both bid through Priceline, both times, I got a good deal, in relative terms.The service is okay, not phenomenal like at other hotels, who'd bend-over backwards to get you what you need.  The first time, I got a room on the first floor, the second time, on the 2nd floor.  The location of the hotel is terrible, in general.  It's in the middle of nowhere, no places to walk to and looks like it's kind of in a bad place.  You have to drive to get anywhere, but it's LA.The first time I stayed, my car got broken into.  They did the least amount of effort to help me.  They gave me the number for the police and lent me their shop-vac.  They didn't give me any plastic wrap (that I'm sure the kitchen has tons of), and they didn't even bother refunding me the price of the room!The second time I stayed, it was okay, couldn't sleep because the last time I stayed.  The rooms has a full kitchenette.The parking sucks, there aren't enough spaces for all rooms.  They also make you sign a clause that says if you party, they can take all your money and kick you to the curb.More</t>
   </si>
   <si>
+    <t>rndiln</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r65210583-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1806,6 +2034,9 @@
     <t>I purchased this on Priceline and paid a pretty good rate. It was pretty far away from where we had hoped to be staying, but since it was a weekend traffic on the freeways was not a huge issue. We checked into the hotel pretty late about 8pm on a Friday evening. The lobby was very quiet, I could hear music playing but no one greeted me at the at the front. Finally a woman came up and her name was Ria. Ria was so rude and so unfriendly. I told her I was with my family and we had a four year old. She told me I needed to sign this paper which was basically saying that if we were given any warning for noise we'd be asked to leave, there is NO warning and we'd be charged instantly for $300! My concern is that I have a 4 yr old and he could possibly make too much noise or jump up and down and I wouldn't be warned? Of course I'm going to try my hardest to keep him quiet but she was so rude about it. She had little to no personality and if she is the 1st person I'm going to be greeted by Staybridge needs to rethink their personnel! I have no other complaints about the hotel; room was very nice, bathroom was very clean, beds were comfortable and we had Free Wifi. My only...I purchased this on Priceline and paid a pretty good rate. It was pretty far away from where we had hoped to be staying, but since it was a weekend traffic on the freeways was not a huge issue. We checked into the hotel pretty late about 8pm on a Friday evening. The lobby was very quiet, I could hear music playing but no one greeted me at the at the front. Finally a woman came up and her name was Ria. Ria was so rude and so unfriendly. I told her I was with my family and we had a four year old. She told me I needed to sign this paper which was basically saying that if we were given any warning for noise we'd be asked to leave, there is NO warning and we'd be charged instantly for $300! My concern is that I have a 4 yr old and he could possibly make too much noise or jump up and down and I wouldn't be warned? Of course I'm going to try my hardest to keep him quiet but she was so rude about it. She had little to no personality and if she is the 1st person I'm going to be greeted by Staybridge needs to rethink their personnel! I have no other complaints about the hotel; room was very nice, bathroom was very clean, beds were comfortable and we had Free Wifi. My only complaint about the room is that in the living room area, the curtains don't close only the blinds close and the top blind was missing or broken so the light from outside was shining into the room all night!I would for sure recommend this hotel, I'm just hoping Ria can learn to treat people better. She told me many times that we could not "party" in our room...last time I checked I'm 36 years old with a 4 year old, I'm pretty sure there was going to be no "partying" in my room!More</t>
   </si>
   <si>
+    <t>thedancelfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r54072569-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1827,6 +2058,9 @@
     <t>SEAN HASHEMI is the Operations Manager here and not only was he not friendly, but he had an-real attitude. The real problem is that this is a franchise location, so basically he knows the "buck" stops with him.  The corporate office has no real power over franchises.  We requested towels and they provided (2) for a family of (2) adults and (2) toddlers. Mr. Hashemi stated their independent policy is to provide (4) towels in the room and only (2) additional, until the used towels are collected. Are you serious?  I have never heard of this type of policy.  They put a hold on your credit card for damages, so do they really think people are going to run off with their (6) towels?  It is obvious that his title is a cover for his holding as an owner.  Next, their pert run area was full of dog waste, that had no been cleaned in days.  Furthermore, they had wood that was laying in the area that had nails sticking out.I can go on further, but really it is a waste of time. I'm sticking with the Residence Inn.More</t>
   </si>
   <si>
+    <t>MiraleLosAngeles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r47127470-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1845,6 +2079,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>trisha7882</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r33295747-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1866,6 +2103,9 @@
     <t>FIrst off, I had to change my non-refundable, no change reservation due to a change in my work schedule. The manager sean, went out of his way to assist me and I was able to change my dates to another week.This is an extended stay location and to try to compare it with HOtels is not a fair comparison.  My suite was clean and quiet. I was on the fround floor and never heard anyone above me or to either side. Previous posts mentioned noise from trains but I never heard a train. Previous posts mentioned that this was an iffy part of town but it was a very good location. I felt very safe here.Staff members that I came in contact with were always pleasant and willing to assist. I did not take advantage of the breakfast buffet but it looked good. THey do have a simple dinner 3 nights a week. Adequate business center with two computers and a printer/copier.  IF I am ever in this area again, I will be staying here.More</t>
   </si>
   <si>
+    <t>LAKen2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r27521773-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1885,6 +2125,9 @@
   </si>
   <si>
     <t>I stayed at the Staybridge after booking a room through Priceline at $50 per night.  Room was very clean and quite spacious.  Nice brunch included in price.  Friendly staff persons who actually called me at my room to ask me how everything was so far.  Free high-speed internet.  My only complaint is that you can hear everything from your adjoining neighbor's walls.  My neighbor had his t.v. on all night long.  I called the front desk and they sent security to his room quickly.  Sure enough, I could clearly hear security knock on his door and hear him say, "hello, hello?"  He did turn down the t.v. for awhile but in about an hr., turned it back up.  In all fairness to Staybridge, I am a light sleeper and they did try to get him to quiet down.  I can't imagine what the noise would have been like if this person had decided to have a party at his room! If they added insulation to the walls, this would be the perfect place to stay!  Bring your white noise machine, if you're a light sleeper.More</t>
+  </si>
+  <si>
+    <t>lawyergirl07</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r24972619-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
@@ -1912,6 +2155,9 @@
 Well, I opted to extend my stay another night and called up the front desk.  The call was answered by a very rude guy.  I told him I had extended my stay.  He told me that I needed to bring my ID and credit card to the front desk.  Uhhhh...ok...why?  Apparently, because it was a different transaction on Priceline he needed to charge the...I booked my room on Priceline and scored at $50.00 a night!  Woo Hoo...more drinkin money for the Cowboy Palace (an awesome Honky Tonk bar a few blocks away).I arrived at the hotel lobby around 6pm and was greeted by the Hotel Desk Supervisor and another friendly young lady.  Check-in was a breeze. Quick. Easy. Painless.  The Superviser advised me that there would be a $50 hold on my credit card for incidentals.  Pretty standard.  I informed her that I may be extending my stay one more night.   I was very clear in asking if another $50 charge would be applied to my card for the second day.  She CLEARLY stated that the orginal charge would be held over for the next day if I informed the front desk before 11am.  I explained to her that with the amount that I travel,  I already have about $550 in holds from hotels waiting to be cleared and I needed to avoid any more.  She laughed and assured me that I would be charged only that once.Well, I opted to extend my stay another night and called up the front desk.  The call was answered by a very rude guy.  I told him I had extended my stay.  He told me that I needed to bring my ID and credit card to the front desk.  Uhhhh...ok...why?  Apparently, because it was a different transaction on Priceline he needed to charge the card again.  I was upset and told him that I didnt appreciate the different stories.  He got sharp with me and said "Thats just the way it is."  I was clearly pissed off and may or may not have said something really mean back (tee hee).  THEN, to make matters worse, they outsource the housekeeping to an outside company, so I wasnt even able to get housekeeping to come and give me new towels or to empty the trash.Will I stay here again, yes, more than likely.  The hotel rooms are like little apartments and its really close to my Family's house.  All I can hope is the little grouchy dude at the front desk gets run off or something.More</t>
   </si>
   <si>
+    <t>ReinaBogaloo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r22725066-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1927,6 +2173,9 @@
     <t>A great place to stay! Elegrant and pretty  with friendly staff to help. Great food . Plenty of amenities in the suite full kitchen with granite counters and a sofa bed in the livingroom internet service 2 TV,s outside a heated outdoor pool jacuzzi, excercise room and  laundry room. I will highly recommend this place for a short or long stay a home away from home.</t>
   </si>
   <si>
+    <t>HoustonDavid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r7543986-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1945,6 +2194,9 @@
     <t>April 2007</t>
   </si>
   <si>
+    <t>travel5family</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r6510192-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1964,6 +2216,9 @@
   </si>
   <si>
     <t>This was the third time that my family and I stayed at this hotel. In the two previous visits I was pleased with their basic and reliable amenities of an extended stay. This time I received the worst treatment as a hotel guest I have ever experienced.  Basically my family and I were suddenly shortchanged in our stay in order to accomodate some other hotel guest of "higher priority" for the management.  I guess they just hoped that I wouldn't notice or that I wouldn't care that one day into the reservation the level of comfort of our stay had drastically diminished. What followed was a series of sixteen lies (yes, I counted) by the two managers at the front desk in order to cover up what they had done. Eventurally, the operations manager apologized profusedly and gave me points on my frequent stay card and 20% off on our NEXT stay (which we will not be using). This was not the way to get me to come back, but may be that was the point.   By the end, it was pointed out to me how much the front desk managers felt they had gone out of their way in order to make things right  AFTER I pointed out that they had lied repeatedly and made our pre-Christmas day miserable. The entire management staff needs some serious training on accountability, customer relations, and communication among staff.More</t>
+  </si>
+  <si>
+    <t>Wallyskid</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d76460-r861961-Staybridge_Suites_Chatsworth-Los_Angeles_California.html</t>
@@ -2483,43 +2738,47 @@
       <c r="A2" t="n">
         <v>27797</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2531,56 +2790,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27797</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2598,47 +2861,51 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27797</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -2655,56 +2922,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27797</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2724,50 +2995,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27797</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2785,56 +3060,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27797</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2852,56 +3131,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27797</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2919,56 +3202,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27797</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2986,47 +3273,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27797</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -3043,56 +3334,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27797</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3110,56 +3405,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27797</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3171,56 +3470,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27797</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3240,50 +3543,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27797</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3297,50 +3604,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27797</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3354,50 +3665,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27797</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3411,50 +3726,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27797</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3474,50 +3793,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27797</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3535,50 +3858,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27797</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3596,50 +3923,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27797</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3659,50 +3990,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27797</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3716,50 +4051,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27797</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3777,56 +4116,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="X22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27797</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3846,50 +4189,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27797</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3903,50 +4250,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27797</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3966,50 +4317,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27797</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4023,50 +4378,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27797</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>251</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4080,50 +4439,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27797</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>258</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4141,50 +4504,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27797</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>266</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4202,56 +4569,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27797</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4265,50 +4636,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27797</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>283</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4320,56 +4695,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27797</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>290</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="K32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="O32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4387,50 +4766,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27797</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4450,50 +4833,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27797</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>305</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4511,50 +4898,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>27797</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>312</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4574,50 +4965,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27797</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4637,50 +5032,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>27797</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>327</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="J37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="K37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="O37" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4698,56 +5097,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="X37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Y37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>27797</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>336</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="J38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4767,50 +5170,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>27797</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>343</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="J39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="K39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4830,50 +5237,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27797</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>349</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="K40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="O40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -4895,56 +5306,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="X40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="Y40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>27797</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>358</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4956,56 +5371,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="X41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="Y41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>27797</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>368</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="J42" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="K42" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="O42" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5029,50 +5448,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>27797</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>376</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="J43" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="L43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="O43" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5084,56 +5507,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="X43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="Y43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>27797</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>385</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="K44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="L44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="O44" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5157,50 +5584,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>27797</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>392</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="J45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="K45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="L45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="O45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5224,50 +5655,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>27797</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>400</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="J46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="K46" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="O46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5291,50 +5726,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>27797</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>407</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="J47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="K47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="O47" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5356,56 +5795,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="X47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="Y47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>27797</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>417</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="J48" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="K48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="L48" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="O48" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5419,50 +5862,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>27797</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>424</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="J49" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="K49" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="L49" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5486,50 +5933,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>27797</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>431</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="K50" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="L50" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="O50" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5553,50 +6004,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>27797</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>438</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J51" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="K51" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="L51" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5620,50 +6075,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>27797</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>446</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="J52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="K52" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="O52" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5685,56 +6144,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="X52" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="Y52" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>27797</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>456</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="J53" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K53" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="L53" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="O53" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5758,50 +6221,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>27797</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>464</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5823,56 +6290,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="X54" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="Y54" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>27797</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>474</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="J55" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="K55" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="L55" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5894,56 +6365,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="X55" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="Y55" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>27797</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>484</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="J56" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="K56" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="L56" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="O56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5967,50 +6442,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>27797</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>492</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="J57" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="K57" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="L57" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="O57" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6034,50 +6513,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>27797</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="J58" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="K58" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="L58" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="O58" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6101,50 +6584,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>27797</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>507</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="J59" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="K59" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="L59" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="O59" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6168,50 +6655,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>27797</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>515</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="J60" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="K60" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="L60" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="O60" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6233,56 +6724,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="X60" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="Y60" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>27797</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>524</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="J61" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="K61" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="L61" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6306,50 +6801,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>27797</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>532</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="J62" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="K62" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="L62" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6371,56 +6870,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="X62" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="Y62" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>27797</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>541</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="J63" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="K63" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="L63" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="O63" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6444,50 +6947,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>27797</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>548</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="J64" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="K64" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="L64" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="O64" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6511,50 +7018,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>27797</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>555</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="J65" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="K65" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="L65" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -6576,56 +7087,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="X65" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="Y65" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>27797</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>565</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="J66" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="K66" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="L66" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6647,56 +7162,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="X66" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="Y66" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>27797</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>575</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="J67" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="K67" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="L67" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="O67" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6720,50 +7239,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>27797</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>582</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>516</v>
+        <v>583</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="J68" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="K68" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="L68" t="s">
-        <v>520</v>
+        <v>587</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="O68" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P68" t="n">
         <v>2</v>
@@ -6783,50 +7306,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>521</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>27797</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>589</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="J69" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="K69" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="L69" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6850,50 +7377,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>27797</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>597</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="J70" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="K70" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="L70" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="O70" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6913,50 +7444,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>27797</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>604</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>536</v>
+        <v>606</v>
       </c>
       <c r="J71" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
       <c r="K71" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="L71" t="s">
-        <v>539</v>
+        <v>609</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>540</v>
+        <v>610</v>
       </c>
       <c r="O71" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6976,50 +7511,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>539</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>27797</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>611</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="J72" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="K72" t="s">
-        <v>544</v>
+        <v>615</v>
       </c>
       <c r="L72" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>540</v>
+        <v>610</v>
       </c>
       <c r="O72" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7039,50 +7578,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>27797</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>618</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>547</v>
+        <v>619</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="J73" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="K73" t="s">
-        <v>550</v>
+        <v>622</v>
       </c>
       <c r="L73" t="s">
-        <v>551</v>
+        <v>623</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>552</v>
+        <v>624</v>
       </c>
       <c r="O73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7106,50 +7649,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>553</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>27797</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>626</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>554</v>
+        <v>627</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>555</v>
+        <v>628</v>
       </c>
       <c r="J74" t="s">
-        <v>556</v>
+        <v>629</v>
       </c>
       <c r="K74" t="s">
-        <v>557</v>
+        <v>630</v>
       </c>
       <c r="L74" t="s">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>559</v>
+        <v>632</v>
       </c>
       <c r="O74" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7173,50 +7720,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>560</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>27797</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>634</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>561</v>
+        <v>635</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>562</v>
+        <v>636</v>
       </c>
       <c r="J75" t="s">
-        <v>563</v>
+        <v>637</v>
       </c>
       <c r="K75" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="L75" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="O75" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7240,50 +7791,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>27797</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>641</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="J76" t="s">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="K76" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="L76" t="s">
-        <v>571</v>
+        <v>646</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="O76" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7307,50 +7862,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>27797</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>649</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>574</v>
+        <v>650</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="J77" t="s">
-        <v>576</v>
+        <v>652</v>
       </c>
       <c r="K77" t="s">
-        <v>577</v>
+        <v>653</v>
       </c>
       <c r="L77" t="s">
-        <v>578</v>
+        <v>654</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="O77" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7374,50 +7933,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>579</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>27797</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>656</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="J78" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="K78" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="L78" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="O78" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7441,50 +8004,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>27797</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>664</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>587</v>
+        <v>665</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="J79" t="s">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="K79" t="s">
-        <v>590</v>
+        <v>668</v>
       </c>
       <c r="L79" t="s">
-        <v>591</v>
+        <v>669</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -7508,50 +8075,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>591</v>
+        <v>669</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>27797</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>671</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
       <c r="J80" t="s">
-        <v>595</v>
+        <v>674</v>
       </c>
       <c r="K80" t="s">
-        <v>596</v>
+        <v>675</v>
       </c>
       <c r="L80" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7575,50 +8146,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>27797</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>679</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="J81" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
       <c r="K81" t="s">
-        <v>603</v>
+        <v>683</v>
       </c>
       <c r="L81" t="s">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="O81" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7642,50 +8217,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>27797</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>687</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="J82" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="K82" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="L82" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7709,41 +8288,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>27797</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>695</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="J83" t="s">
-        <v>616</v>
+        <v>698</v>
       </c>
       <c r="K83" t="s">
-        <v>617</v>
+        <v>699</v>
       </c>
       <c r="L83" t="s">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
@@ -7762,50 +8345,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>618</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>27797</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>701</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="J84" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="K84" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
       <c r="L84" t="s">
-        <v>623</v>
+        <v>706</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>624</v>
+        <v>707</v>
       </c>
       <c r="O84" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -7829,50 +8416,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>623</v>
+        <v>706</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>27797</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>708</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="J85" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
       <c r="K85" t="s">
-        <v>628</v>
+        <v>712</v>
       </c>
       <c r="L85" t="s">
-        <v>629</v>
+        <v>713</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>630</v>
+        <v>714</v>
       </c>
       <c r="O85" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -7894,41 +8485,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>27797</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>716</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="J86" t="s">
-        <v>634</v>
+        <v>719</v>
       </c>
       <c r="K86" t="s">
-        <v>635</v>
+        <v>720</v>
       </c>
       <c r="L86" t="s">
-        <v>636</v>
+        <v>721</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
@@ -7947,7 +8542,7 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>636</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
